--- a/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>ILMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,203 +665,228 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43828</v>
+      </c>
+      <c r="F7" s="2">
         <v>43737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>859000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>952000</v>
+      </c>
+      <c r="F8" s="3">
         <v>907000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>838000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>846000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>867000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>853000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>830000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>782000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>777000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>714000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>662000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>598000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>619300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>607100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>290000</v>
+      </c>
+      <c r="F9" s="3">
         <v>259000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>265000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>262000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>277000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>256000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>255000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>244000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>235000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>232000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>228000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>212000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>199900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>181000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>619000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>662000</v>
+      </c>
+      <c r="F10" s="3">
         <v>648000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>573000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>584000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>590000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>597000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>575000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>538000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>542000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>482000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>434000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>386000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>419400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,52 +903,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>161000</v>
+      </c>
+      <c r="F12" s="3">
         <v>151000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>166000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>169000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>176000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>159000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>151000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>137000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>137000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>134000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>130000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>140000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>129900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>125900</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,8 +999,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -975,43 +1014,49 @@
         <v>10</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>-39000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-15000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-8000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>31000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1099,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1120,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>670000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>684000</v>
+      </c>
+      <c r="F17" s="3">
         <v>599000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>594000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>627000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>670000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>612000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>603000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>564000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>547000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>533000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>519000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>546000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>476300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>446400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>268000</v>
+      </c>
+      <c r="F18" s="3">
         <v>308000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>244000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>219000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>197000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>241000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>227000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>218000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>230000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>181000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>143000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>52000</v>
       </c>
       <c r="O18" s="3">
         <v>143000</v>
       </c>
       <c r="P18" s="3">
+        <v>52000</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>143000</v>
+      </c>
+      <c r="R18" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,96 +1240,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-27000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>117000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>29000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>32000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>16000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>459000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>233000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>325000</v>
+      </c>
+      <c r="F21" s="3">
         <v>328000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>410000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>295000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>279000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>292000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>288000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>271000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>273000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>226000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>187000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>549000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>180500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>198600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1272,131 +1351,149 @@
         <v>11000</v>
       </c>
       <c r="E22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G22" s="3">
         <v>15000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>15000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>20000</v>
       </c>
       <c r="H22" s="3">
         <v>15000</v>
       </c>
       <c r="I22" s="3">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="J22" s="3">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K22" s="3">
         <v>11000</v>
       </c>
       <c r="L22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="N22" s="3">
         <v>10000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>8000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>8000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>8300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>269000</v>
+      </c>
+      <c r="F23" s="3">
         <v>270000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>346000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>233000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>209000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>232000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>232000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>221000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>223000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>175000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>141000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>503000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>134200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F24" s="3">
         <v>36000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>53000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>9000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>12000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>33000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>32000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>24000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>16000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>23000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>21000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>155000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>26700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,96 +1536,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>239000</v>
+      </c>
+      <c r="F26" s="3">
         <v>234000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>293000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>224000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>197000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>199000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>200000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>197000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>207000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>152000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>120000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>348000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>107500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>116900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>239000</v>
+      </c>
+      <c r="F27" s="3">
         <v>234000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>296000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>233000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>210000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>210000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>209000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>208000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>218000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>163000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>128000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>367000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>123800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1686,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1585,26 +1706,26 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-11000</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-150000</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+      <c r="M29" s="3">
+        <v>-150000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1615,8 +1736,14 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1786,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,96 +1836,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F32" s="3">
         <v>27000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-117000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-29000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-32000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-16000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-459000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>239000</v>
+      </c>
+      <c r="F33" s="3">
         <v>234000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>296000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>233000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>210000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>199000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>209000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>208000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>68000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>163000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>128000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>367000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>123800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,101 +1986,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>239000</v>
+      </c>
+      <c r="F35" s="3">
         <v>234000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>296000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>233000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>210000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>199000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>209000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>208000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>68000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>163000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>128000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>367000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>123800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43828</v>
+      </c>
+      <c r="F38" s="2">
         <v>43737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2115,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,272 +2135,310 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1991000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2042000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1815000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1943000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2270000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1144000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1346000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1344000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1560000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1225000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1354000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1219000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>981000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>734500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>794700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1341000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1372000</v>
+      </c>
+      <c r="F42" s="3">
         <v>1351000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1230000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1345000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>2368000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>2043000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1168000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>813000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>920000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>687000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>674000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>797000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>824200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>741600</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>573000</v>
+      </c>
+      <c r="F43" s="3">
         <v>541000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>470000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>457000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>514000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>433000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>395000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>400000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>411000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>383000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>372000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>368000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>381300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>384000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>359000</v>
+      </c>
+      <c r="F44" s="3">
         <v>417000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>420000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>412000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>386000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>374000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>362000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>350000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>333000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>327000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>309000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>299000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>300200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F45" s="3">
         <v>98000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>93000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>61000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>78000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>66000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>68000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>71000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>91000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>54000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>69000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>72000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>77900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4324000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4451000</v>
+      </c>
+      <c r="F46" s="3">
         <v>4222000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4156000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4545000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4490000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4262000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3337000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3194000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2980000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2805000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2643000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2517000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2318100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2277800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2272,96 +2481,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1449000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1444000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1430000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1412000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1426000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1075000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1060000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1036000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>983000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>931000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>862000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>837000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>734000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>713300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>633900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>962000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>969000</v>
+      </c>
+      <c r="F49" s="3">
         <v>976000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>986000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1006000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1016000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1026000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1036000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>943000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>946000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>956000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>967000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>978000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1018600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1031600</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2631,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,52 +2681,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>452000</v>
+      </c>
+      <c r="F52" s="3">
         <v>461000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>419000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>413000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>378000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>411000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>442000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>422000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>400000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>423000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>411000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>369000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>230500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,52 +2781,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7261000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7316000</v>
+      </c>
+      <c r="F54" s="3">
         <v>7089000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6973000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7390000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6959000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6759000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5851000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5542000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5257000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5046000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4858000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4598000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4280600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4227800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2855,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,272 +2875,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>149000</v>
+      </c>
+      <c r="F57" s="3">
         <v>143000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>139000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>137000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>184000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>156000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>149000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>151000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>160000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>158000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>175000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>142000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>137900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>134100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>499000</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>631000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1107000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1107000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>625000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>620000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>10000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>425000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>516000</v>
+      </c>
+      <c r="F59" s="3">
         <v>476000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>473000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>473000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>513000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>472000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>443000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>409000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>576000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>505000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>502000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>578000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>565500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1054000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>665000</v>
+      </c>
+      <c r="F60" s="3">
         <v>619000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>612000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1241000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1804000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1735000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1217000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1180000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>746000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>665000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>682000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>721000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>704700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>628900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>652000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1141000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1131000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1120000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1112000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>890000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>860000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>723000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>710000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1182000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1180000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1169000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1055000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1047800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1040800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>920000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>897000</v>
+      </c>
+      <c r="F62" s="3">
         <v>900000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>909000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>930000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>359000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>352000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>343000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>364000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>360000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>222000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>212000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>212000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>214000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>204300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3221,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3271,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,52 +3321,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2626000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2703000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2650000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2641000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3405000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3201000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3256000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2594000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2534000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2508000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2191000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2143000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2047000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2083400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1987700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3395,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3441,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3491,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3541,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,52 +3591,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4240000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4067000</v>
+      </c>
+      <c r="F72" s="3">
         <v>3828000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>3594000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3298000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>3083000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2872000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2673000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2464000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2256000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2188000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2025000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1897000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1485400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1361700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3691,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3741,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,52 +3791,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4635000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4613000</v>
+      </c>
+      <c r="F76" s="3">
         <v>4439000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4332000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3985000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3758000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3503000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3257000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3008000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2749000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2855000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2715000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2551000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2197200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2240100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,101 +3891,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43828</v>
+      </c>
+      <c r="F80" s="2">
         <v>43737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>239000</v>
+      </c>
+      <c r="F81" s="3">
         <v>234000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>296000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>233000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>210000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>199000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>209000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>208000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>68000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>163000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>128000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>367000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>123800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,52 +4020,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>47000</v>
+        <v>44000</v>
       </c>
       <c r="E83" s="3">
-        <v>49000</v>
+        <v>45000</v>
       </c>
       <c r="F83" s="3">
         <v>47000</v>
       </c>
       <c r="G83" s="3">
+        <v>49000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="I83" s="3">
         <v>50000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>45000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>45000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>39000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>39000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>41000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>38000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>38000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>37500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +4116,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +4166,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4216,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4266,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,52 +4316,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>443000</v>
+      </c>
+      <c r="F89" s="3">
         <v>267000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>143000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>198000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>300000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>292000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>295000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>255000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>294000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>235000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>178000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>168000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>262000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,52 +4390,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-49000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-47000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-56000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-65000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-64000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-77000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-90000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-76000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-82000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-69000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-83000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-163500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-136600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4486,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,52 +4536,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-218000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>79000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>988000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-348000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-940000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-537000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>12000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-315000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-97000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>35000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>163000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-173500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-341000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4610,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4656,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4706,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4756,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,136 +4806,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-191000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-173000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-549000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-60000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-154000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>651000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>30000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>67000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-109000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>24000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-86000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-163500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-4000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>2000</v>
       </c>
       <c r="M101" s="3">
         <v>1000</v>
       </c>
       <c r="N101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-3300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>227000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-128000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-327000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1126000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-202000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-216000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>335000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-129000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>135000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>238000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>246000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-60000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-157000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>ILMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,228 +665,241 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E7" s="2">
         <v>43919</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43828</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43737</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43464</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>633000</v>
+      </c>
+      <c r="E8" s="3">
         <v>859000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>952000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>907000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>838000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>846000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>867000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>853000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>830000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>782000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>777000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>714000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>662000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>598000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>619300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>607100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E9" s="3">
         <v>240000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>290000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>259000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>265000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>262000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>277000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>256000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>255000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>244000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>235000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>232000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>228000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>212000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>199900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>181000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>428000</v>
+      </c>
+      <c r="E10" s="3">
         <v>619000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>662000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>648000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>573000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>584000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>590000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>597000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>575000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>538000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>542000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>482000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>434000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>386000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>419400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,58 +918,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E12" s="3">
         <v>156000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>161000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>151000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>166000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>169000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>176000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>159000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>151000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>137000</v>
       </c>
       <c r="M12" s="3">
         <v>137000</v>
       </c>
       <c r="N12" s="3">
+        <v>137000</v>
+      </c>
+      <c r="O12" s="3">
         <v>134000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>130000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>140000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>129900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>125900</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,31 +1022,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
         <v>-39000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-15000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1037,26 +1057,29 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-8000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>31000</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>400</v>
       </c>
       <c r="R14" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1105,8 +1128,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1148,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>537000</v>
+      </c>
+      <c r="E17" s="3">
         <v>670000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>684000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>599000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>594000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>627000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>670000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>612000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>603000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>564000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>547000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>533000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>519000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>546000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>476300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>446400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E18" s="3">
         <v>189000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>268000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>308000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>244000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>219000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>197000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>241000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>227000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>218000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>230000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>181000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>143000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>52000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>143000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,108 +1275,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>12000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-27000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>117000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>29000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>32000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>4000</v>
       </c>
       <c r="N20" s="3">
         <v>4000</v>
       </c>
       <c r="O20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P20" s="3">
         <v>6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>459000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E21" s="3">
         <v>233000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>325000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>328000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>410000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>295000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>279000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>292000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>288000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>271000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>273000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>226000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>187000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>549000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>180500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>198600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1357,19 +1397,19 @@
         <v>11000</v>
       </c>
       <c r="G22" s="3">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="H22" s="3">
         <v>15000</v>
       </c>
       <c r="I22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J22" s="3">
         <v>20000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>11000</v>
       </c>
       <c r="L22" s="3">
         <v>11000</v>
@@ -1378,122 +1418,131 @@
         <v>11000</v>
       </c>
       <c r="N22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="O22" s="3">
         <v>10000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>8000</v>
       </c>
       <c r="P22" s="3">
         <v>8000</v>
       </c>
       <c r="Q22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R22" s="3">
         <v>8300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E23" s="3">
         <v>178000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>269000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>270000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>346000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>233000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>209000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>232000</v>
       </c>
       <c r="K23" s="3">
         <v>232000</v>
       </c>
       <c r="L23" s="3">
+        <v>232000</v>
+      </c>
+      <c r="M23" s="3">
         <v>221000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>223000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>175000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>141000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>503000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>134200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E24" s="3">
         <v>5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>30000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>36000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>53000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>33000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>155000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>26700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,108 +1591,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E26" s="3">
         <v>173000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>239000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>234000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>293000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>224000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>197000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>199000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>197000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>207000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>152000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>120000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>348000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>107500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>116900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E27" s="3">
         <v>173000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>239000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>234000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>296000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>233000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>210000</v>
       </c>
       <c r="J27" s="3">
         <v>210000</v>
       </c>
       <c r="K27" s="3">
+        <v>210000</v>
+      </c>
+      <c r="L27" s="3">
         <v>209000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>208000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>218000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>163000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>128000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>367000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>123800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1712,23 +1773,23 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-11000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
         <v>-150000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -1742,8 +1803,11 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,108 +1909,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-80000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-12000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>27000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-117000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-29000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-32000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-4000</v>
       </c>
       <c r="N32" s="3">
         <v>-4000</v>
       </c>
       <c r="O32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-459000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E33" s="3">
         <v>173000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>239000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>234000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>296000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>233000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>210000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>199000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>209000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>208000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>68000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>163000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>128000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>367000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>123800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,113 +2068,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E35" s="3">
         <v>173000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>239000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>234000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>296000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>233000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>210000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>199000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>209000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>208000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>68000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>163000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>128000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>367000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>123800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E38" s="2">
         <v>43919</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43828</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43737</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43464</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,308 +2223,327 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1770000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1991000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2042000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1815000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1943000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2270000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1144000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1346000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1344000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1560000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1225000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1354000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1219000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>981000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>734500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>794700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1498000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1341000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1372000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1351000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1230000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1345000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2368000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2043000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1168000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>813000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>920000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>687000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>674000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>797000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>824200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>741600</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>385000</v>
+      </c>
+      <c r="E43" s="3">
         <v>472000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>573000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>541000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>470000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>457000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>514000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>433000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>395000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>411000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>383000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>372000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>368000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>381300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>435000</v>
+      </c>
+      <c r="E44" s="3">
         <v>384000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>359000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>417000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>420000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>412000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>386000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>374000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>362000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>350000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>333000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>327000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>309000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>299000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>300200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E45" s="3">
         <v>136000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>105000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>98000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>93000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>61000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>78000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>66000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>68000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>71000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>91000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>54000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>69000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>72000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>77900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4194000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4324000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4451000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4222000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4156000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4545000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4490000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4262000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3337000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3194000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2980000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2805000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2643000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2517000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2318100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2277800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2487,108 +2592,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1439000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1449000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1444000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1430000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1412000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1426000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1075000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1060000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1036000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>983000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>931000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>862000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>837000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>734000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>713300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>633900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="E49" s="3">
         <v>962000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>969000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>976000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>986000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1006000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1016000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1026000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1036000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>943000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>946000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>956000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>967000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>978000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1018600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1031600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,58 +2804,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E52" s="3">
         <v>526000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>452000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>461000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>419000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>413000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>378000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>411000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>442000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>422000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>423000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>411000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>369000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>230500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,58 +2910,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7248000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7261000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7316000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7089000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6973000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7390000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6959000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6759000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5851000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5542000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5257000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5046000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4858000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4598000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4280600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4227800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,67 +3007,71 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E57" s="3">
         <v>130000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>149000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>143000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>139000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>137000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>184000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>156000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>149000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>151000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>160000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>158000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>175000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>142000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>137900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>134100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>503000</v>
+      </c>
+      <c r="E58" s="3">
         <v>499000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -2945,240 +3079,255 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>631000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1107000</v>
       </c>
       <c r="J58" s="3">
         <v>1107000</v>
       </c>
       <c r="K58" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="L58" s="3">
         <v>625000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>620000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1300</v>
       </c>
       <c r="R58" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>477000</v>
+      </c>
+      <c r="E59" s="3">
         <v>425000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>516000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>476000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>473000</v>
       </c>
       <c r="H59" s="3">
         <v>473000</v>
       </c>
       <c r="I59" s="3">
+        <v>473000</v>
+      </c>
+      <c r="J59" s="3">
         <v>513000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>472000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>443000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>409000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>576000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>505000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>502000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>578000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>565500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1054000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>665000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>619000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>612000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1241000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1804000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1735000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1217000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1180000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>746000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>665000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>682000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>721000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>704700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>628900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>659000</v>
+      </c>
+      <c r="E61" s="3">
         <v>652000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1141000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1131000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1120000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1112000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>890000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>860000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>723000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>710000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1182000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1180000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1169000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1055000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1047800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1040800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>911000</v>
+      </c>
+      <c r="E62" s="3">
         <v>920000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>897000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>909000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>930000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>359000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>352000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>343000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>364000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>360000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>222000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>212000</v>
       </c>
       <c r="P62" s="3">
         <v>212000</v>
       </c>
       <c r="Q62" s="3">
+        <v>212000</v>
+      </c>
+      <c r="R62" s="3">
         <v>214000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>204300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,58 +3482,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2685000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2626000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2703000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2650000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2641000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3405000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3201000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3256000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2594000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2534000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2508000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2191000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2143000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2047000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2083400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1987700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3547,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,58 +3768,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4287000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4240000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4067000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3828000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3594000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3298000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3083000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2872000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2673000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2464000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2256000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2188000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2025000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1897000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1485400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1361700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,58 +3980,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4563000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4635000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4613000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4439000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4332000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3985000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3758000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3503000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3257000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3008000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2749000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2855000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2715000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2551000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2197200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2240100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,113 +4086,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E80" s="2">
         <v>43919</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43828</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43737</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43464</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E81" s="3">
         <v>173000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>239000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>234000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>296000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>233000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>210000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>199000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>209000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>208000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>68000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>163000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>128000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>367000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>123800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,58 +4220,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E83" s="3">
         <v>44000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>45000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>47000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>49000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>47000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>50000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>45000</v>
       </c>
       <c r="K83" s="3">
         <v>45000</v>
       </c>
       <c r="L83" s="3">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="M83" s="3">
         <v>39000</v>
       </c>
       <c r="N83" s="3">
+        <v>39000</v>
+      </c>
+      <c r="O83" s="3">
         <v>41000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>38000</v>
       </c>
       <c r="P83" s="3">
         <v>38000</v>
       </c>
       <c r="Q83" s="3">
+        <v>38000</v>
+      </c>
+      <c r="R83" s="3">
         <v>37500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,58 +4536,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E89" s="3">
         <v>281000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>443000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>267000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>143000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>198000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>292000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>295000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>255000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>294000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>235000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>178000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>168000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>262000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,58 +4612,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-40000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-57000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-49000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-47000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-56000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-65000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-64000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-77000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-90000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-76000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-82000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-69000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-83000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-163500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-136600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,58 +4769,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-320000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-135000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-104000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-218000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>79000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>988000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-348000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-940000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-537000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>12000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-315000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-97000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>35000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>163000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-173500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-341000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,8 +4845,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4662,8 +4896,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,73 +5055,79 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-191000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-115000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-173000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-549000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-60000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-154000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>651000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>30000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>67000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-109000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>24000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-86000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-163500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -4886,80 +5135,86 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>1000</v>
       </c>
       <c r="M101" s="3">
         <v>1000</v>
       </c>
       <c r="N101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O101" s="3">
         <v>2000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>1000</v>
       </c>
       <c r="P101" s="3">
         <v>1000</v>
       </c>
       <c r="Q101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R101" s="3">
         <v>-3300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-221000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-51000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>227000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-128000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-327000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1126000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-202000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-216000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>335000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-129000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>135000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>238000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>246000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-60000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-157000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>ILMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,241 +665,254 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E7" s="2">
         <v>44010</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43919</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43828</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43737</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43464</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>794000</v>
+      </c>
+      <c r="E8" s="3">
         <v>633000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>859000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>952000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>907000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>838000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>846000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>867000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>853000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>830000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>782000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>777000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>714000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>662000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>598000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>619300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>607100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E9" s="3">
         <v>205000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>240000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>290000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>259000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>265000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>262000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>277000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>256000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>255000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>244000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>235000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>232000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>228000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>212000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>199900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>181000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E10" s="3">
         <v>428000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>619000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>662000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>648000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>573000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>584000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>590000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>597000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>575000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>538000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>542000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>482000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>434000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>386000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>419400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,61 +932,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E12" s="3">
         <v>155000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>156000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>161000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>151000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>166000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>169000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>176000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>159000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>151000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>137000</v>
       </c>
       <c r="N12" s="3">
         <v>137000</v>
       </c>
       <c r="O12" s="3">
+        <v>137000</v>
+      </c>
+      <c r="P12" s="3">
         <v>134000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>130000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>140000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>129900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>125900</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1042,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,23 +1056,23 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>-39000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-15000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1060,26 +1080,29 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>31000</v>
-      </c>
-      <c r="R14" s="3">
-        <v>400</v>
       </c>
       <c r="S14" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,8 +1154,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,114 +1175,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>632000</v>
+      </c>
+      <c r="E17" s="3">
         <v>537000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>670000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>684000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>599000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>594000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>627000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>670000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>612000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>603000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>564000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>547000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>533000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>519000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>546000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>476300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>446400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E18" s="3">
         <v>96000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>189000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>268000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>308000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>244000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>219000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>197000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>241000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>227000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>218000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>230000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>181000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>143000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>52000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>143000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1276,114 +1309,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E20" s="3">
         <v>80000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>12000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-27000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>117000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>29000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>32000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>4000</v>
       </c>
       <c r="O20" s="3">
         <v>4000</v>
       </c>
       <c r="P20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>6000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>459000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>273000</v>
+      </c>
+      <c r="E21" s="3">
         <v>222000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>233000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>325000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>328000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>410000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>295000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>279000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>292000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>288000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>271000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>273000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>226000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>187000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>549000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>180500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>198600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1400,19 +1440,19 @@
         <v>11000</v>
       </c>
       <c r="H22" s="3">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="I22" s="3">
         <v>15000</v>
       </c>
       <c r="J22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K22" s="3">
         <v>20000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>11000</v>
       </c>
       <c r="M22" s="3">
         <v>11000</v>
@@ -1421,128 +1461,137 @@
         <v>11000</v>
       </c>
       <c r="O22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="P22" s="3">
         <v>10000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>8000</v>
       </c>
       <c r="Q22" s="3">
         <v>8000</v>
       </c>
       <c r="R22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="S22" s="3">
         <v>8300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E23" s="3">
         <v>165000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>178000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>269000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>270000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>346000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>233000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>209000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>232000</v>
       </c>
       <c r="L23" s="3">
         <v>232000</v>
       </c>
       <c r="M23" s="3">
+        <v>232000</v>
+      </c>
+      <c r="N23" s="3">
         <v>221000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>223000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>175000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>141000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>503000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>134200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E24" s="3">
         <v>118000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>30000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>36000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>53000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>33000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>24000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>155000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>26700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1594,114 +1643,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E26" s="3">
         <v>47000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>173000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>239000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>234000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>293000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>224000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>197000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>199000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>197000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>207000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>152000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>120000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>348000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>107500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>116900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E27" s="3">
         <v>47000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>173000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>239000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>234000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>296000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>233000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>210000</v>
       </c>
       <c r="K27" s="3">
         <v>210000</v>
       </c>
       <c r="L27" s="3">
+        <v>210000</v>
+      </c>
+      <c r="M27" s="3">
         <v>209000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>208000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>218000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>163000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>128000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>367000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>123800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1753,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1776,23 +1837,23 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-11000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3">
         <v>-150000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -1806,8 +1867,11 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1859,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1912,114 +1979,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-80000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-12000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>27000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-117000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-29000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-32000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-4000</v>
       </c>
       <c r="O32" s="3">
         <v>-4000</v>
       </c>
       <c r="P32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-459000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E33" s="3">
         <v>47000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>173000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>239000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>234000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>296000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>233000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>210000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>199000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>209000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>208000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>68000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>163000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>128000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>367000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>123800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2071,119 +2147,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E35" s="3">
         <v>47000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>173000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>239000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>234000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>296000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>233000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>210000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>199000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>209000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>208000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>68000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>163000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>128000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>367000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>123800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E38" s="2">
         <v>44010</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43919</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43828</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43737</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43464</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2203,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2224,326 +2310,345 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1761000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1770000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1991000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2042000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1815000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1943000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2270000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1144000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1346000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1344000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1560000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1225000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1354000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1219000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>981000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>734500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>794700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1563000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1498000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1341000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1372000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1351000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1230000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1345000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2368000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2043000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1168000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>813000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>920000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>687000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>674000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>797000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>824200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>741600</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E43" s="3">
         <v>385000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>472000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>573000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>541000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>470000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>457000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>514000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>433000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>395000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>411000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>383000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>372000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>368000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>381300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E44" s="3">
         <v>435000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>384000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>359000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>417000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>420000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>412000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>386000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>374000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>362000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>350000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>333000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>327000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>309000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>299000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>300200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E45" s="3">
         <v>106000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>136000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>105000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>98000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>93000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>61000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>78000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>66000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>68000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>71000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>91000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>54000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>69000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>72000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>77900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4329000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4194000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4324000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4451000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4222000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4156000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4545000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4490000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4262000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3337000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3194000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2980000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2805000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2643000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2517000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2318100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2277800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2595,114 +2700,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1455000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1439000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1449000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1444000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1430000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1412000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1426000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1075000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1060000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1036000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>983000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>931000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>862000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>837000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>734000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>713300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>633900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1046000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1050000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>962000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>969000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>976000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>986000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1006000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1016000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1026000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1036000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>943000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>946000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>956000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>967000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>978000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1018600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1031600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2754,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2807,61 +2924,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>574000</v>
+      </c>
+      <c r="E52" s="3">
         <v>565000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>526000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>452000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>461000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>419000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>413000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>378000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>411000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>442000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>422000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>400000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>423000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>411000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>369000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>230500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2913,61 +3036,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7404000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7248000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7261000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7316000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7089000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6973000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7390000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6959000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6759000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5851000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5542000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5257000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5046000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4858000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4598000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4280600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4227800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2987,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3008,73 +3138,77 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E57" s="3">
         <v>135000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>130000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>149000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>143000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>139000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>137000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>184000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>156000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>149000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>151000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>160000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>158000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>175000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>142000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>137900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>134100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>507000</v>
+      </c>
+      <c r="E58" s="3">
         <v>503000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>499000</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -3082,93 +3216,99 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>631000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1107000</v>
       </c>
       <c r="K58" s="3">
         <v>1107000</v>
       </c>
       <c r="L58" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="M58" s="3">
         <v>625000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>620000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1300</v>
       </c>
       <c r="S58" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>452000</v>
+      </c>
+      <c r="E59" s="3">
         <v>477000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>425000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>516000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>476000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>473000</v>
       </c>
       <c r="I59" s="3">
         <v>473000</v>
       </c>
       <c r="J59" s="3">
+        <v>473000</v>
+      </c>
+      <c r="K59" s="3">
         <v>513000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>472000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>443000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>409000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>576000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>505000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>502000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>578000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>565500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3176,158 +3316,167 @@
         <v>1115000</v>
       </c>
       <c r="E60" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1054000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>665000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>619000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>612000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1241000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1804000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1735000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1217000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1180000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>746000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>665000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>682000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>721000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>704700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>628900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>666000</v>
+      </c>
+      <c r="E61" s="3">
         <v>659000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>652000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1141000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1131000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1120000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1112000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>890000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>860000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>723000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>710000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1182000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1180000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1169000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1055000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1047800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1040800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>923000</v>
+      </c>
+      <c r="E62" s="3">
         <v>911000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>920000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>897000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>909000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>930000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>359000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>352000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>343000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>364000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>360000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>222000</v>
-      </c>
-      <c r="P62" s="3">
-        <v>212000</v>
       </c>
       <c r="Q62" s="3">
         <v>212000</v>
       </c>
       <c r="R62" s="3">
+        <v>212000</v>
+      </c>
+      <c r="S62" s="3">
         <v>214000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>204300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3379,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3432,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3485,61 +3640,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2704000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2685000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2626000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2703000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2650000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2641000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3405000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3201000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3256000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2594000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2534000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2508000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2191000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2143000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2047000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2083400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1987700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3559,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3612,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3665,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3718,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3771,61 +3942,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4466000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4287000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4240000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4067000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3828000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3594000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3298000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3083000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2872000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2673000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2464000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2256000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2188000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2025000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1897000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1485400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1361700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3930,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3983,61 +4166,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4700000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4563000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4635000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4613000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4439000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4332000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3985000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3758000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3503000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3257000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3008000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2749000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2855000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2715000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2551000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2197200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2240100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4089,119 +4278,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E80" s="2">
         <v>44010</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43919</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43828</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43737</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43464</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E81" s="3">
         <v>47000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>173000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>239000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>234000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>296000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>233000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>210000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>199000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>209000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>208000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>68000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>163000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>128000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>367000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>123800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4221,61 +4419,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E83" s="3">
         <v>46000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>44000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>45000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>47000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>49000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>47000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>50000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>45000</v>
       </c>
       <c r="L83" s="3">
         <v>45000</v>
       </c>
       <c r="M83" s="3">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="N83" s="3">
         <v>39000</v>
       </c>
       <c r="O83" s="3">
+        <v>39000</v>
+      </c>
+      <c r="P83" s="3">
         <v>41000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>38000</v>
       </c>
       <c r="Q83" s="3">
         <v>38000</v>
       </c>
       <c r="R83" s="3">
+        <v>38000</v>
+      </c>
+      <c r="S83" s="3">
         <v>37500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4327,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4380,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4433,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4486,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4539,61 +4753,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E89" s="3">
         <v>240000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>281000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>443000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>267000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>143000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>198000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>292000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>295000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>255000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>294000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>235000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>178000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>168000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>262000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4613,61 +4833,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-39000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-40000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-57000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-49000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-47000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-56000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-65000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-64000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-77000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-90000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-76000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-82000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-69000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-83000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-163500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-136600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4719,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4772,61 +4999,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-320000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-135000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-104000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-218000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>79000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>988000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-348000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-940000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-537000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>12000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-315000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-97000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>35000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>163000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-173500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-341000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4846,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4899,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5058,79 +5301,85 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-143000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-191000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-115000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-173000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-549000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-60000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-154000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>651000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>30000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>67000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-109000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>24000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-86000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-163500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -5138,83 +5387,89 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="M101" s="3">
-        <v>1000</v>
       </c>
       <c r="N101" s="3">
         <v>1000</v>
       </c>
       <c r="O101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P101" s="3">
         <v>2000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>1000</v>
       </c>
       <c r="Q101" s="3">
         <v>1000</v>
       </c>
       <c r="R101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S101" s="3">
         <v>-3300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-221000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-51000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>227000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-128000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-327000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1126000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-202000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-216000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>335000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-129000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>135000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>238000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>246000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-60000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-157000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>ILMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,254 +665,267 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E7" s="2">
         <v>44101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44010</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43919</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43828</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43737</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>953000</v>
+      </c>
+      <c r="E8" s="3">
         <v>794000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>633000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>859000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>952000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>907000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>838000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>846000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>867000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>853000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>830000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>782000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>777000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>714000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>662000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>598000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>619300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>607100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E9" s="3">
         <v>268000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>205000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>240000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>290000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>259000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>265000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>262000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>277000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>256000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>255000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>244000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>235000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>232000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>228000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>212000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>199900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>181000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>630000</v>
+      </c>
+      <c r="E10" s="3">
         <v>526000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>428000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>619000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>662000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>648000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>573000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>584000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>590000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>597000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>575000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>538000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>542000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>482000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>434000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>386000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>419400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,64 +946,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E12" s="3">
         <v>172000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>155000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>156000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>161000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>151000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>166000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>169000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>176000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>159000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>151000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>137000</v>
       </c>
       <c r="O12" s="3">
         <v>137000</v>
       </c>
       <c r="P12" s="3">
+        <v>137000</v>
+      </c>
+      <c r="Q12" s="3">
         <v>134000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>130000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>140000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>129900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>125900</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1045,8 +1062,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1059,23 +1079,23 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>-39000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-15000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1083,26 +1103,29 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-8000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>31000</v>
-      </c>
-      <c r="S14" s="3">
-        <v>400</v>
       </c>
       <c r="T14" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1157,8 +1180,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,120 +1202,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>820000</v>
+      </c>
+      <c r="E17" s="3">
         <v>632000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>537000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>670000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>684000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>599000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>594000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>627000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>670000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>612000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>603000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>564000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>547000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>533000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>519000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>546000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>476300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>446400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E18" s="3">
         <v>162000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>96000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>189000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>268000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>308000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>244000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>219000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>197000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>241000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>227000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>218000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>230000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>181000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>143000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>52000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>143000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,125 +1343,132 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E20" s="3">
         <v>64000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>80000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>12000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-27000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>117000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>29000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>32000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>4000</v>
       </c>
       <c r="P20" s="3">
         <v>4000</v>
       </c>
       <c r="Q20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R20" s="3">
         <v>6000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>459000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E21" s="3">
         <v>273000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>222000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>233000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>325000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>328000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>410000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>295000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>279000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>292000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>288000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>271000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>273000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>226000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>187000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>549000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>180500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>198600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="E22" s="3">
         <v>11000</v>
@@ -1443,19 +1483,19 @@
         <v>11000</v>
       </c>
       <c r="I22" s="3">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="J22" s="3">
         <v>15000</v>
       </c>
       <c r="K22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="L22" s="3">
         <v>20000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>11000</v>
       </c>
       <c r="N22" s="3">
         <v>11000</v>
@@ -1464,134 +1504,143 @@
         <v>11000</v>
       </c>
       <c r="P22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>10000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>8000</v>
       </c>
       <c r="R22" s="3">
         <v>8000</v>
       </c>
       <c r="S22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="T22" s="3">
         <v>8300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E23" s="3">
         <v>215000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>165000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>178000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>269000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>270000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>346000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>233000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>209000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>232000</v>
       </c>
       <c r="M23" s="3">
         <v>232000</v>
       </c>
       <c r="N23" s="3">
+        <v>232000</v>
+      </c>
+      <c r="O23" s="3">
         <v>221000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>223000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>175000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>141000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>503000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>134200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E24" s="3">
         <v>36000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>118000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>30000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>36000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>53000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>33000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>32000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>155000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>26700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,120 +1695,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>257000</v>
+      </c>
+      <c r="E26" s="3">
         <v>179000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>47000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>173000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>239000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>234000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>293000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>224000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>197000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>199000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>197000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>207000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>152000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>120000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>348000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>107500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>116900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>257000</v>
+      </c>
+      <c r="E27" s="3">
         <v>179000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>47000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>173000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>239000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>234000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>296000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>233000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>210000</v>
       </c>
       <c r="L27" s="3">
         <v>210000</v>
       </c>
       <c r="M27" s="3">
+        <v>210000</v>
+      </c>
+      <c r="N27" s="3">
         <v>209000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>208000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>218000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>163000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>128000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>367000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>123800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1872,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1840,23 +1901,23 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-11000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3">
         <v>-150000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -1870,8 +1931,11 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,120 +2049,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-64000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-80000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-12000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>27000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-117000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-29000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-32000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-4000</v>
       </c>
       <c r="P32" s="3">
         <v>-4000</v>
       </c>
       <c r="Q32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="R32" s="3">
         <v>-6000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-459000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>257000</v>
+      </c>
+      <c r="E33" s="3">
         <v>179000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>47000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>173000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>239000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>234000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>296000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>233000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>210000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>199000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>209000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>208000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>68000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>163000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>128000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>367000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>123800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,125 +2226,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>257000</v>
+      </c>
+      <c r="E35" s="3">
         <v>179000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>47000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>173000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>239000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>234000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>296000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>233000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>210000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>199000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>209000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>208000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>68000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>163000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>128000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>367000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>123800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E38" s="2">
         <v>44101</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44010</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43919</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43828</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43737</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43464</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,344 +2397,363 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1810000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1761000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1770000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1991000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2042000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1815000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1943000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2270000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1144000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1346000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1344000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1560000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1225000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1354000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1219000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>981000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>734500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>794700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1662000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1563000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1498000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1341000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1372000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1351000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1230000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1345000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2368000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2043000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1168000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>813000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>920000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>687000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>674000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>797000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>824200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>741600</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>487000</v>
+      </c>
+      <c r="E43" s="3">
         <v>464000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>385000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>472000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>573000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>541000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>470000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>457000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>514000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>433000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>395000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>411000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>383000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>372000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>368000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>381300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E44" s="3">
         <v>415000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>435000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>384000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>359000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>417000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>420000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>412000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>386000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>374000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>362000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>350000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>333000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>327000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>309000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>299000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>300200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E45" s="3">
         <v>126000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>106000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>136000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>105000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>98000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>93000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>61000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>78000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>66000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>68000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>71000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>91000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>54000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>69000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>72000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>77900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4483000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4329000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4194000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4324000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4451000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4222000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4156000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4545000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4490000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4262000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3337000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3194000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2980000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2805000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2643000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2517000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2318100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2277800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2703,120 +2808,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1454000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1455000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1439000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1449000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1444000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1430000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1412000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1426000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1075000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1060000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1036000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>983000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>931000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>862000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>837000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>734000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>713300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>633900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1046000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1050000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>962000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>969000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>976000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>986000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1006000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1016000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1026000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1036000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>943000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>946000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>956000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>967000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>978000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1018600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1031600</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,64 +3044,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>609000</v>
+      </c>
+      <c r="E52" s="3">
         <v>574000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>565000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>526000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>452000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>461000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>419000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>413000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>378000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>411000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>442000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>422000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>400000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>423000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>411000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>369000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>230500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,64 +3162,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7585000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7404000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7248000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7261000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7316000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7089000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6973000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7390000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6959000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6759000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5851000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5542000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5257000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5046000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4858000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4598000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4280600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4227800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,79 +3269,83 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E57" s="3">
         <v>156000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>135000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>130000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>149000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>143000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>139000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>137000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>184000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>156000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>149000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>151000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>160000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>158000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>175000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>142000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>137900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>134100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E58" s="3">
         <v>507000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>503000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>499000</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -3219,264 +3353,279 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>631000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1107000</v>
       </c>
       <c r="L58" s="3">
         <v>1107000</v>
       </c>
       <c r="M58" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="N58" s="3">
         <v>625000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>620000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1300</v>
       </c>
       <c r="T58" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>541000</v>
+      </c>
+      <c r="E59" s="3">
         <v>452000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>477000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>425000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>516000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>476000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>473000</v>
       </c>
       <c r="J59" s="3">
         <v>473000</v>
       </c>
       <c r="K59" s="3">
+        <v>473000</v>
+      </c>
+      <c r="L59" s="3">
         <v>513000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>472000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>443000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>409000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>576000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>505000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>502000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>578000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>565500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1115000</v>
+        <v>1244000</v>
       </c>
       <c r="E60" s="3">
         <v>1115000</v>
       </c>
       <c r="F60" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="G60" s="3">
         <v>1054000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>665000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>619000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>612000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1241000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1804000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1735000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1217000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1180000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>746000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>665000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>682000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>721000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>704700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>628900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>673000</v>
+      </c>
+      <c r="E61" s="3">
         <v>666000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>659000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>652000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1141000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1131000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1120000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1112000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>890000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>860000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>723000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>710000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1182000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1180000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1169000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1055000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1047800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1040800</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>974000</v>
+      </c>
+      <c r="E62" s="3">
         <v>923000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>911000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>920000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>897000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>909000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>930000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>359000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>352000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>343000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>364000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>360000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>222000</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>212000</v>
       </c>
       <c r="R62" s="3">
         <v>212000</v>
       </c>
       <c r="S62" s="3">
+        <v>212000</v>
+      </c>
+      <c r="T62" s="3">
         <v>214000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>204300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,64 +3798,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2891000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2704000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2685000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2626000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2703000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2650000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2641000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3405000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3201000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3256000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2594000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2534000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2508000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2191000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2143000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2047000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2083400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1987700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3889,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,64 +4116,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4723000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4466000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4287000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4240000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4067000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3828000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3594000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3298000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3083000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2872000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2673000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2464000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2256000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2188000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2025000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1897000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1485400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1361700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,64 +4352,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4694000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4700000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4563000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4635000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4613000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4439000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4332000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3985000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3758000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3503000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3257000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3008000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2749000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2855000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2715000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2551000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2197200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2240100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,125 +4470,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E80" s="2">
         <v>44101</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44010</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43919</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43828</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43737</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43464</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>257000</v>
+      </c>
+      <c r="E81" s="3">
         <v>179000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>47000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>173000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>239000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>234000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>296000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>233000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>210000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>199000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>209000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>208000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>68000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>163000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>128000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>367000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>123800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,64 +4618,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E83" s="3">
         <v>47000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>46000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>44000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>45000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>47000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>49000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>47000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>50000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>45000</v>
       </c>
       <c r="M83" s="3">
         <v>45000</v>
       </c>
       <c r="N83" s="3">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="O83" s="3">
         <v>39000</v>
       </c>
       <c r="P83" s="3">
+        <v>39000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>41000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>38000</v>
       </c>
       <c r="R83" s="3">
         <v>38000</v>
       </c>
       <c r="S83" s="3">
+        <v>38000</v>
+      </c>
+      <c r="T83" s="3">
         <v>37500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,64 +4970,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E89" s="3">
         <v>153000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>240000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>281000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>443000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>267000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>143000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>198000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>292000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>295000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>255000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>294000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>235000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>178000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>168000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>262000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,64 +5054,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-48000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-39000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-40000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-57000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-49000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-47000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-56000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-65000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-64000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-77000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-90000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-76000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-82000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-69000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-83000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-163500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-136600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,64 +5229,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-65000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-320000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-135000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-104000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-218000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>79000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>988000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-348000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-940000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-537000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>12000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-315000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-97000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>35000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>163000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-173500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-341000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5136,8 +5370,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,85 +5547,91 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-331000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-101000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-143000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-191000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-115000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-173000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-549000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-60000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-154000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>651000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>30000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>67000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-109000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>24000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-86000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-163500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -5390,86 +5639,92 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>1000</v>
       </c>
       <c r="O101" s="3">
         <v>1000</v>
       </c>
       <c r="P101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q101" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>1000</v>
       </c>
       <c r="R101" s="3">
         <v>1000</v>
       </c>
       <c r="S101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T101" s="3">
         <v>-3300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-221000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-51000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>227000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-128000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-327000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1126000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-202000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-216000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>335000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-129000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>135000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>238000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>246000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-60000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-157000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>ILMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,267 +665,279 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E7" s="2">
         <v>44199</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44101</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44010</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43919</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43828</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43737</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43464</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43282</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43191</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43009</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42918</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42827</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42736</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="E8" s="3">
         <v>953000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>794000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>633000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>859000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>952000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>907000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>838000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>846000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>867000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>853000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>830000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>782000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>777000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>714000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>662000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>598000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>619300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>607100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>329000</v>
+      </c>
+      <c r="E9" s="3">
         <v>323000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>268000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>205000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>240000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>290000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>259000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>265000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>262000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>277000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>256000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>255000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>244000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>235000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>232000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>228000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>212000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>199900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>181000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>764000</v>
+      </c>
+      <c r="E10" s="3">
         <v>630000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>526000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>428000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>619000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>662000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>648000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>573000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>584000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>590000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>597000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>575000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>538000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>542000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>482000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>434000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>386000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>419400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -947,67 +959,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E12" s="3">
         <v>199000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>172000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>155000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>156000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>161000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>151000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>166000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>169000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>176000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>159000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>151000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>137000</v>
       </c>
       <c r="P12" s="3">
         <v>137000</v>
       </c>
       <c r="Q12" s="3">
+        <v>137000</v>
+      </c>
+      <c r="R12" s="3">
         <v>134000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>130000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>140000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>129900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>125900</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1065,8 +1081,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1082,23 +1101,23 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>-39000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-15000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1106,26 +1125,29 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-8000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>31000</v>
-      </c>
-      <c r="T14" s="3">
-        <v>400</v>
       </c>
       <c r="U14" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,8 +1205,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,126 +1228,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900000</v>
+      </c>
+      <c r="E17" s="3">
         <v>820000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>632000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>537000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>670000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>684000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>599000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>594000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>627000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>670000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>612000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>603000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>564000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>547000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>533000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>519000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>546000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>476300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>446400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E18" s="3">
         <v>133000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>162000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>96000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>189000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>268000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>308000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>244000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>219000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>197000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>241000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>227000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>218000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>230000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>181000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>143000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>52000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>143000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,134 +1376,141 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E20" s="3">
         <v>182000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>64000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>80000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>12000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-27000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>117000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>29000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>32000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>16000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>4000</v>
       </c>
       <c r="Q20" s="3">
         <v>4000</v>
       </c>
       <c r="R20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S20" s="3">
         <v>6000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>459000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E21" s="3">
         <v>365000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>273000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>222000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>233000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>325000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>328000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>410000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>295000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>279000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>292000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>288000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>271000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>273000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>226000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>187000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>549000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>180500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>198600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E22" s="3">
         <v>16000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>11000</v>
       </c>
       <c r="F22" s="3">
         <v>11000</v>
@@ -1486,19 +1525,19 @@
         <v>11000</v>
       </c>
       <c r="J22" s="3">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="K22" s="3">
         <v>15000</v>
       </c>
       <c r="L22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="M22" s="3">
         <v>20000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>11000</v>
       </c>
       <c r="O22" s="3">
         <v>11000</v>
@@ -1507,140 +1546,149 @@
         <v>11000</v>
       </c>
       <c r="Q22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="R22" s="3">
         <v>10000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>8000</v>
       </c>
       <c r="S22" s="3">
         <v>8000</v>
       </c>
       <c r="T22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="U22" s="3">
         <v>8300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E23" s="3">
         <v>299000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>215000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>165000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>178000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>269000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>270000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>346000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>233000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>209000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>232000</v>
       </c>
       <c r="N23" s="3">
         <v>232000</v>
       </c>
       <c r="O23" s="3">
+        <v>232000</v>
+      </c>
+      <c r="P23" s="3">
         <v>221000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>223000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>175000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>141000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>503000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>134200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E24" s="3">
         <v>42000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>36000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>118000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>30000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>36000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>53000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>33000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>32000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>24000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>155000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>26700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,126 +1746,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E26" s="3">
         <v>257000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>179000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>47000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>173000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>239000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>234000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>293000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>224000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>197000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>199000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>197000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>207000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>152000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>120000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>348000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>107500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>116900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E27" s="3">
         <v>257000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>179000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>47000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>173000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>239000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>234000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>296000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>233000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>210000</v>
       </c>
       <c r="M27" s="3">
         <v>210000</v>
       </c>
       <c r="N27" s="3">
+        <v>210000</v>
+      </c>
+      <c r="O27" s="3">
         <v>209000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>208000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>218000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>163000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>128000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>367000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>123800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1932,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1904,23 +1964,23 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-11000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-150000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -1934,8 +1994,11 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2056,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,126 +2118,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-182000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-64000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-80000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-12000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>27000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-117000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-29000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-32000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-16000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-4000</v>
       </c>
       <c r="Q32" s="3">
         <v>-4000</v>
       </c>
       <c r="R32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="S32" s="3">
         <v>-6000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-459000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E33" s="3">
         <v>257000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>179000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>47000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>173000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>239000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>234000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>296000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>233000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>210000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>199000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>209000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>208000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>68000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>163000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>128000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>367000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>123800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,131 +2304,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E35" s="3">
         <v>257000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>179000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>47000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>173000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>239000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>234000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>296000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>233000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>210000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>199000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>209000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>208000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>68000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>163000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>128000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>367000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>123800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E38" s="2">
         <v>44199</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44101</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44010</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43919</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43828</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43737</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43464</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43282</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43191</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43009</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42918</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42827</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42736</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2459,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,362 +2483,381 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4433000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1810000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1761000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1770000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1991000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2042000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1815000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1943000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2270000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1144000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1346000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1344000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1560000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1225000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1354000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1219000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>981000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>734500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>794700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1662000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1563000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1498000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1341000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1372000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1351000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1230000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1345000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2368000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2043000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1168000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>813000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>920000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>687000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>674000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>797000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>824200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>741600</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>517000</v>
+      </c>
+      <c r="E43" s="3">
         <v>487000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>464000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>385000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>472000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>573000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>541000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>470000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>457000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>514000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>433000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>395000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>411000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>383000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>372000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>368000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>381300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>364000</v>
+      </c>
+      <c r="E44" s="3">
         <v>372000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>415000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>435000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>384000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>359000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>417000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>420000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>412000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>386000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>374000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>362000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>350000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>333000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>327000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>309000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>299000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>300200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E45" s="3">
         <v>152000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>126000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>106000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>136000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>105000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>98000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>93000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>61000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>78000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>66000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>68000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>71000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>91000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>54000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>69000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>72000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>77900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5642000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4483000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4329000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4194000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4324000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4451000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4222000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4156000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4545000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4490000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4262000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3337000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3194000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2980000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2805000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2643000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2517000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2318100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2277800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2811,126 +2915,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1444000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1454000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1455000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1439000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1449000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1444000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1430000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1412000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1426000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1075000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1060000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1036000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>983000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>931000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>862000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>837000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>734000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>713300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>633900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1031000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1039000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1046000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1050000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>962000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>969000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>976000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>986000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1006000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1016000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1026000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1036000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>943000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>946000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>956000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>967000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>978000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1018600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1031600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3101,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,67 +3163,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>638000</v>
+      </c>
+      <c r="E52" s="3">
         <v>609000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>574000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>565000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>526000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>452000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>461000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>419000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>413000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>378000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>411000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>442000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>422000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>400000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>423000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>411000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>369000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>230500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,67 +3287,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8755000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7585000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7404000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7248000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7261000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7316000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7089000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6973000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7390000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6959000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6759000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5851000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5542000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5257000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5046000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4858000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4598000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4280600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4227800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3375,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,85 +3399,89 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E57" s="3">
         <v>192000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>156000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>135000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>130000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>149000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>143000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>139000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>137000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>184000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>156000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>149000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>151000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>160000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>158000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>175000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>142000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>137900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>134100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>488000</v>
+      </c>
+      <c r="E58" s="3">
         <v>511000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>507000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>503000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>499000</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -3356,276 +3489,291 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>631000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1107000</v>
       </c>
       <c r="M58" s="3">
         <v>1107000</v>
       </c>
       <c r="N58" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="O58" s="3">
         <v>625000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>620000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1300</v>
       </c>
       <c r="U58" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>602000</v>
+      </c>
+      <c r="E59" s="3">
         <v>541000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>452000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>477000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>425000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>516000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>476000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>473000</v>
       </c>
       <c r="K59" s="3">
         <v>473000</v>
       </c>
       <c r="L59" s="3">
+        <v>473000</v>
+      </c>
+      <c r="M59" s="3">
         <v>513000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>472000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>443000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>409000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>576000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>505000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>502000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>578000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>565500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1268000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1244000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1115000</v>
       </c>
       <c r="F60" s="3">
         <v>1115000</v>
       </c>
       <c r="G60" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="H60" s="3">
         <v>1054000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>665000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>619000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>612000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1241000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1804000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1735000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1217000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1180000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>746000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>665000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>682000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>721000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>704700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>628900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1672000</v>
+      </c>
+      <c r="E61" s="3">
         <v>673000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>666000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>659000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>652000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1141000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1131000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1120000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1112000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>890000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>860000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>723000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>710000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1182000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1180000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1169000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1055000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1047800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1040800</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>893000</v>
+      </c>
+      <c r="E62" s="3">
         <v>974000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>923000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>911000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>920000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>897000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>909000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>930000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>359000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>352000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>343000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>364000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>360000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>222000</v>
-      </c>
-      <c r="R62" s="3">
-        <v>212000</v>
       </c>
       <c r="S62" s="3">
         <v>212000</v>
       </c>
       <c r="T62" s="3">
+        <v>212000</v>
+      </c>
+      <c r="U62" s="3">
         <v>214000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>204300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3831,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3893,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,67 +3955,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3833000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2891000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2704000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2685000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2626000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2703000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2650000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2641000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3405000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3201000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3256000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2594000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2534000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2508000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2191000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2143000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2047000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2083400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1987700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4043,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4103,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4165,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,8 +4227,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,67 +4289,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4870000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4723000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4466000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4287000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4240000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4067000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3828000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3594000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3298000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3083000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2872000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2673000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2464000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2256000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2188000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2025000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1897000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1485400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1361700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4413,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4475,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,67 +4537,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4922000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4694000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4700000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4563000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4635000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4613000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4439000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4332000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3985000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3758000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3503000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3257000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3008000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2749000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2855000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2715000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2551000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2197200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2240100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,131 +4661,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44290</v>
+      </c>
+      <c r="E80" s="2">
         <v>44199</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44101</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44010</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43919</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43828</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43737</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43464</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43282</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43191</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43009</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42918</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42827</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42736</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E81" s="3">
         <v>257000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>179000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>47000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>173000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>239000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>234000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>296000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>233000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>210000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>199000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>209000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>208000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>68000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>163000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>128000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>367000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>123800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,67 +4816,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E83" s="3">
         <v>50000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>47000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>46000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>44000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>45000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>47000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>49000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>47000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>50000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>45000</v>
       </c>
       <c r="N83" s="3">
         <v>45000</v>
       </c>
       <c r="O83" s="3">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="P83" s="3">
         <v>39000</v>
       </c>
       <c r="Q83" s="3">
+        <v>39000</v>
+      </c>
+      <c r="R83" s="3">
         <v>41000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>38000</v>
       </c>
       <c r="S83" s="3">
         <v>38000</v>
       </c>
       <c r="T83" s="3">
+        <v>38000</v>
+      </c>
+      <c r="U83" s="3">
         <v>37500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4938,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5000,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5062,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5124,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,67 +5186,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>282000</v>
+      </c>
+      <c r="E89" s="3">
         <v>406000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>153000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>240000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>281000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>443000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>267000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>143000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>198000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>292000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>295000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>255000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>294000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>235000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>178000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>168000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>262000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,67 +5274,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-62000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-48000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-39000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-40000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-57000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-49000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-47000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-56000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-65000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-64000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-77000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-90000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-82000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-69000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-83000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-163500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-136600</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5396,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,67 +5458,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1376000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-65000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-320000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-135000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-104000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-218000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>79000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>988000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-348000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-940000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-537000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>12000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-315000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-97000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>35000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>163000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-173500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-341000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5546,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5373,8 +5606,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5668,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5730,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,91 +5792,97 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>968000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-331000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-101000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-143000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-191000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-115000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-173000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-549000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-60000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-154000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>651000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>30000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>67000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-109000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>24000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-86000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-163500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -5642,89 +5890,95 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>1000</v>
       </c>
       <c r="P101" s="3">
         <v>1000</v>
       </c>
       <c r="Q101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R101" s="3">
         <v>2000</v>
-      </c>
-      <c r="R101" s="3">
-        <v>1000</v>
       </c>
       <c r="S101" s="3">
         <v>1000</v>
       </c>
       <c r="T101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U101" s="3">
         <v>-3300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2623000</v>
+      </c>
+      <c r="E102" s="3">
         <v>49000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-221000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-51000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>227000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-128000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-327000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1126000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-202000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-216000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>335000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-129000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>135000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>238000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>246000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-60000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-157000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>ILMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,279 +665,291 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E7" s="2">
         <v>44290</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44199</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44101</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44010</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43919</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43828</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43737</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43464</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43282</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43191</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43009</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42918</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42827</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42736</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1126000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1093000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>953000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>794000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>633000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>859000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>952000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>907000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>838000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>846000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>867000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>853000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>830000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>782000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>777000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>714000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>662000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>598000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>619300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>607100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E9" s="3">
         <v>329000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>323000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>268000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>205000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>240000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>290000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>259000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>265000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>262000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>277000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>256000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>255000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>244000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>235000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>232000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>228000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>212000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>199900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>181000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>802000</v>
+      </c>
+      <c r="E10" s="3">
         <v>764000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>630000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>526000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>428000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>619000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>662000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>648000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>573000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>584000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>590000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>597000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>575000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>538000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>542000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>482000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>434000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>386000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>419400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,70 +972,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E12" s="3">
         <v>197000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>199000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>172000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>155000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>156000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>161000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>151000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>166000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>169000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>176000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>159000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>151000</v>
-      </c>
-      <c r="P12" s="3">
-        <v>137000</v>
       </c>
       <c r="Q12" s="3">
         <v>137000</v>
       </c>
       <c r="R12" s="3">
+        <v>137000</v>
+      </c>
+      <c r="S12" s="3">
         <v>134000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>130000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>140000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>129900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>125900</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1084,8 +1100,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,23 +1123,23 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>-39000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-15000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1128,26 +1147,29 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-8000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>31000</v>
-      </c>
-      <c r="U14" s="3">
-        <v>400</v>
       </c>
       <c r="V14" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1208,8 +1230,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1229,132 +1254,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>939000</v>
+      </c>
+      <c r="E17" s="3">
         <v>900000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>820000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>632000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>537000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>670000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>684000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>599000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>594000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>627000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>670000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>612000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>603000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>564000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>547000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>533000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>519000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>546000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>476300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>446400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E18" s="3">
         <v>193000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>133000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>162000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>96000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>189000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>268000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>308000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>244000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>219000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>197000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>241000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>227000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>218000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>230000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>181000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>143000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>52000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>143000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1377,143 +1409,150 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>182000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>64000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>80000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>12000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-27000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>117000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>29000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>32000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>16000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>4000</v>
       </c>
       <c r="R20" s="3">
         <v>4000</v>
       </c>
       <c r="S20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T20" s="3">
         <v>6000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>459000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E21" s="3">
         <v>236000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>365000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>273000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>222000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>233000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>325000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>328000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>410000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>295000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>279000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>292000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>288000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>271000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>273000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>226000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>187000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>549000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>180500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>198600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E22" s="3">
         <v>19000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>11000</v>
       </c>
       <c r="G22" s="3">
         <v>11000</v>
@@ -1528,19 +1567,19 @@
         <v>11000</v>
       </c>
       <c r="K22" s="3">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L22" s="3">
         <v>15000</v>
       </c>
       <c r="M22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="N22" s="3">
         <v>20000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>11000</v>
       </c>
       <c r="P22" s="3">
         <v>11000</v>
@@ -1549,84 +1588,90 @@
         <v>11000</v>
       </c>
       <c r="R22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="S22" s="3">
         <v>10000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>8000</v>
       </c>
       <c r="T22" s="3">
         <v>8000</v>
       </c>
       <c r="U22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="V22" s="3">
         <v>8300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E23" s="3">
         <v>169000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>299000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>215000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>165000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>178000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>269000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>270000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>346000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>233000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>209000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>232000</v>
       </c>
       <c r="O23" s="3">
         <v>232000</v>
       </c>
       <c r="P23" s="3">
+        <v>232000</v>
+      </c>
+      <c r="Q23" s="3">
         <v>221000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>223000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>175000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>141000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>503000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>134200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1634,61 +1679,64 @@
         <v>22000</v>
       </c>
       <c r="E24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F24" s="3">
         <v>42000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>36000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>118000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>30000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>36000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>53000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>33000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>32000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>24000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>16000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>155000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>26700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1749,132 +1797,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E26" s="3">
         <v>147000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>257000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>179000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>47000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>173000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>239000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>234000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>293000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>224000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>197000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>199000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>197000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>207000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>152000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>120000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>348000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>107500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>116900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E27" s="3">
         <v>147000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>257000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>179000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>47000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>173000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>239000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>234000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>296000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>233000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>210000</v>
       </c>
       <c r="N27" s="3">
         <v>210000</v>
       </c>
       <c r="O27" s="3">
+        <v>210000</v>
+      </c>
+      <c r="P27" s="3">
         <v>209000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>208000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>218000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>163000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>128000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>367000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>123800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1935,8 +1992,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1967,23 +2027,23 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-11000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3">
         <v>-150000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -1997,8 +2057,11 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2059,8 +2122,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2121,132 +2187,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E32" s="3">
         <v>5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-182000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-64000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-80000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-12000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>27000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-117000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-29000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-32000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-16000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-4000</v>
       </c>
       <c r="R32" s="3">
         <v>-4000</v>
       </c>
       <c r="S32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="T32" s="3">
         <v>-6000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-459000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E33" s="3">
         <v>147000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>257000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>179000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>47000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>173000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>239000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>234000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>296000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>233000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>210000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>199000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>209000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>208000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>68000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>163000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>128000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>367000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>123800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2307,137 +2382,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E35" s="3">
         <v>147000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>257000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>179000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>47000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>173000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>239000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>234000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>296000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>233000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>210000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>199000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>209000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>208000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>68000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>163000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>128000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>367000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>123800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E38" s="2">
         <v>44290</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44199</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44101</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44010</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43919</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43828</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43737</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43464</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43282</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43191</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43009</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42918</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42827</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42736</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2460,8 +2544,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2484,380 +2569,399 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4196000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4433000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1810000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1761000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1770000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1991000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2042000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1815000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1943000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2270000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1144000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1346000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1344000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1560000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1225000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1354000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1219000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>981000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>734500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>794700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E42" s="3">
         <v>197000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1662000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1563000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1498000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1341000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1372000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1351000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1230000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1345000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2368000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2043000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1168000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>813000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>920000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>687000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>674000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>797000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>824200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>741600</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>540000</v>
+      </c>
+      <c r="E43" s="3">
         <v>517000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>487000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>464000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>385000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>472000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>573000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>541000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>470000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>457000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>514000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>433000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>395000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>411000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>383000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>372000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>368000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>381300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>380000</v>
+      </c>
+      <c r="E44" s="3">
         <v>364000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>372000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>415000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>435000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>384000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>359000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>417000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>420000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>412000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>386000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>374000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>362000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>350000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>333000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>327000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>309000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>299000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>300200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E45" s="3">
         <v>131000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>152000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>126000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>106000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>136000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>105000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>98000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>93000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>61000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>78000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>66000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>68000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>71000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>91000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>54000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>69000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>72000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>77900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5310000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5642000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4483000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4329000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4194000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4324000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4451000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4222000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4156000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4545000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4490000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4262000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3337000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3194000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2980000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2805000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2643000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2517000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2318100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2277800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2918,132 +3022,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1481000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1444000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1454000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1455000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1439000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1449000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1444000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1430000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1412000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1426000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1075000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1060000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1036000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>983000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>931000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>862000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>837000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>734000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>713300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>633900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1031000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1039000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1046000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1050000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>962000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>969000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>976000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>986000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1006000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1016000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1026000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1036000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>943000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>946000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>956000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>967000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>978000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1018600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1031600</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3104,8 +3217,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3166,70 +3282,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>756000</v>
+      </c>
+      <c r="E52" s="3">
         <v>638000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>609000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>574000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>565000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>526000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>452000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>461000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>419000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>413000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>378000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>411000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>442000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>422000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>400000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>423000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>411000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>369000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>230500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3290,70 +3412,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8675000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8755000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7585000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7404000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7248000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7261000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7316000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7089000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6973000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7390000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6959000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6759000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5851000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5542000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5257000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5046000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4858000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4598000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4280600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4227800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3376,8 +3504,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3400,91 +3529,95 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E57" s="3">
         <v>178000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>192000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>156000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>135000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>130000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>149000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>143000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>139000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>137000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>184000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>156000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>149000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>151000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>160000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>158000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>175000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>142000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>137900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>134100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>488000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>511000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>507000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>503000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>499000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -3492,288 +3625,303 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>631000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1107000</v>
       </c>
       <c r="N58" s="3">
         <v>1107000</v>
       </c>
       <c r="O58" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="P58" s="3">
         <v>625000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>620000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>1300</v>
       </c>
       <c r="V58" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>674000</v>
+      </c>
+      <c r="E59" s="3">
         <v>602000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>541000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>452000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>477000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>425000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>516000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>476000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>473000</v>
       </c>
       <c r="L59" s="3">
         <v>473000</v>
       </c>
       <c r="M59" s="3">
+        <v>473000</v>
+      </c>
+      <c r="N59" s="3">
         <v>513000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>472000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>443000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>409000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>576000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>505000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>502000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>578000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>565500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>874000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1268000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1244000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1115000</v>
       </c>
       <c r="G60" s="3">
         <v>1115000</v>
       </c>
       <c r="H60" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="I60" s="3">
         <v>1054000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>665000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>619000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>612000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1241000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1804000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1735000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1217000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1180000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>746000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>665000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>682000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>721000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>704700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>628900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1679000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1672000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>673000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>666000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>659000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>652000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1141000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1131000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1120000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1112000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>890000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>860000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>723000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>710000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1182000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1180000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1169000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1055000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1047800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1040800</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>942000</v>
+      </c>
+      <c r="E62" s="3">
         <v>893000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>974000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>923000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>911000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>920000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>897000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>909000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>930000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>359000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>352000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>343000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>364000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>360000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>222000</v>
-      </c>
-      <c r="S62" s="3">
-        <v>212000</v>
       </c>
       <c r="T62" s="3">
         <v>212000</v>
       </c>
       <c r="U62" s="3">
+        <v>212000</v>
+      </c>
+      <c r="V62" s="3">
         <v>214000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>204300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3834,8 +3982,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3896,8 +4047,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3958,70 +4112,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3495000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3833000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2891000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2704000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2685000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2626000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2703000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2650000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2641000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3405000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3201000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3256000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2594000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2534000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2508000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2191000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2143000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2047000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2083400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1987700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4044,8 +4204,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4106,8 +4267,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4168,8 +4332,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4230,8 +4397,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4292,70 +4462,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5055000</v>
+      </c>
+      <c r="E72" s="3">
         <v>4870000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4723000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4466000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4287000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4240000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4067000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3828000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3594000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3298000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3083000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2872000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2673000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2464000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2256000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2188000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2025000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1897000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1485400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1361700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4416,8 +4592,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4478,8 +4657,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4540,70 +4722,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5180000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4922000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4694000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4700000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4563000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4635000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4613000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4439000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4332000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3985000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3758000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3503000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3257000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3008000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2749000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2855000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2715000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2551000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2197200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2240100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4664,137 +4852,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E80" s="2">
         <v>44290</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44199</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44101</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44010</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43919</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43828</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43737</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43464</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43282</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43191</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43009</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42918</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42827</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42736</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E81" s="3">
         <v>147000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>257000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>179000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>47000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>173000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>239000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>234000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>296000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>233000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>210000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>199000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>209000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>208000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>68000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>163000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>128000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>367000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>123800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4817,70 +5014,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E83" s="3">
         <v>48000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>50000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>47000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>46000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>44000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>45000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>47000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>49000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>47000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>50000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>45000</v>
       </c>
       <c r="O83" s="3">
         <v>45000</v>
       </c>
       <c r="P83" s="3">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="Q83" s="3">
         <v>39000</v>
       </c>
       <c r="R83" s="3">
+        <v>39000</v>
+      </c>
+      <c r="S83" s="3">
         <v>41000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>38000</v>
       </c>
       <c r="T83" s="3">
         <v>38000</v>
       </c>
       <c r="U83" s="3">
+        <v>38000</v>
+      </c>
+      <c r="V83" s="3">
         <v>37500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4941,8 +5142,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5003,8 +5207,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5065,8 +5272,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5127,8 +5337,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5189,70 +5402,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>253000</v>
+      </c>
+      <c r="E89" s="3">
         <v>282000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>406000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>153000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>240000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>281000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>443000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>267000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>143000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>198000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>292000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>295000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>255000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>294000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>235000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>178000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>168000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>262000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5275,70 +5494,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-42000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-62000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-48000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-39000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-40000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-57000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-49000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-47000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-56000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-65000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-64000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-77000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-90000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-76000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-82000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-69000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-83000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-163500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-136600</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5399,8 +5622,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5461,70 +5687,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1376000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-34000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-65000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-320000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-135000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-104000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-218000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>79000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>988000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-348000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-940000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-537000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>12000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-315000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-97000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>35000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>163000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-173500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-341000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5547,8 +5779,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5609,8 +5842,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5671,8 +5907,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5733,8 +5972,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5795,97 +6037,103 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-496000</v>
+      </c>
+      <c r="E100" s="3">
         <v>968000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-331000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-101000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-143000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-191000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-115000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-173000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-549000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-60000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-154000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>651000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>30000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>67000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-109000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>24000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-86000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-163500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -5893,92 +6141,98 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>1000</v>
       </c>
       <c r="Q101" s="3">
         <v>1000</v>
       </c>
       <c r="R101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S101" s="3">
         <v>2000</v>
-      </c>
-      <c r="S101" s="3">
-        <v>1000</v>
       </c>
       <c r="T101" s="3">
         <v>1000</v>
       </c>
       <c r="U101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V101" s="3">
         <v>-3300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-237000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2623000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>49000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-221000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-51000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>227000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-128000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-327000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1126000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-202000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-216000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>335000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-129000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>135000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>238000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>246000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-60000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-157000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>ILMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,291 +665,304 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E7" s="2">
         <v>44381</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44290</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44199</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44101</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44010</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43919</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43828</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43737</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43464</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43282</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43191</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43009</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42918</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42827</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42736</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1108000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1126000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1093000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>953000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>794000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>633000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>859000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>952000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>907000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>838000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>846000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>867000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>853000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>830000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>782000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>777000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>714000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>662000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>598000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>619300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>607100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>338000</v>
+      </c>
+      <c r="E9" s="3">
         <v>324000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>329000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>323000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>268000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>205000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>240000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>290000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>259000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>265000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>262000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>277000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>256000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>255000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>244000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>235000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>232000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>228000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>212000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>199900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>181000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>770000</v>
+      </c>
+      <c r="E10" s="3">
         <v>802000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>764000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>630000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>526000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>428000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>619000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>662000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>648000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>573000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>584000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>590000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>597000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>575000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>538000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>542000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>482000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>434000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>386000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>419400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -973,73 +986,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>436000</v>
+      </c>
+      <c r="E12" s="3">
         <v>202000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>197000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>199000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>172000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>155000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>156000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>161000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>151000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>166000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>169000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>176000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>159000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>151000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>137000</v>
       </c>
       <c r="R12" s="3">
         <v>137000</v>
       </c>
       <c r="S12" s="3">
+        <v>137000</v>
+      </c>
+      <c r="T12" s="3">
         <v>134000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>130000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>140000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>129900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>125900</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1103,13 +1120,16 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>66000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1126,23 +1146,23 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>-39000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-15000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1150,26 +1170,29 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-8000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>31000</v>
-      </c>
-      <c r="V14" s="3">
-        <v>400</v>
       </c>
       <c r="W14" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1233,8 +1256,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1255,138 +1281,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1653000</v>
+      </c>
+      <c r="E17" s="3">
         <v>939000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>820000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>632000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>537000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>670000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>684000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>599000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>594000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>627000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>670000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>612000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>603000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>564000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>547000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>533000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>519000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>546000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>476300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>446400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-545000</v>
+      </c>
+      <c r="E18" s="3">
         <v>187000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>193000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>133000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>162000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>96000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>189000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>268000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>308000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>244000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>219000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>197000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>241000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>227000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>218000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>230000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>181000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>143000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>52000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>143000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1410,152 +1443,159 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>979000</v>
+      </c>
+      <c r="E20" s="3">
         <v>36000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>182000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>64000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>80000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>12000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>117000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>29000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>32000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>16000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>4000</v>
       </c>
       <c r="S20" s="3">
         <v>4000</v>
       </c>
       <c r="T20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U20" s="3">
         <v>6000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>459000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>499000</v>
+      </c>
+      <c r="E21" s="3">
         <v>272000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>236000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>365000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>273000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>222000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>233000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>325000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>328000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>410000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>295000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>279000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>292000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>288000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>271000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>273000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>226000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>187000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>549000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>180500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>198600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E22" s="3">
         <v>16000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>11000</v>
       </c>
       <c r="H22" s="3">
         <v>11000</v>
@@ -1570,19 +1610,19 @@
         <v>11000</v>
       </c>
       <c r="L22" s="3">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M22" s="3">
         <v>15000</v>
       </c>
       <c r="N22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="O22" s="3">
         <v>20000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>11000</v>
       </c>
       <c r="Q22" s="3">
         <v>11000</v>
@@ -1591,152 +1631,161 @@
         <v>11000</v>
       </c>
       <c r="S22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="T22" s="3">
         <v>10000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>8000</v>
       </c>
       <c r="U22" s="3">
         <v>8000</v>
       </c>
       <c r="V22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="W22" s="3">
         <v>8300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>420000</v>
+      </c>
+      <c r="E23" s="3">
         <v>207000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>169000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>299000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>215000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>165000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>178000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>269000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>270000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>346000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>233000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>209000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>232000</v>
       </c>
       <c r="P23" s="3">
         <v>232000</v>
       </c>
       <c r="Q23" s="3">
+        <v>232000</v>
+      </c>
+      <c r="R23" s="3">
         <v>221000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>223000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>175000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>141000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>503000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>134200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22000</v>
+        <v>103000</v>
       </c>
       <c r="E24" s="3">
         <v>22000</v>
       </c>
       <c r="F24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="G24" s="3">
         <v>42000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>36000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>118000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>30000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>53000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>33000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>32000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>24000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>16000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>155000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>26700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1800,138 +1849,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E26" s="3">
         <v>185000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>147000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>257000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>179000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>47000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>173000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>239000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>234000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>293000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>224000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>197000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>199000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>197000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>207000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>152000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>120000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>348000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>107500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>116900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E27" s="3">
         <v>185000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>147000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>257000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>179000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>47000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>173000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>239000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>234000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>296000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>233000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>210000</v>
       </c>
       <c r="O27" s="3">
         <v>210000</v>
       </c>
       <c r="P27" s="3">
+        <v>210000</v>
+      </c>
+      <c r="Q27" s="3">
         <v>209000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>208000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>218000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>163000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>128000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>367000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>123800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1995,8 +2053,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2030,23 +2091,23 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-11000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3">
         <v>-150000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2060,8 +2121,11 @@
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2125,8 +2189,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2190,138 +2257,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-979000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-36000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-182000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-64000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-80000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-12000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-117000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-29000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-32000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-4000</v>
       </c>
       <c r="S32" s="3">
         <v>-4000</v>
       </c>
       <c r="T32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="U32" s="3">
         <v>-6000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-459000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E33" s="3">
         <v>185000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>147000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>257000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>179000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>47000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>173000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>239000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>234000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>296000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>233000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>210000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>199000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>209000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>208000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>68000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>163000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>128000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>367000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>123800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2385,143 +2461,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E35" s="3">
         <v>185000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>147000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>257000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>179000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>47000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>173000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>239000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>234000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>296000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>233000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>210000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>199000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>209000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>208000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>68000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>163000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>128000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>367000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>123800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E38" s="2">
         <v>44381</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44290</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44199</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44101</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44010</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43919</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43828</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43737</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43464</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43282</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43191</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43009</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42918</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42827</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42736</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2545,8 +2630,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2570,398 +2656,417 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1080000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4196000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4433000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1810000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1761000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1770000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1991000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2042000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1815000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1943000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2270000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1144000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1346000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1344000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1560000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1225000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1354000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1219000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>981000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>734500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>794700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E42" s="3">
         <v>90000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>197000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1662000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1563000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1498000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1341000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1372000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1351000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1230000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1345000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2368000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2043000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1168000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>813000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>920000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>687000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>674000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>797000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>824200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>741600</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>604000</v>
+      </c>
+      <c r="E43" s="3">
         <v>540000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>517000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>487000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>464000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>385000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>472000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>573000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>541000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>470000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>457000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>514000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>433000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>395000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>411000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>383000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>372000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>368000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>381300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>401000</v>
+      </c>
+      <c r="E44" s="3">
         <v>380000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>364000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>372000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>415000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>435000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>384000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>359000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>417000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>420000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>412000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>386000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>374000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>362000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>350000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>333000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>327000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>309000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>299000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>300200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E45" s="3">
         <v>104000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>131000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>152000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>126000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>106000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>136000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>105000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>98000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>93000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>61000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>78000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>66000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>68000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>71000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>91000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>54000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>69000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>72000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>77900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2451000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5310000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5642000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4483000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4329000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4194000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4324000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4451000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4222000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4156000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4545000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4490000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4262000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3337000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3194000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2980000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2805000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2643000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2517000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2318100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2277800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3025,138 +3130,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1685000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1481000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1444000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1454000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1455000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1439000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1449000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1444000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1430000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1412000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1426000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1075000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1060000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1036000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>983000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>931000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>862000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>837000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>734000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>713300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>633900</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10449000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1128000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1031000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1039000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1046000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1050000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>962000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>969000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>976000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>986000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1006000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1016000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1026000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1036000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>943000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>946000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>956000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>967000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>978000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1018600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1031600</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3220,8 +3334,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3285,73 +3402,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>478000</v>
+      </c>
+      <c r="E52" s="3">
         <v>756000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>638000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>609000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>574000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>565000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>526000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>452000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>461000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>419000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>413000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>378000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>411000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>442000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>422000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>400000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>423000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>411000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>369000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>230500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3415,73 +3538,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15063000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8675000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8755000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7585000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7404000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7248000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7261000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7316000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7089000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6973000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7390000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6959000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6759000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5851000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5542000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5257000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5046000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4858000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4598000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4280600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4227800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3505,8 +3634,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3530,73 +3660,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E57" s="3">
         <v>200000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>178000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>192000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>156000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>135000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>130000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>149000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>143000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>139000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>137000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>184000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>156000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>149000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>151000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>160000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>158000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>175000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>142000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>137900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>134100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3604,23 +3738,23 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>488000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>511000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>507000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>503000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>499000</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -3628,300 +3762,315 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>631000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1107000</v>
       </c>
       <c r="O58" s="3">
         <v>1107000</v>
       </c>
       <c r="P58" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>625000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>620000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>1300</v>
       </c>
       <c r="W58" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>666000</v>
+      </c>
+      <c r="E59" s="3">
         <v>674000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>602000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>541000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>452000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>477000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>425000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>516000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>476000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>473000</v>
       </c>
       <c r="M59" s="3">
         <v>473000</v>
       </c>
       <c r="N59" s="3">
+        <v>473000</v>
+      </c>
+      <c r="O59" s="3">
         <v>513000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>472000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>443000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>409000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>576000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>505000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>502000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>578000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>565500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>914000</v>
+      </c>
+      <c r="E60" s="3">
         <v>874000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1268000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1244000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1115000</v>
       </c>
       <c r="H60" s="3">
         <v>1115000</v>
       </c>
       <c r="I60" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="J60" s="3">
         <v>1054000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>665000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>619000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>612000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1241000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1804000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1735000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1217000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1180000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>746000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>665000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>682000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>721000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>704700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>628900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1687000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1679000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1672000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>673000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>666000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>659000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>652000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1141000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1131000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1120000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1112000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>890000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>860000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>723000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>710000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1182000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1180000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1169000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1055000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1047800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1040800</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1869000</v>
+      </c>
+      <c r="E62" s="3">
         <v>942000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>893000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>974000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>923000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>911000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>920000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>897000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>909000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>930000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>359000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>352000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>343000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>364000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>360000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>222000</v>
-      </c>
-      <c r="T62" s="3">
-        <v>212000</v>
       </c>
       <c r="U62" s="3">
         <v>212000</v>
       </c>
       <c r="V62" s="3">
+        <v>212000</v>
+      </c>
+      <c r="W62" s="3">
         <v>214000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>204300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3985,8 +4134,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4050,8 +4202,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4115,73 +4270,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4470000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3495000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3833000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2891000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2704000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2685000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2626000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2703000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2650000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2641000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3405000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3201000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3256000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2594000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2534000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2508000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2191000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2143000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2047000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2083400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1987700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4205,8 +4366,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4270,8 +4432,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4335,8 +4500,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4400,8 +4568,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4465,73 +4636,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5372000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5055000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4870000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4723000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4466000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4287000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4240000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4067000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3828000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3594000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3298000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3083000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2872000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2673000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2464000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2256000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2188000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2025000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1897000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1485400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1361700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4595,8 +4772,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4660,8 +4840,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4725,73 +4908,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10593000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5180000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4922000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4694000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4700000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4563000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4635000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4613000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4439000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4332000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3985000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3758000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3503000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3257000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3008000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2749000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2855000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2715000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2551000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2197200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2240100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4855,143 +5044,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E80" s="2">
         <v>44381</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44290</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44199</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44101</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44010</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43919</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43828</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43737</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43464</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43282</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43191</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43009</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42918</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42827</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42736</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E81" s="3">
         <v>185000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>147000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>257000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>179000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>47000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>173000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>239000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>234000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>296000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>233000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>210000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>199000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>209000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>208000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>68000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>163000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>128000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>367000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>123800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5015,73 +5213,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E83" s="3">
         <v>49000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>48000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>50000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>47000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>46000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>44000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>45000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>47000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>49000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>47000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>50000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>45000</v>
       </c>
       <c r="P83" s="3">
         <v>45000</v>
       </c>
       <c r="Q83" s="3">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="R83" s="3">
         <v>39000</v>
       </c>
       <c r="S83" s="3">
+        <v>39000</v>
+      </c>
+      <c r="T83" s="3">
         <v>41000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>38000</v>
       </c>
       <c r="U83" s="3">
         <v>38000</v>
       </c>
       <c r="V83" s="3">
+        <v>38000</v>
+      </c>
+      <c r="W83" s="3">
         <v>37500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5145,8 +5347,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5210,8 +5415,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5275,8 +5483,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5340,8 +5551,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5405,73 +5619,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-272000</v>
+      </c>
+      <c r="E89" s="3">
         <v>253000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>282000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>406000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>153000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>240000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>281000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>443000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>267000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>143000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>198000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>292000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>295000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>255000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>294000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>235000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>178000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>168000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>262000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5495,73 +5715,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-44000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-42000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-62000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-48000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-39000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-40000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-57000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-49000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-47000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-56000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-65000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-64000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-90000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-76000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-82000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-69000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-83000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-163500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-136600</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5625,8 +5849,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5690,73 +5917,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2448000</v>
+      </c>
+      <c r="E94" s="3">
         <v>3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1376000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-34000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-65000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-320000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-135000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-104000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-218000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>79000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>988000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-348000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-940000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-537000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>12000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-315000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-97000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>35000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>163000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-173500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-341000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5780,8 +6013,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5845,8 +6079,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5910,8 +6147,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5975,8 +6215,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6040,103 +6283,109 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-394000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-496000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>968000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-331000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-101000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-143000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-191000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-115000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-173000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-549000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-60000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-154000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>651000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>30000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>67000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-109000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>24000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-86000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-163500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -6144,95 +6393,101 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>1000</v>
       </c>
       <c r="R101" s="3">
         <v>1000</v>
       </c>
       <c r="S101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T101" s="3">
         <v>2000</v>
-      </c>
-      <c r="T101" s="3">
-        <v>1000</v>
       </c>
       <c r="U101" s="3">
         <v>1000</v>
       </c>
       <c r="V101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W101" s="3">
         <v>-3300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3116000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-237000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2623000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>49000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-221000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-51000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>227000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-128000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-327000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1126000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-202000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-216000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>335000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-129000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>135000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>238000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>246000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-60000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-157000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>ILMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,304 +665,316 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E7" s="2">
         <v>44472</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44381</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44290</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44199</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44101</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44010</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43919</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43828</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43737</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43464</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43282</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43191</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43009</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42918</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42827</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42736</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1199000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1108000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1126000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1093000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>953000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>794000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>633000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>859000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>952000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>907000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>838000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>846000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>867000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>853000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>830000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>782000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>777000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>714000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>662000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>598000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>619300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>607100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E9" s="3">
         <v>338000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>324000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>329000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>323000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>268000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>205000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>240000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>290000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>259000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>265000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>262000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>277000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>256000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>255000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>244000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>235000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>232000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>228000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>212000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>199900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>181000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>817000</v>
+      </c>
+      <c r="E10" s="3">
         <v>770000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>802000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>764000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>630000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>526000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>428000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>619000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>662000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>648000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>573000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>584000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>590000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>597000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>575000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>538000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>542000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>482000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>434000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>386000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>419400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -987,76 +999,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>350000</v>
+      </c>
+      <c r="E12" s="3">
         <v>436000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>202000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>197000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>199000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>172000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>155000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>156000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>161000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>151000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>166000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>169000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>176000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>159000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>151000</v>
-      </c>
-      <c r="R12" s="3">
-        <v>137000</v>
       </c>
       <c r="S12" s="3">
         <v>137000</v>
       </c>
       <c r="T12" s="3">
+        <v>137000</v>
+      </c>
+      <c r="U12" s="3">
         <v>134000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>130000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>140000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>129900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>125900</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1123,13 +1139,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>66000</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1149,23 +1168,23 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>-39000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-15000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1173,26 +1192,29 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-8000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>31000</v>
-      </c>
-      <c r="W14" s="3">
-        <v>400</v>
       </c>
       <c r="X14" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1259,8 +1281,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1282,144 +1307,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1158000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1653000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>939000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>820000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>632000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>537000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>670000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>684000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>599000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>594000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>627000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>670000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>612000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>603000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>564000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>547000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>533000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>519000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>546000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>476300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>446400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-545000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>187000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>193000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>133000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>162000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>96000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>189000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>268000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>308000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>244000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>219000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>197000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>241000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>227000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>218000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>230000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>181000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>143000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>52000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>143000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1444,161 +1476,168 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E20" s="3">
         <v>979000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>36000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>182000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>64000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>80000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>12000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>117000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>29000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>32000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>16000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>4000</v>
       </c>
       <c r="T20" s="3">
         <v>4000</v>
       </c>
       <c r="U20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="V20" s="3">
         <v>6000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>459000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E21" s="3">
         <v>499000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>272000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>236000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>365000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>273000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>222000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>233000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>325000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>328000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>410000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>295000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>279000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>292000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>288000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>271000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>273000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>226000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>187000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>549000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>180500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>198600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E22" s="3">
         <v>14000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>11000</v>
       </c>
       <c r="I22" s="3">
         <v>11000</v>
@@ -1613,19 +1652,19 @@
         <v>11000</v>
       </c>
       <c r="M22" s="3">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N22" s="3">
         <v>15000</v>
       </c>
       <c r="O22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="P22" s="3">
         <v>20000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>11000</v>
       </c>
       <c r="R22" s="3">
         <v>11000</v>
@@ -1634,158 +1673,167 @@
         <v>11000</v>
       </c>
       <c r="T22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="U22" s="3">
         <v>10000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>8000</v>
       </c>
       <c r="V22" s="3">
         <v>8000</v>
       </c>
       <c r="W22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="X22" s="3">
         <v>8300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E23" s="3">
         <v>420000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>207000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>169000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>299000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>215000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>165000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>178000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>269000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>270000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>346000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>233000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>209000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>232000</v>
       </c>
       <c r="Q23" s="3">
         <v>232000</v>
       </c>
       <c r="R23" s="3">
+        <v>232000</v>
+      </c>
+      <c r="S23" s="3">
         <v>221000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>223000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>175000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>141000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>503000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>134200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E24" s="3">
         <v>103000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>22000</v>
       </c>
       <c r="F24" s="3">
         <v>22000</v>
       </c>
       <c r="G24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="H24" s="3">
         <v>42000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>36000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>118000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>53000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>33000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>32000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>24000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>16000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>23000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>155000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>26700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1852,144 +1900,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E26" s="3">
         <v>317000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>185000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>147000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>257000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>179000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>47000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>173000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>239000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>234000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>293000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>224000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>197000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>199000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>197000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>207000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>152000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>120000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>348000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>107500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>116900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E27" s="3">
         <v>317000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>185000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>147000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>257000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>179000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>47000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>173000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>239000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>234000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>296000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>233000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>210000</v>
       </c>
       <c r="P27" s="3">
         <v>210000</v>
       </c>
       <c r="Q27" s="3">
+        <v>210000</v>
+      </c>
+      <c r="R27" s="3">
         <v>209000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>208000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>218000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>163000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>128000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>367000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>123800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2056,31 +2113,34 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -2094,23 +2154,23 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-11000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3">
         <v>-150000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2124,8 +2184,11 @@
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2192,8 +2255,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2260,144 +2326,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-979000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-36000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-182000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-64000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-80000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-12000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-117000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-29000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-32000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-16000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-4000</v>
       </c>
       <c r="T32" s="3">
         <v>-4000</v>
       </c>
       <c r="U32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="V32" s="3">
         <v>-6000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-459000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E33" s="3">
         <v>317000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>185000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>147000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>257000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>179000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>47000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>173000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>239000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>234000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>296000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>233000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>210000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>199000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>209000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>208000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>68000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>163000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>128000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>367000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>123800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2464,149 +2539,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E35" s="3">
         <v>317000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>185000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>147000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>257000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>179000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>47000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>173000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>239000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>234000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>296000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>233000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>210000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>199000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>209000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>208000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>68000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>163000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>128000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>367000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>123800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E38" s="2">
         <v>44472</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44381</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44290</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44199</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44101</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44010</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43919</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43828</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43737</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43464</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43282</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43191</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43009</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42918</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42827</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42736</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2631,8 +2715,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2657,416 +2742,435 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1232000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1080000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4196000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4433000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1810000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1761000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1770000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1991000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2042000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1815000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1943000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2270000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1144000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1346000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1344000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1560000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1225000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1354000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1219000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>981000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>734500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>794700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E42" s="3">
         <v>185000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>90000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>197000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1662000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1563000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1498000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1341000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1372000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1351000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1230000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1345000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2368000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2043000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1168000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>813000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>920000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>687000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>674000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>797000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>824200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>741600</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>648000</v>
+      </c>
+      <c r="E43" s="3">
         <v>604000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>540000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>517000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>487000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>464000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>385000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>472000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>573000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>541000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>470000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>457000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>514000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>433000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>395000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>400000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>411000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>383000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>372000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>368000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>381300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>431000</v>
+      </c>
+      <c r="E44" s="3">
         <v>401000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>380000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>364000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>372000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>415000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>435000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>384000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>359000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>417000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>420000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>412000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>386000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>374000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>362000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>350000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>333000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>327000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>309000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>299000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>300200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>295000</v>
+      </c>
+      <c r="E45" s="3">
         <v>181000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>104000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>131000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>152000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>126000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>106000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>136000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>105000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>98000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>93000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>61000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>78000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>66000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>68000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>71000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>91000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>54000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>69000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>72000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>77900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2713000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2451000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5310000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5642000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4483000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4329000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4194000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4324000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4451000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4222000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4156000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4545000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4490000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4262000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3337000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3194000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2980000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2805000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2643000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2517000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2318100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2277800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3133,144 +3237,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1696000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1685000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1481000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1444000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1454000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1455000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1439000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1449000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1444000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1430000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1412000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1426000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1075000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1060000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1036000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>983000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>931000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>862000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>837000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>734000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>713300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>633900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10363000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10449000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1128000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1031000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1039000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1046000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1050000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>962000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>969000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>976000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>986000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1006000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1016000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1026000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1036000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>943000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>946000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>956000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>967000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>978000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1018600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1031600</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3337,8 +3450,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3405,76 +3521,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>445000</v>
+      </c>
+      <c r="E52" s="3">
         <v>478000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>756000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>638000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>609000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>574000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>565000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>526000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>452000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>461000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>419000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>413000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>378000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>411000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>442000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>422000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>400000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>423000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>411000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>369000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>230500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3541,76 +3663,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15217000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15063000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8675000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8755000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7585000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7404000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7248000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7261000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7316000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7089000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6973000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7390000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6959000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6759000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5851000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5542000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5257000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5046000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4858000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4598000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4280600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4227800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3635,8 +3763,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3661,76 +3790,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>332000</v>
+      </c>
+      <c r="E57" s="3">
         <v>248000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>178000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>192000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>156000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>135000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>130000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>149000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>143000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>139000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>137000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>184000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>156000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>149000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>151000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>160000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>158000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>175000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>142000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>137900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>134100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3741,23 +3874,23 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>488000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>511000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>507000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>503000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>499000</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -3765,312 +3898,327 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>631000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1107000</v>
       </c>
       <c r="P58" s="3">
         <v>1107000</v>
       </c>
       <c r="Q58" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="R58" s="3">
         <v>625000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>620000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1000</v>
-      </c>
-      <c r="W58" s="3">
-        <v>1300</v>
       </c>
       <c r="X58" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>761000</v>
+      </c>
+      <c r="E59" s="3">
         <v>666000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>674000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>602000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>541000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>452000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>477000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>425000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>516000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>476000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>473000</v>
       </c>
       <c r="N59" s="3">
         <v>473000</v>
       </c>
       <c r="O59" s="3">
+        <v>473000</v>
+      </c>
+      <c r="P59" s="3">
         <v>513000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>472000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>443000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>409000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>576000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>505000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>502000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>578000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>565500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="E60" s="3">
         <v>914000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>874000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1268000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1244000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1115000</v>
       </c>
       <c r="I60" s="3">
         <v>1115000</v>
       </c>
       <c r="J60" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1054000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>665000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>619000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>612000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1241000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1804000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1735000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1217000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1180000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>746000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>665000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>682000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>721000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>704700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>628900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1695000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1687000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1679000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1672000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>673000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>666000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>659000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>652000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1141000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1131000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1120000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1112000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>890000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>860000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>723000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>710000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1182000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1180000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1169000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1055000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1047800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1040800</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1689000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1869000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>942000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>893000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>974000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>923000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>911000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>920000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>897000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>900000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>909000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>930000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>359000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>352000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>343000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>364000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>360000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>222000</v>
-      </c>
-      <c r="U62" s="3">
-        <v>212000</v>
       </c>
       <c r="V62" s="3">
         <v>212000</v>
       </c>
       <c r="W62" s="3">
+        <v>212000</v>
+      </c>
+      <c r="X62" s="3">
         <v>214000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>204300</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4137,8 +4285,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4205,8 +4356,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4273,76 +4427,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4477000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4470000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3495000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3833000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2891000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2704000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2685000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2626000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2703000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2650000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2641000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3405000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3201000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3256000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2594000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2534000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2508000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2191000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2143000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2047000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2083400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1987700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4367,8 +4527,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4435,8 +4596,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4503,8 +4667,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4571,8 +4738,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4639,76 +4809,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5485000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5372000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5055000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4870000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4723000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4466000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4287000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4240000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4067000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3828000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3594000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3298000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3083000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2872000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2673000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2464000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2256000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2188000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2025000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1897000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1485400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1361700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4775,8 +4951,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4843,8 +5022,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4911,76 +5093,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10740000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10593000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5180000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4922000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4694000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4700000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4563000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4635000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4613000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4439000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4332000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3985000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3758000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3503000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3257000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3008000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2749000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2855000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2715000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2551000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2197200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2240100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5047,149 +5235,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E80" s="2">
         <v>44472</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44381</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44290</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44199</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44101</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44010</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43919</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43828</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43737</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43464</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43282</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43191</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43009</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42918</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42827</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42736</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E81" s="3">
         <v>317000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>185000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>147000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>257000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>179000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>47000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>173000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>239000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>234000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>296000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>233000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>210000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>199000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>209000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>208000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>68000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>163000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>128000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>367000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>123800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5214,76 +5411,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E83" s="3">
         <v>65000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>49000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>48000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>50000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>47000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>46000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>44000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>45000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>47000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>49000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>47000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>50000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>45000</v>
       </c>
       <c r="Q83" s="3">
         <v>45000</v>
       </c>
       <c r="R83" s="3">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="S83" s="3">
         <v>39000</v>
       </c>
       <c r="T83" s="3">
+        <v>39000</v>
+      </c>
+      <c r="U83" s="3">
         <v>41000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>38000</v>
       </c>
       <c r="V83" s="3">
         <v>38000</v>
       </c>
       <c r="W83" s="3">
+        <v>38000</v>
+      </c>
+      <c r="X83" s="3">
         <v>37500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5350,8 +5551,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5418,8 +5622,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5486,8 +5693,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5554,8 +5764,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5622,76 +5835,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>282000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-272000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>253000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>282000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>406000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>153000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>240000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>281000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>443000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>267000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>143000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>198000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>292000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>295000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>255000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>294000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>235000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>178000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>168000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>262000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5716,76 +5935,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-52000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-44000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-42000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-62000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-48000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-39000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-40000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-57000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-49000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-47000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-56000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-65000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-77000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-90000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-76000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-82000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-69000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-83000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-163500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-136600</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5852,8 +6075,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5920,76 +6146,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2448000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1376000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-34000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-65000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-320000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-135000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-104000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-218000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>79000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>988000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-348000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-940000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-537000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>12000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-315000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-97000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>35000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>163000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-173500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-341000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6014,8 +6246,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6082,8 +6315,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6150,8 +6386,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6218,8 +6457,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6286,109 +6528,115 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-394000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-496000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>968000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-331000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-101000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-143000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-191000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-115000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-173000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-549000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-60000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-154000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>651000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>30000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>67000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-109000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>24000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-86000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-163500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -6396,98 +6644,104 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="R101" s="3">
-        <v>1000</v>
       </c>
       <c r="S101" s="3">
         <v>1000</v>
       </c>
       <c r="T101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U101" s="3">
         <v>2000</v>
-      </c>
-      <c r="U101" s="3">
-        <v>1000</v>
       </c>
       <c r="V101" s="3">
         <v>1000</v>
       </c>
       <c r="W101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X101" s="3">
         <v>-3300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3116000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-237000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2623000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>49000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-221000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-51000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>227000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-128000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-327000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1126000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-202000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-216000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>335000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-129000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>135000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>238000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>246000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-60000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-157000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>ILMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,316 +665,328 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E7" s="2">
         <v>44563</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44472</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44381</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44290</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44199</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44101</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44010</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43919</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43828</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43737</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43464</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43282</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43191</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43009</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42918</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42827</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42736</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1223000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1199000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1108000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1126000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1093000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>953000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>794000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>633000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>859000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>952000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>907000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>838000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>846000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>867000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>853000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>830000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>782000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>777000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>714000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>662000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>598000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>619300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>607100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>408000</v>
+      </c>
+      <c r="E9" s="3">
         <v>382000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>338000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>324000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>329000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>323000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>268000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>205000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>240000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>290000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>259000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>265000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>262000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>277000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>256000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>255000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>244000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>235000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>232000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>228000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>212000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>199900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>181000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>815000</v>
+      </c>
+      <c r="E10" s="3">
         <v>817000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>770000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>802000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>764000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>630000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>526000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>428000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>619000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>662000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>648000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>573000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>584000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>590000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>597000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>575000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>538000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>542000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>482000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>434000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>386000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>419400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1000,79 +1012,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E12" s="3">
         <v>350000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>436000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>202000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>197000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>199000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>172000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>155000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>156000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>161000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>151000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>166000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>169000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>176000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>159000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>151000</v>
-      </c>
-      <c r="S12" s="3">
-        <v>137000</v>
       </c>
       <c r="T12" s="3">
         <v>137000</v>
       </c>
       <c r="U12" s="3">
+        <v>137000</v>
+      </c>
+      <c r="V12" s="3">
         <v>134000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>130000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>140000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>129900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>125900</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1158,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1171,23 +1190,23 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>-39000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-15000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1195,26 +1214,29 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-8000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>31000</v>
-      </c>
-      <c r="X14" s="3">
-        <v>400</v>
       </c>
       <c r="Y14" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1284,8 +1306,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1308,150 +1333,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1158000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1653000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>939000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>820000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>632000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>537000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>670000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>684000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>599000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>594000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>627000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>670000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>612000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>603000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>564000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>547000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>533000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>519000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>546000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>476300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>446400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E18" s="3">
         <v>41000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-545000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>187000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>193000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>133000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>162000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>96000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>189000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>268000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>308000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>244000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>219000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>197000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>241000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>227000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>218000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>230000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>181000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>143000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>52000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>143000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1477,170 +1509,177 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E20" s="3">
         <v>58000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>979000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>36000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>182000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>64000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>80000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>12000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-27000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>117000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>29000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>32000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>16000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>4000</v>
       </c>
       <c r="U20" s="3">
         <v>4000</v>
       </c>
       <c r="V20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="W20" s="3">
         <v>6000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>459000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E21" s="3">
         <v>188000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>499000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>272000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>236000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>365000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>273000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>222000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>233000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>325000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>328000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>410000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>295000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>279000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>292000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>288000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>271000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>273000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>226000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>187000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>549000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>180500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>198600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E22" s="3">
         <v>13000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>19000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>11000</v>
       </c>
       <c r="J22" s="3">
         <v>11000</v>
@@ -1655,19 +1694,19 @@
         <v>11000</v>
       </c>
       <c r="N22" s="3">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O22" s="3">
         <v>15000</v>
       </c>
       <c r="P22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>20000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>11000</v>
       </c>
       <c r="S22" s="3">
         <v>11000</v>
@@ -1676,164 +1715,173 @@
         <v>11000</v>
       </c>
       <c r="U22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="V22" s="3">
         <v>10000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>8000</v>
       </c>
       <c r="W22" s="3">
         <v>8000</v>
       </c>
       <c r="X22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>8300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E23" s="3">
         <v>86000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>420000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>207000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>169000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>299000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>215000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>165000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>178000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>269000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>270000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>346000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>233000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>209000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>232000</v>
       </c>
       <c r="R23" s="3">
         <v>232000</v>
       </c>
       <c r="S23" s="3">
+        <v>232000</v>
+      </c>
+      <c r="T23" s="3">
         <v>221000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>223000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>175000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>141000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>503000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>134200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-26000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>103000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>22000</v>
       </c>
       <c r="G24" s="3">
         <v>22000</v>
       </c>
       <c r="H24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I24" s="3">
         <v>42000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>36000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>118000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>36000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>53000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>33000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>32000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>16000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>23000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>155000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>26700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1903,150 +1951,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E26" s="3">
         <v>112000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>317000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>185000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>147000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>257000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>179000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>47000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>173000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>239000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>234000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>293000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>224000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>197000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>199000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>200000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>197000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>207000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>152000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>120000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>348000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>107500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>116900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E27" s="3">
         <v>112000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>317000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>185000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>147000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>257000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>179000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>47000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>173000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>239000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>234000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>296000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>233000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>210000</v>
       </c>
       <c r="Q27" s="3">
         <v>210000</v>
       </c>
       <c r="R27" s="3">
+        <v>210000</v>
+      </c>
+      <c r="S27" s="3">
         <v>209000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>208000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>218000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>163000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>128000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>367000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>123800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2116,8 +2173,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2142,8 +2202,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -2157,23 +2217,23 @@
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-11000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="3">
         <v>-150000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>10</v>
@@ -2187,8 +2247,11 @@
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2258,8 +2321,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2329,150 +2395,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-58000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-979000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-36000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-182000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-64000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-80000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-12000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>27000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-117000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-29000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-16000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-4000</v>
       </c>
       <c r="U32" s="3">
         <v>-4000</v>
       </c>
       <c r="V32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="W32" s="3">
         <v>-6000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-459000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E33" s="3">
         <v>112000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>317000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>185000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>147000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>257000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>179000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>47000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>173000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>239000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>234000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>296000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>233000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>210000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>199000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>209000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>208000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>68000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>163000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>128000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>367000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>123800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2542,155 +2617,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E35" s="3">
         <v>112000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>317000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>185000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>147000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>257000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>179000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>47000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>173000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>239000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>234000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>296000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>233000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>210000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>199000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>209000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>208000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>68000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>163000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>128000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>367000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>123800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E38" s="2">
         <v>44563</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44472</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44381</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44290</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44199</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44101</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44010</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43919</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43828</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43737</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43464</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43282</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43191</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43009</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42918</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42827</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42736</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2716,8 +2800,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2743,434 +2828,453 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1351000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1232000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1080000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4196000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4433000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1810000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1761000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1770000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1991000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2042000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1815000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1943000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2270000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1144000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1346000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1344000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1560000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1225000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1354000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1219000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>981000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>734500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>794700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E42" s="3">
         <v>107000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>185000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>90000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>197000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1662000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1563000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1498000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1341000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1372000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1351000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1230000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1345000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2368000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2043000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1168000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>813000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>920000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>687000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>674000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>797000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>824200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>741600</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>614000</v>
+      </c>
+      <c r="E43" s="3">
         <v>648000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>604000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>540000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>517000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>487000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>464000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>385000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>472000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>573000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>541000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>470000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>457000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>514000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>433000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>395000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>411000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>383000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>372000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>368000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>381300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>465000</v>
+      </c>
+      <c r="E44" s="3">
         <v>431000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>401000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>380000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>364000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>372000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>415000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>435000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>384000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>359000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>417000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>420000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>412000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>386000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>374000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>362000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>350000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>333000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>327000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>309000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>299000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>300200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E45" s="3">
         <v>295000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>181000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>104000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>131000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>152000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>126000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>106000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>136000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>105000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>98000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>93000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>61000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>78000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>66000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>68000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>71000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>91000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>54000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>69000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>72000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>77900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2755000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2713000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2451000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5310000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5642000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4483000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4329000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4194000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4324000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4451000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4222000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4156000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4545000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4490000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4262000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3337000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3194000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2980000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2805000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2643000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2517000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2318100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2277800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3240,150 +3344,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1740000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1696000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1685000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1481000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1444000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1454000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1455000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1439000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1449000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1444000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1430000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1412000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1426000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1075000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1060000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1036000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>983000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>931000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>862000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>837000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>734000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>713300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>633900</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10322000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10363000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10449000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1128000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1031000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1039000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1046000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1050000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>962000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>969000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>976000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>986000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1006000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1016000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1026000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1036000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>943000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>946000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>956000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>967000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>978000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1018600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1031600</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3453,8 +3566,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3524,79 +3640,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>457000</v>
+      </c>
+      <c r="E52" s="3">
         <v>445000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>478000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>756000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>638000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>609000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>574000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>565000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>526000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>452000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>461000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>419000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>413000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>378000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>411000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>442000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>422000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>400000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>423000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>411000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>369000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>230500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3666,79 +3788,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15274000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15217000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15063000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8675000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8755000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7585000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7404000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7248000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7261000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7316000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7089000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6973000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7390000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6959000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6759000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5851000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5542000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5257000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5046000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4858000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4598000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4280600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4227800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3764,8 +3892,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3791,84 +3920,88 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E57" s="3">
         <v>332000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>248000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>178000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>192000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>156000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>135000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>130000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>149000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>143000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>139000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>137000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>184000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>156000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>149000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>151000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>160000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>158000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>175000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>142000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>137900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>134100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>499000</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3877,23 +4010,23 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>488000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>511000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>507000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>503000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>499000</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -3901,324 +4034,339 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>631000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1107000</v>
       </c>
       <c r="Q58" s="3">
         <v>1107000</v>
       </c>
       <c r="R58" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="S58" s="3">
         <v>625000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>620000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>10000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1000</v>
-      </c>
-      <c r="X58" s="3">
-        <v>1300</v>
       </c>
       <c r="Y58" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700000</v>
+      </c>
+      <c r="E59" s="3">
         <v>761000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>666000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>674000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>602000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>541000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>452000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>477000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>425000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>516000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>476000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>473000</v>
       </c>
       <c r="O59" s="3">
         <v>473000</v>
       </c>
       <c r="P59" s="3">
+        <v>473000</v>
+      </c>
+      <c r="Q59" s="3">
         <v>513000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>472000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>443000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>409000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>576000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>505000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>502000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>578000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>565500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1490000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1093000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>914000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>874000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1268000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1244000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1115000</v>
       </c>
       <c r="J60" s="3">
         <v>1115000</v>
       </c>
       <c r="K60" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="L60" s="3">
         <v>1054000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>665000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>619000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>612000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1241000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1804000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1735000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1217000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1180000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>746000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>665000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>682000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>721000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>704700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>628900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1241000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1695000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1687000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1679000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1672000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>673000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>666000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>659000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>652000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1141000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1131000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1120000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1112000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>890000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>860000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>723000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>710000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1182000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1180000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1169000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1055000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1047800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1040800</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1648000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1689000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1869000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>942000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>893000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>974000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>923000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>911000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>920000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>897000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>900000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>909000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>930000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>359000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>352000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>343000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>364000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>360000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>222000</v>
-      </c>
-      <c r="V62" s="3">
-        <v>212000</v>
       </c>
       <c r="W62" s="3">
         <v>212000</v>
       </c>
       <c r="X62" s="3">
+        <v>212000</v>
+      </c>
+      <c r="Y62" s="3">
         <v>214000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>204300</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4288,8 +4436,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4359,8 +4510,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4430,79 +4584,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4379000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4477000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4470000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3495000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3833000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2891000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2704000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2685000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2626000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2703000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2650000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2641000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3405000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3201000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3256000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2594000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2534000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2508000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2191000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2143000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2047000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2083400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1987700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4528,8 +4688,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4599,8 +4760,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4670,8 +4834,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4741,8 +4908,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4812,79 +4982,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5632000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5485000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5372000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5055000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4870000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4723000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4466000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4287000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4240000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4067000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3828000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3594000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3298000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3083000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2872000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2673000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2464000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2256000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2188000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2025000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1897000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1485400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1361700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4954,8 +5130,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5025,8 +5204,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5096,79 +5278,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10895000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10740000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10593000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5180000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4922000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4694000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4700000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4563000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4635000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4613000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4439000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4332000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3985000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3758000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3503000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3257000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3008000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2749000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2855000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2715000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2551000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2197200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2240100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5238,155 +5426,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44654</v>
+      </c>
+      <c r="E80" s="2">
         <v>44563</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44472</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44381</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44290</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44199</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44101</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44010</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43919</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43828</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43737</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43464</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43282</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43191</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43009</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42918</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42827</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42736</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E81" s="3">
         <v>112000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>317000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>185000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>147000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>257000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>179000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>47000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>173000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>239000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>234000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>296000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>233000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>210000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>199000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>209000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>208000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>68000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>163000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>128000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>367000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>123800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5412,79 +5609,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E83" s="3">
         <v>89000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>65000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>49000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>48000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>50000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>47000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>46000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>45000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>47000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>49000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>47000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>50000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>45000</v>
       </c>
       <c r="R83" s="3">
         <v>45000</v>
       </c>
       <c r="S83" s="3">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="T83" s="3">
         <v>39000</v>
       </c>
       <c r="U83" s="3">
+        <v>39000</v>
+      </c>
+      <c r="V83" s="3">
         <v>41000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>38000</v>
       </c>
       <c r="W83" s="3">
         <v>38000</v>
       </c>
       <c r="X83" s="3">
+        <v>38000</v>
+      </c>
+      <c r="Y83" s="3">
         <v>37500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5554,8 +5755,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5625,8 +5829,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5696,8 +5903,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5767,8 +5977,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5838,79 +6051,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E89" s="3">
         <v>282000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-272000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>253000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>282000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>406000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>153000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>240000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>281000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>443000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>267000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>143000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>198000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>300000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>292000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>295000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>255000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>294000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>235000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>178000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>168000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>262000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5936,79 +6155,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-70000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-52000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-44000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-42000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-62000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-48000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-39000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-40000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-57000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-49000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-47000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-56000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-65000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-64000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-77000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-90000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-76000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-82000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-69000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-83000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-163500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-136600</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6078,8 +6301,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6149,79 +6375,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-74000</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2448000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1376000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-34000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-65000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-320000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-135000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-104000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-218000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>79000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>988000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-348000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-940000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-537000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>12000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-315000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-97000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>35000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>163000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-173500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-341000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6247,8 +6479,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6318,8 +6551,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6389,8 +6625,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6460,8 +6699,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6531,115 +6773,121 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-129000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-394000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-496000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>968000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-331000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-101000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-143000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-191000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-115000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-173000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-549000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-60000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-154000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>651000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>30000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>67000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-109000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>24000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-86000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-163500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -6647,101 +6895,107 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="S101" s="3">
-        <v>1000</v>
       </c>
       <c r="T101" s="3">
         <v>1000</v>
       </c>
       <c r="U101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V101" s="3">
         <v>2000</v>
-      </c>
-      <c r="V101" s="3">
-        <v>1000</v>
       </c>
       <c r="W101" s="3">
         <v>1000</v>
       </c>
       <c r="X101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E102" s="3">
         <v>152000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3116000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-237000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2623000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>49000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-221000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-51000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>227000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-128000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-327000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1126000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-202000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-216000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>335000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-129000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>135000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>238000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>246000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-60000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-157000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>ILMN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,328 +665,340 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E7" s="2">
         <v>44654</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44563</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44472</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44381</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44290</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44199</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44101</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44010</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43919</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43828</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43737</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43464</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43282</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43191</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43009</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42918</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42827</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42736</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1162000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1223000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1199000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1108000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1126000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1093000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>953000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>794000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>633000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>859000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>952000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>907000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>838000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>846000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>867000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>853000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>830000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>782000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>777000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>714000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>662000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>598000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>619300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>607100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>395000</v>
+      </c>
+      <c r="E9" s="3">
         <v>408000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>382000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>338000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>324000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>329000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>323000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>268000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>205000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>240000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>290000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>259000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>265000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>262000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>277000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>256000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>255000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>244000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>235000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>232000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>228000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>212000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>199900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>181000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>767000</v>
+      </c>
+      <c r="E10" s="3">
         <v>815000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>817000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>770000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>802000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>764000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>630000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>526000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>428000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>619000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>662000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>648000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>573000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>584000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>590000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>597000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>575000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>538000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>542000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>482000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>434000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>386000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>419400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1013,82 +1025,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>327000</v>
+      </c>
+      <c r="E12" s="3">
         <v>323000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>350000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>436000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>202000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>197000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>199000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>172000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>155000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>156000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>161000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>151000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>166000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>169000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>176000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>159000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>151000</v>
-      </c>
-      <c r="T12" s="3">
-        <v>137000</v>
       </c>
       <c r="U12" s="3">
         <v>137000</v>
       </c>
       <c r="V12" s="3">
+        <v>137000</v>
+      </c>
+      <c r="W12" s="3">
         <v>134000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>130000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>140000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>129900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>125900</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1161,13 +1177,16 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>609000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1193,23 +1212,23 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>-39000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1217,26 +1236,29 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-8000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>31000</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>400</v>
       </c>
       <c r="Z14" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1309,8 +1331,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1334,156 +1359,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1741000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1039000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1158000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1653000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>939000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>820000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>632000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>537000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>670000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>684000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>599000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>594000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>627000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>670000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>612000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>603000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>564000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>547000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>533000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>519000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>546000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>476300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>446400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-579000</v>
+      </c>
+      <c r="E18" s="3">
         <v>184000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>41000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-545000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>187000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>193000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>133000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>162000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>96000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>189000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>268000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>308000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>244000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>219000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>197000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>241000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>227000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>218000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>230000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>181000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>143000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>52000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>143000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1510,156 +1542,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-38000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>58000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>979000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>36000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>182000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>64000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>80000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>12000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-27000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>117000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>29000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>32000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>16000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>4000</v>
       </c>
       <c r="V20" s="3">
         <v>4000</v>
       </c>
       <c r="W20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="X20" s="3">
         <v>6000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>459000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-537000</v>
+      </c>
+      <c r="E21" s="3">
         <v>237000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>188000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>499000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>272000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>236000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>365000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>273000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>222000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>233000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>325000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>328000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>410000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>295000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>279000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>292000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>288000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>271000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>273000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>226000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>187000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>549000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>180500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>198600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1667,22 +1706,22 @@
         <v>6000</v>
       </c>
       <c r="E22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F22" s="3">
         <v>13000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>14000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>19000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>11000</v>
       </c>
       <c r="K22" s="3">
         <v>11000</v>
@@ -1697,19 +1736,19 @@
         <v>11000</v>
       </c>
       <c r="O22" s="3">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P22" s="3">
         <v>15000</v>
       </c>
       <c r="Q22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="R22" s="3">
         <v>20000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>11000</v>
       </c>
       <c r="T22" s="3">
         <v>11000</v>
@@ -1718,170 +1757,179 @@
         <v>11000</v>
       </c>
       <c r="V22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="W22" s="3">
         <v>10000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>8000</v>
       </c>
       <c r="X22" s="3">
         <v>8000</v>
       </c>
       <c r="Y22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>8300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-637000</v>
+      </c>
+      <c r="E23" s="3">
         <v>140000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>86000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>420000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>207000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>169000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>299000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>215000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>165000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>178000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>269000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>270000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>346000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>233000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>209000</v>
-      </c>
-      <c r="R23" s="3">
-        <v>232000</v>
       </c>
       <c r="S23" s="3">
         <v>232000</v>
       </c>
       <c r="T23" s="3">
+        <v>232000</v>
+      </c>
+      <c r="U23" s="3">
         <v>221000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>223000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>175000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>141000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>503000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>134200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="E24" s="3">
         <v>54000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-26000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>103000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>22000</v>
       </c>
       <c r="H24" s="3">
         <v>22000</v>
       </c>
       <c r="I24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="J24" s="3">
         <v>42000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>36000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>118000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>53000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>33000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>32000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>24000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>16000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>23000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>21000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>155000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>26700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1954,156 +2002,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-535000</v>
+      </c>
+      <c r="E26" s="3">
         <v>86000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>112000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>317000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>185000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>147000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>257000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>179000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>47000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>173000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>239000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>234000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>293000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>224000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>197000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>199000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>200000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>197000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>207000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>152000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>120000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>348000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>107500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>116900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-535000</v>
+      </c>
+      <c r="E27" s="3">
         <v>86000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>112000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>317000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>185000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>147000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>257000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>179000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>47000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>173000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>239000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>234000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>296000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>233000</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>210000</v>
       </c>
       <c r="R27" s="3">
         <v>210000</v>
       </c>
       <c r="S27" s="3">
+        <v>210000</v>
+      </c>
+      <c r="T27" s="3">
         <v>209000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>208000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>218000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>163000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>128000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>367000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>123800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2176,8 +2233,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2205,8 +2265,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -2220,23 +2280,23 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-11000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="3">
         <v>-150000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
@@ -2250,8 +2310,11 @@
       <c r="Z29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2324,8 +2387,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2398,156 +2464,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E32" s="3">
         <v>38000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-58000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-979000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-36000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-182000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-64000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-80000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-12000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>27000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-117000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-32000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-16000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-4000</v>
       </c>
       <c r="V32" s="3">
         <v>-4000</v>
       </c>
       <c r="W32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="X32" s="3">
         <v>-6000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-459000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-535000</v>
+      </c>
+      <c r="E33" s="3">
         <v>86000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>112000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>317000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>185000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>147000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>257000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>179000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>47000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>173000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>239000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>234000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>296000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>233000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>210000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>199000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>209000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>208000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>68000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>163000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>128000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>367000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>123800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2620,161 +2695,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-535000</v>
+      </c>
+      <c r="E35" s="3">
         <v>86000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>112000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>317000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>185000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>147000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>257000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>179000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>47000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>173000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>239000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>234000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>296000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>233000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>210000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>199000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>209000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>208000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>68000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>163000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>128000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>367000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>123800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E38" s="2">
         <v>44654</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44563</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44472</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44381</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44290</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44199</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44101</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44010</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43919</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43828</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43737</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43464</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43282</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43191</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43009</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42918</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42827</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42736</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2801,8 +2885,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2829,475 +2914,494 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1289000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1351000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1232000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1080000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4196000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4433000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1810000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1761000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1770000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1991000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2042000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1815000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1943000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2270000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1144000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1346000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1344000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1560000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1225000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1354000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1219000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>981000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>734500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>794700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E42" s="3">
         <v>65000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>107000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>185000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>90000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>197000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1662000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1563000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1498000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1341000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1372000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1351000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1230000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1345000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2368000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2043000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1168000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>813000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>920000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>687000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>674000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>797000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>824200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>741600</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>614000</v>
+        <v>660000</v>
       </c>
       <c r="E43" s="3">
+        <v>630000</v>
+      </c>
+      <c r="F43" s="3">
         <v>648000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>604000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>540000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>517000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>487000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>464000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>385000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>472000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>573000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>541000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>470000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>457000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>514000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>433000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>395000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>411000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>383000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>372000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>368000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>381300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>518000</v>
+      </c>
+      <c r="E44" s="3">
         <v>465000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>431000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>401000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>380000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>364000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>372000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>415000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>435000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>384000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>359000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>417000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>420000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>412000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>386000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>374000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>362000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>350000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>333000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>327000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>309000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>299000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>300200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>260000</v>
+        <v>386000</v>
       </c>
       <c r="E45" s="3">
+        <v>244000</v>
+      </c>
+      <c r="F45" s="3">
         <v>295000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>181000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>104000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>131000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>152000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>126000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>106000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>136000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>105000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>98000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>93000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>61000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>78000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>66000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>68000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>71000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>91000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>54000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>69000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>72000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>77900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2891000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2755000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2713000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2451000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5310000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5642000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4483000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4329000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4194000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4324000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4451000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4222000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4156000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4545000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4490000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4262000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3337000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3194000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2980000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2805000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2643000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2517000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2318100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2277800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>229000</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>224000</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3347,156 +3451,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1748000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1740000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1696000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1685000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1481000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1444000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1454000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1455000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1439000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1449000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1444000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1430000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1412000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1426000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1075000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1060000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1036000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>983000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>931000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>862000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>837000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>734000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>713300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>633900</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10360000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10322000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10363000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10449000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1128000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1031000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1039000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1046000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1050000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>962000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>969000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>976000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>986000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1006000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1016000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1026000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1036000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>943000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>946000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>956000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>967000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>978000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1018600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1031600</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3569,8 +3682,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3643,82 +3759,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>457000</v>
+        <v>220000</v>
       </c>
       <c r="E52" s="3">
+        <v>233000</v>
+      </c>
+      <c r="F52" s="3">
         <v>445000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>478000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>756000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>638000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>609000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>574000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>565000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>526000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>452000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>461000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>419000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>413000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>378000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>411000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>442000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>422000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>400000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>423000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>411000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>369000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>230500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3791,82 +3913,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15448000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15274000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15217000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15063000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8675000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8755000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7585000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7404000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7248000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7261000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7316000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7089000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6973000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7390000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6959000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6759000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5851000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5542000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5257000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5046000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4858000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4598000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4280600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4227800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3893,8 +4021,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3921,91 +4050,95 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>282000</v>
+      </c>
+      <c r="E57" s="3">
         <v>291000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>332000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>248000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>178000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>192000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>156000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>135000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>130000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>149000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>143000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>139000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>137000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>184000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>156000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>149000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>151000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>160000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>158000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>175000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>142000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>137900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>134100</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1245000</v>
+      </c>
+      <c r="E58" s="3">
         <v>499000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -4013,23 +4146,23 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>488000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>511000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>507000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>503000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>499000</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -4037,336 +4170,351 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>631000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1107000</v>
       </c>
       <c r="R58" s="3">
         <v>1107000</v>
       </c>
       <c r="S58" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="T58" s="3">
         <v>625000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>620000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>10000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>1300</v>
       </c>
       <c r="Z58" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1354000</v>
+      </c>
+      <c r="E59" s="3">
         <v>700000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>761000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>666000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>674000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>602000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>541000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>452000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>477000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>425000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>516000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>476000</v>
-      </c>
-      <c r="O59" s="3">
-        <v>473000</v>
       </c>
       <c r="P59" s="3">
         <v>473000</v>
       </c>
       <c r="Q59" s="3">
+        <v>473000</v>
+      </c>
+      <c r="R59" s="3">
         <v>513000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>472000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>443000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>409000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>576000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>505000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>502000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>578000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>565500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2881000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1490000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1093000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>914000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>874000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1268000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1244000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1115000</v>
       </c>
       <c r="K60" s="3">
         <v>1115000</v>
       </c>
       <c r="L60" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="M60" s="3">
         <v>1054000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>665000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>619000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>612000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1241000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1804000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1735000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1217000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1180000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>746000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>665000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>682000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>721000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>704700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>628900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1241000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1695000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1687000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1679000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1672000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>673000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>666000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>659000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>652000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1141000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1131000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1120000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1112000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>890000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>860000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>723000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>710000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1182000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1180000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1169000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1055000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1047800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1040800</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1628000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1648000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1689000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1869000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>942000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>893000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>974000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>923000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>911000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>920000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>897000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>900000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>909000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>930000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>359000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>352000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>343000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>364000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>360000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>222000</v>
-      </c>
-      <c r="W62" s="3">
-        <v>212000</v>
       </c>
       <c r="X62" s="3">
         <v>212000</v>
       </c>
       <c r="Y62" s="3">
+        <v>212000</v>
+      </c>
+      <c r="Z62" s="3">
         <v>214000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>204300</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4439,8 +4587,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4513,8 +4664,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4587,82 +4741,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5004000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4379000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4477000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4470000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3495000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3833000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2891000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2704000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2685000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2626000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2703000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2650000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2641000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3405000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3201000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3256000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2594000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2534000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2508000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2191000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2143000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2047000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2083400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1987700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4689,8 +4849,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4763,8 +4924,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4837,8 +5001,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4911,8 +5078,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4985,82 +5155,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5097000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5632000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5485000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5372000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5055000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4870000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4723000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4466000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4287000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4240000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4067000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3828000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3594000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3298000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3083000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2872000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2673000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2464000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2256000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2188000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2025000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1897000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1485400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1361700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5133,8 +5309,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5207,8 +5386,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5281,82 +5463,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10444000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10895000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10740000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10593000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5180000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4922000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4694000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4700000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4563000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4635000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4613000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4439000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4332000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3985000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3758000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3503000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3257000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3008000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2749000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2855000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2715000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2551000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2197200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2240100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5429,161 +5617,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E80" s="2">
         <v>44654</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44563</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44472</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44381</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44290</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44199</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44101</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44010</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43919</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43828</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43737</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43464</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43282</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43191</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43009</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42918</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42827</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42736</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-535000</v>
+      </c>
+      <c r="E81" s="3">
         <v>86000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>112000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>317000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>185000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>147000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>257000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>179000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>47000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>173000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>239000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>234000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>296000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>233000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>210000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>199000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>209000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>208000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>68000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>163000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>128000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>367000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>123800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5610,82 +5807,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E83" s="3">
         <v>91000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>89000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>65000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>49000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>48000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>50000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>47000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>46000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>44000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>45000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>47000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>49000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>47000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>50000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>45000</v>
       </c>
       <c r="S83" s="3">
         <v>45000</v>
       </c>
       <c r="T83" s="3">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="U83" s="3">
         <v>39000</v>
       </c>
       <c r="V83" s="3">
+        <v>39000</v>
+      </c>
+      <c r="W83" s="3">
         <v>41000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>38000</v>
       </c>
       <c r="X83" s="3">
         <v>38000</v>
       </c>
       <c r="Y83" s="3">
+        <v>38000</v>
+      </c>
+      <c r="Z83" s="3">
         <v>37500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5758,8 +5959,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5832,8 +6036,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5906,8 +6113,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5980,8 +6190,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6054,82 +6267,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E89" s="3">
         <v>172000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>282000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-272000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>253000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>282000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>406000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>153000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>240000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>281000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>443000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>267000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>143000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>198000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>300000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>292000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>295000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>255000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>294000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>235000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>178000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>168000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>262000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6156,82 +6375,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-61000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-70000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-52000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-44000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-42000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-62000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-48000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-39000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-40000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-57000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-49000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-47000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-65000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-64000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-77000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-90000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-76000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-82000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-69000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-83000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-163500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-136600</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6304,8 +6527,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6378,82 +6604,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-165000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-74000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2448000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1376000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-65000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-320000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-135000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-104000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-218000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>79000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>988000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-348000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-940000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-537000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>12000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-315000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-97000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>35000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>163000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-173500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-341000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6480,8 +6712,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6554,8 +6787,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6628,8 +6864,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6702,8 +6941,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6776,121 +7018,127 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E100" s="3">
         <v>21000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-129000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-394000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-496000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>968000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-331000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-101000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-143000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-191000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-115000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-173000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-549000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-154000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>651000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>30000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>67000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-109000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>24000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-86000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-163500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-17000</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -6898,104 +7146,110 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="T101" s="3">
-        <v>1000</v>
       </c>
       <c r="U101" s="3">
         <v>1000</v>
       </c>
       <c r="V101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W101" s="3">
         <v>2000</v>
-      </c>
-      <c r="W101" s="3">
-        <v>1000</v>
       </c>
       <c r="X101" s="3">
         <v>1000</v>
       </c>
       <c r="Y101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E102" s="3">
         <v>119000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>152000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3116000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-237000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2623000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>49000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-221000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-51000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>227000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-128000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-327000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1126000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-202000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-216000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>335000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-129000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>135000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>238000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>246000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-60000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-157000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,340 +665,352 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E7" s="2">
         <v>44745</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44654</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44563</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44472</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44381</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44290</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44199</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44101</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44010</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43919</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43828</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43737</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43464</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43282</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43191</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43009</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42918</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42827</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42736</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1162000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1223000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1199000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1108000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1126000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1093000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>953000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>794000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>633000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>859000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>952000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>907000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>838000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>846000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>867000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>853000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>830000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>782000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>777000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>714000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>662000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>598000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>619300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>607100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E9" s="3">
         <v>395000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>408000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>382000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>338000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>324000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>329000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>323000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>268000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>205000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>240000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>290000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>259000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>265000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>262000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>277000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>256000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>255000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>244000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>235000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>232000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>228000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>212000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>199900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>181000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>717000</v>
+      </c>
+      <c r="E10" s="3">
         <v>767000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>815000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>817000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>770000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>802000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>764000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>630000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>526000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>428000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>619000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>662000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>648000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>573000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>584000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>590000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>597000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>575000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>538000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>542000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>482000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>434000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>386000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>419400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1026,85 +1038,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>325000</v>
+      </c>
+      <c r="E12" s="3">
         <v>327000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>323000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>350000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>436000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>202000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>197000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>199000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>172000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>155000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>156000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>161000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>151000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>166000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>169000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>176000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>159000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>151000</v>
-      </c>
-      <c r="U12" s="3">
-        <v>137000</v>
       </c>
       <c r="V12" s="3">
         <v>137000</v>
       </c>
       <c r="W12" s="3">
+        <v>137000</v>
+      </c>
+      <c r="X12" s="3">
         <v>134000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>130000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>140000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>129900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>125900</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1180,16 +1196,19 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3903000</v>
+      </c>
+      <c r="E14" s="3">
         <v>609000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1215,23 +1234,23 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-15000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1239,26 +1258,29 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>31000</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>400</v>
       </c>
       <c r="AA14" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1334,8 +1356,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1360,162 +1385,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4772000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1741000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1039000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1158000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1653000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>939000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>820000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>632000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>537000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>670000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>684000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>599000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>594000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>627000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>670000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>612000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>603000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>564000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>547000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>533000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>519000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>546000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>476300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>446400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3657000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-579000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>184000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>41000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-545000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>187000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>193000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>133000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>162000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>96000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>189000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>268000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>308000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>244000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>219000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>197000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>241000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>227000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>218000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>230000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>181000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>143000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>52000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>143000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1543,162 +1575,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-52000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-38000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>58000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>979000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>36000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>182000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>64000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>80000</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>12000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-27000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>117000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>29000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>32000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>16000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14000</v>
-      </c>
-      <c r="V20" s="3">
-        <v>4000</v>
       </c>
       <c r="W20" s="3">
         <v>4000</v>
       </c>
       <c r="X20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Y20" s="3">
         <v>6000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>459000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3563000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-537000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>237000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>188000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>499000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>272000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>236000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>365000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>273000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>222000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>233000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>325000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>328000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>410000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>295000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>279000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>292000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>288000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>271000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>273000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>226000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>187000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>549000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>180500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>198600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1709,22 +1748,22 @@
         <v>6000</v>
       </c>
       <c r="F22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G22" s="3">
         <v>13000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>14000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>19000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>11000</v>
       </c>
       <c r="L22" s="3">
         <v>11000</v>
@@ -1739,19 +1778,19 @@
         <v>11000</v>
       </c>
       <c r="P22" s="3">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q22" s="3">
         <v>15000</v>
       </c>
       <c r="R22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="S22" s="3">
         <v>20000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>15000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>11000</v>
       </c>
       <c r="U22" s="3">
         <v>11000</v>
@@ -1760,176 +1799,185 @@
         <v>11000</v>
       </c>
       <c r="W22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="X22" s="3">
         <v>10000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>8000</v>
       </c>
       <c r="Y22" s="3">
         <v>8000</v>
       </c>
       <c r="Z22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>8300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3672000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-637000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>140000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>86000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>420000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>207000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>169000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>299000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>215000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>165000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>178000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>269000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>270000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>346000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>233000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>209000</v>
-      </c>
-      <c r="S23" s="3">
-        <v>232000</v>
       </c>
       <c r="T23" s="3">
         <v>232000</v>
       </c>
       <c r="U23" s="3">
+        <v>232000</v>
+      </c>
+      <c r="V23" s="3">
         <v>221000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>223000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>175000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>141000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>503000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>134200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-102000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>54000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-26000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>103000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>22000</v>
       </c>
       <c r="I24" s="3">
         <v>22000</v>
       </c>
       <c r="J24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K24" s="3">
         <v>42000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>118000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>53000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>33000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>32000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>24000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>16000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>23000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>21000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>155000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>26700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2005,162 +2053,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3816000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-535000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>86000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>112000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>317000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>185000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>147000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>257000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>179000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>47000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>173000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>239000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>234000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>293000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>224000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>197000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>199000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>200000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>197000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>207000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>152000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>120000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>348000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>107500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>116900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3816000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-535000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>86000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>112000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>317000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>185000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>147000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>257000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>179000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>47000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>173000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>239000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>234000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>296000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>233000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>210000</v>
       </c>
       <c r="S27" s="3">
         <v>210000</v>
       </c>
       <c r="T27" s="3">
+        <v>210000</v>
+      </c>
+      <c r="U27" s="3">
         <v>209000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>208000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>218000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>163000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>128000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>367000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>123800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2236,8 +2293,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2268,8 +2328,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -2283,23 +2343,23 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-11000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="3">
         <v>-150000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>10</v>
@@ -2313,8 +2373,11 @@
       <c r="AA29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2390,8 +2453,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2467,162 +2533,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E32" s="3">
         <v>52000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>38000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-58000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-979000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-36000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-182000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-64000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-80000</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-12000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>27000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-117000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-29000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-32000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-16000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-4000</v>
       </c>
       <c r="W32" s="3">
         <v>-4000</v>
       </c>
       <c r="X32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-459000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3816000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-535000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>86000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>112000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>317000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>185000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>147000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>257000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>179000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>47000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>173000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>239000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>234000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>296000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>233000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>210000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>199000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>209000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>208000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>68000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>163000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>128000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>367000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>123800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2698,167 +2773,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3816000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-535000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>86000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>112000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>317000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>185000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>147000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>257000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>179000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>47000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>173000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>239000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>234000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>296000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>233000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>210000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>199000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>209000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>208000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>68000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>163000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>128000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>367000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>123800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E38" s="2">
         <v>44745</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44654</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44563</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44472</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44381</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44290</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44199</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44101</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44010</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43919</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43828</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43737</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43464</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43282</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43191</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43009</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42918</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42827</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42736</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2886,8 +2970,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2915,481 +3000,500 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1289000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1351000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1232000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1080000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4196000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4433000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1810000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1761000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1770000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1991000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2042000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1815000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1943000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2270000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1144000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1346000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1344000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1560000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1225000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1354000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1219000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>981000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>734500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>794700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E42" s="3">
         <v>38000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>65000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>107000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>185000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>90000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>197000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1662000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1563000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1498000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1341000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1372000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1351000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1230000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1345000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2368000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2043000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1168000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>813000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>920000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>687000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>674000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>797000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>824200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>741600</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>645000</v>
+      </c>
+      <c r="E43" s="3">
         <v>660000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>630000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>648000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>604000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>540000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>517000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>487000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>464000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>385000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>472000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>573000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>541000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>470000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>457000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>514000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>433000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>395000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>400000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>411000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>383000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>372000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>368000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>381300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E44" s="3">
         <v>518000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>465000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>431000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>401000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>380000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>364000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>372000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>415000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>435000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>384000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>359000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>417000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>420000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>412000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>386000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>374000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>362000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>350000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>333000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>327000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>309000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>299000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>300200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E45" s="3">
         <v>386000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>244000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>295000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>181000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>104000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>131000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>152000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>126000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>106000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>136000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>105000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>98000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>93000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>61000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>78000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>66000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>68000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>71000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>91000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>54000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>69000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>72000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>77900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2487000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2891000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2755000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2713000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2451000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5310000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5642000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4483000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4329000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4194000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4324000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4451000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4222000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4156000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4545000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4490000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4262000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3337000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3194000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2980000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2805000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2643000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2517000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2318100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2277800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E47" s="3">
         <v>229000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>224000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>10</v>
@@ -3403,8 +3507,8 @@
       <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3454,8 +3558,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3463,153 +3570,159 @@
         <v>1748000</v>
       </c>
       <c r="E48" s="3">
+        <v>1748000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1740000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1696000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1685000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1481000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1444000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1454000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1455000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1439000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1449000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1444000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1430000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1412000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1426000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1075000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1060000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1036000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>983000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>931000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>862000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>837000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>734000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>713300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>633900</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6573000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10360000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10322000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10363000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10449000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1128000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1031000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1039000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1046000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1050000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>962000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>969000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>976000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>986000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1006000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1016000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1026000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1036000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>943000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>946000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>956000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>967000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>978000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1018600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1031600</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3685,8 +3798,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3762,85 +3878,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E52" s="3">
         <v>220000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>233000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>445000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>478000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>756000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>638000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>609000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>574000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>565000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>526000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>452000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>461000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>419000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>413000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>378000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>411000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>442000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>422000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>400000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>423000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>411000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>369000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>230500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3916,85 +4038,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11256000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15448000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15274000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15217000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15063000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8675000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8755000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7585000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7404000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7248000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7261000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7316000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7089000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6973000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7390000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6959000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6759000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5851000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5542000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5257000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5046000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4858000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4598000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4280600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4227800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4022,8 +4150,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4051,97 +4180,101 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E57" s="3">
         <v>282000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>291000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>332000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>248000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>178000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>192000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>156000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>135000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>130000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>149000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>143000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>139000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>137000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>184000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>156000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>149000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>151000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>160000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>158000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>175000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>142000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>137900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>134100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1246000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1245000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>499000</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -4149,23 +4282,23 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>488000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>511000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>507000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>503000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>499000</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
@@ -4173,194 +4306,203 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>631000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1107000</v>
       </c>
       <c r="S58" s="3">
         <v>1107000</v>
       </c>
       <c r="T58" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="U58" s="3">
         <v>625000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>620000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>1300</v>
       </c>
       <c r="AA58" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1142000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1354000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>761000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>666000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>674000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>602000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>541000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>452000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>477000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>425000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>516000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>476000</v>
-      </c>
-      <c r="P59" s="3">
-        <v>473000</v>
       </c>
       <c r="Q59" s="3">
         <v>473000</v>
       </c>
       <c r="R59" s="3">
+        <v>473000</v>
+      </c>
+      <c r="S59" s="3">
         <v>513000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>472000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>443000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>409000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>576000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>505000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>502000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>578000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>565500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2669000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2881000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1490000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1093000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>914000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>874000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1268000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1244000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1115000</v>
       </c>
       <c r="L60" s="3">
         <v>1115000</v>
       </c>
       <c r="M60" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="N60" s="3">
         <v>1054000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>665000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>619000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>612000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1241000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1804000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1735000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1217000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1180000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>746000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>665000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>682000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>721000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>704700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>628900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4368,153 +4510,159 @@
         <v>495000</v>
       </c>
       <c r="E61" s="3">
+        <v>495000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1241000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1695000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1687000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1679000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1672000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>673000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>666000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>659000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>652000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1141000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1131000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1120000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1112000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>890000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>860000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>723000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>710000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1182000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1180000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1169000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1055000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1047800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1040800</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1361000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1628000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1648000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1689000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1869000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>942000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>893000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>974000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>923000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>911000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>920000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>897000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>900000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>909000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>930000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>359000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>352000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>343000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>364000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>360000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>222000</v>
-      </c>
-      <c r="X62" s="3">
-        <v>212000</v>
       </c>
       <c r="Y62" s="3">
         <v>212000</v>
       </c>
       <c r="Z62" s="3">
+        <v>212000</v>
+      </c>
+      <c r="AA62" s="3">
         <v>214000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>204300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4590,8 +4738,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4667,8 +4818,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4744,85 +4898,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4525000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5004000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4379000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4477000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4470000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3495000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3833000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2891000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2704000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2685000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2626000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2703000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2650000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2641000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3405000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3201000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3256000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2594000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2534000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2508000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2191000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2143000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2047000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2083400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1987700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4850,8 +5010,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4927,8 +5088,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5004,8 +5168,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5081,8 +5248,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5158,85 +5328,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1281000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5097000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5632000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5485000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5372000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5055000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4870000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4723000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4466000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4287000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4240000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4067000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3828000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3594000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3298000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3083000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2872000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2673000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2464000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2256000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2188000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2025000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1897000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1485400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1361700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5312,8 +5488,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5389,8 +5568,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5466,85 +5648,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6731000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10444000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10895000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10740000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10593000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5180000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4922000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4694000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4700000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4563000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4635000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4613000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4439000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4332000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3985000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3758000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3503000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3257000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3008000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2749000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2855000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2715000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2551000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2197200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2240100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5620,167 +5808,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E80" s="2">
         <v>44745</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44654</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44563</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44472</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44381</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44290</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44199</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44101</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44010</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43919</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43828</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43737</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43464</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43282</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43191</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43009</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42918</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42827</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42736</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3816000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-535000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>86000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>112000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>317000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>185000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>147000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>257000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>179000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>47000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>173000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>239000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>234000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>296000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>233000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>210000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>199000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>209000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>208000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>68000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>163000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>128000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>367000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>123800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5808,85 +6005,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E83" s="3">
         <v>94000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>91000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>89000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>65000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>49000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>48000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>50000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>47000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>46000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>44000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>45000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>47000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>49000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>47000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>50000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>45000</v>
       </c>
       <c r="T83" s="3">
         <v>45000</v>
       </c>
       <c r="U83" s="3">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="V83" s="3">
         <v>39000</v>
       </c>
       <c r="W83" s="3">
+        <v>39000</v>
+      </c>
+      <c r="X83" s="3">
         <v>41000</v>
-      </c>
-      <c r="X83" s="3">
-        <v>38000</v>
       </c>
       <c r="Y83" s="3">
         <v>38000</v>
       </c>
       <c r="Z83" s="3">
+        <v>38000</v>
+      </c>
+      <c r="AA83" s="3">
         <v>37500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5962,8 +6163,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6039,8 +6243,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6116,8 +6323,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6193,8 +6403,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6270,85 +6483,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E89" s="3">
         <v>125000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>172000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>282000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-272000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>253000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>282000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>406000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>153000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>240000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>281000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>443000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>267000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>143000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>198000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>300000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>292000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>295000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>255000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>294000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>235000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>178000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>168000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>262000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6376,85 +6595,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-71000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-61000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-70000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-52000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-44000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-42000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-62000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-48000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-39000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-40000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-57000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-49000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-47000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-56000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-65000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-64000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-77000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-90000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-76000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-82000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-69000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-83000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-163500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-136600</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6530,8 +6753,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6607,85 +6833,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-250000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-165000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-74000</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-2448000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1376000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-65000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-320000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-135000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-104000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-218000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>79000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>988000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-348000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-940000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-537000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>12000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-315000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-97000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>35000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>163000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-173500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-341000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6713,8 +6945,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6790,8 +7023,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6867,8 +7103,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6944,8 +7183,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7021,127 +7263,133 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>21000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-129000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-394000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-496000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>968000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-331000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-101000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-143000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-191000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-115000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-173000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-549000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-60000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-154000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>651000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>30000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>67000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-109000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>24000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-86000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-163500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-17000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -7149,107 +7397,113 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="U101" s="3">
-        <v>1000</v>
       </c>
       <c r="V101" s="3">
         <v>1000</v>
       </c>
       <c r="W101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X101" s="3">
         <v>2000</v>
-      </c>
-      <c r="X101" s="3">
-        <v>1000</v>
       </c>
       <c r="Y101" s="3">
         <v>1000</v>
       </c>
       <c r="Z101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-289000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-62000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>119000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>152000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3116000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-237000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2623000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>49000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-221000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-51000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>227000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-128000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-327000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1126000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-202000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-216000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>335000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-129000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>135000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>238000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>246000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-60000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-157000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,352 +665,364 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E7" s="2">
         <v>44836</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44745</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44654</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44563</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44472</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44381</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44290</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44199</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44101</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44010</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43919</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43828</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43737</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43464</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43282</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43191</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43009</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42918</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42827</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42736</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1083000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1115000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1162000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1223000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1199000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1108000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1126000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1093000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>953000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>794000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>633000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>859000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>952000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>907000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>838000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>846000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>867000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>853000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>830000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>782000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>777000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>714000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>662000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>598000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>619300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>607100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E9" s="3">
         <v>398000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>395000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>408000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>382000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>338000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>324000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>329000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>323000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>268000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>205000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>240000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>290000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>259000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>265000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>262000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>277000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>256000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>255000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>244000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>235000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>232000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>228000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>212000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>199900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>181000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>672000</v>
+      </c>
+      <c r="E10" s="3">
         <v>717000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>767000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>815000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>817000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>770000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>802000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>764000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>630000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>526000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>428000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>619000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>662000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>648000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>573000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>584000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>590000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>597000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>575000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>538000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>542000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>482000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>434000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>386000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>419400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1039,88 +1051,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E12" s="3">
         <v>325000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>327000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>323000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>350000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>436000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>202000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>197000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>199000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>172000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>155000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>156000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>161000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>151000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>166000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>169000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>176000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>159000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>151000</v>
-      </c>
-      <c r="V12" s="3">
-        <v>137000</v>
       </c>
       <c r="W12" s="3">
         <v>137000</v>
       </c>
       <c r="X12" s="3">
+        <v>137000</v>
+      </c>
+      <c r="Y12" s="3">
         <v>134000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>130000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>140000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>129900</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>125900</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1199,19 +1215,22 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3903000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>609000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1237,23 +1256,23 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
         <v>-39000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-15000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1261,26 +1280,29 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>31000</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>400</v>
       </c>
       <c r="AB14" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1359,8 +1381,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1386,168 +1411,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1210000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4772000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1741000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1039000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1158000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1653000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>939000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>820000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>632000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>537000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>670000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>684000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>599000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>594000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>627000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>670000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>612000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>603000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>564000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>547000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>533000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>519000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>546000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>476300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>446400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3657000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-579000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>184000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>41000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-545000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>187000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>193000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>133000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>162000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>96000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>189000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>268000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>308000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>244000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>219000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>197000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>241000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>227000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>218000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>230000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>181000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>143000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>52000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>143000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1576,173 +1608,180 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-52000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-38000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>58000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>979000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>36000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>182000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>64000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>80000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>12000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>117000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>29000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>32000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>16000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>14000</v>
-      </c>
-      <c r="W20" s="3">
-        <v>4000</v>
       </c>
       <c r="X20" s="3">
         <v>4000</v>
       </c>
       <c r="Y20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Z20" s="3">
         <v>6000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>459000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3563000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-537000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>237000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>188000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>499000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>272000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>236000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>365000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>273000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>222000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>233000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>325000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>328000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>410000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>295000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>279000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>292000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>288000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>271000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>273000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>226000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>187000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>549000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>180500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>198600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="E22" s="3">
         <v>6000</v>
@@ -1751,22 +1790,22 @@
         <v>6000</v>
       </c>
       <c r="G22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H22" s="3">
         <v>13000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>11000</v>
       </c>
       <c r="M22" s="3">
         <v>11000</v>
@@ -1781,19 +1820,19 @@
         <v>11000</v>
       </c>
       <c r="Q22" s="3">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="R22" s="3">
         <v>15000</v>
       </c>
       <c r="S22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="T22" s="3">
         <v>20000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>15000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>11000</v>
       </c>
       <c r="V22" s="3">
         <v>11000</v>
@@ -1802,182 +1841,191 @@
         <v>11000</v>
       </c>
       <c r="X22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>10000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>8000</v>
       </c>
       <c r="Z22" s="3">
         <v>8000</v>
       </c>
       <c r="AA22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="AB22" s="3">
         <v>8300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-168000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3672000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-637000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>140000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>86000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>420000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>207000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>169000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>299000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>215000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>165000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>178000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>269000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>270000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>346000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>233000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>209000</v>
-      </c>
-      <c r="T23" s="3">
-        <v>232000</v>
       </c>
       <c r="U23" s="3">
         <v>232000</v>
       </c>
       <c r="V23" s="3">
+        <v>232000</v>
+      </c>
+      <c r="W23" s="3">
         <v>221000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>223000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>175000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>141000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>503000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>134200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E24" s="3">
         <v>144000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-102000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>54000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-26000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>103000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>22000</v>
       </c>
       <c r="J24" s="3">
         <v>22000</v>
       </c>
       <c r="K24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="L24" s="3">
         <v>42000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>118000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>53000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>33000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>32000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>24000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>16000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>23000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>21000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>155000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>26700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2056,168 +2104,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3816000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-535000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>86000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>112000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>317000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>185000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>147000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>257000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>179000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>47000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>173000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>239000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>234000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>293000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>224000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>197000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>199000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>200000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>197000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>207000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>152000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>120000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>348000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>107500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>116900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3816000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-535000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>86000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>112000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>317000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>185000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>147000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>257000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>179000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>47000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>173000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>239000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>234000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>296000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>233000</v>
-      </c>
-      <c r="S27" s="3">
-        <v>210000</v>
       </c>
       <c r="T27" s="3">
         <v>210000</v>
       </c>
       <c r="U27" s="3">
+        <v>210000</v>
+      </c>
+      <c r="V27" s="3">
         <v>209000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>208000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>218000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>163000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>128000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>367000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>123800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2296,8 +2353,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2331,8 +2391,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -2346,23 +2406,23 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-11000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X29" s="3">
         <v>-150000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>10</v>
@@ -2376,8 +2436,11 @@
       <c r="AB29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2456,8 +2519,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2536,168 +2602,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E32" s="3">
         <v>9000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>52000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>38000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-58000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-979000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-36000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-182000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-64000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-80000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-12000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>27000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-117000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-29000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-32000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-16000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-4000</v>
       </c>
       <c r="X32" s="3">
         <v>-4000</v>
       </c>
       <c r="Y32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-459000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3816000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-535000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>86000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>112000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>317000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>185000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>147000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>257000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>179000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>47000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>173000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>239000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>234000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>296000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>233000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>210000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>199000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>209000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>208000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>68000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>163000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>128000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>367000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>123800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2776,173 +2851,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3816000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-535000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>86000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>112000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>317000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>185000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>147000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>257000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>179000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>47000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>173000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>239000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>234000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>296000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>233000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>210000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>199000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>209000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>208000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>68000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>163000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>128000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>367000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>123800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E38" s="2">
         <v>44836</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44745</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44654</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44563</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44472</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44381</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44290</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44199</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44101</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44010</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43919</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43828</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43737</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43464</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43282</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43191</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43009</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42918</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42827</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42736</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2971,8 +3055,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3001,502 +3086,521 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2011000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1289000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1351000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1232000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1080000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4196000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4433000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1810000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1761000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1770000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1991000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2042000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1815000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1943000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2270000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1144000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1346000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1344000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1560000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1225000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1354000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1219000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>981000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>734500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>794700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E42" s="3">
         <v>41000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>38000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>65000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>107000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>185000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>90000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>197000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1662000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1563000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1498000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1341000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1372000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1351000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1230000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1345000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2368000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2043000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1168000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>813000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>920000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>687000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>674000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>797000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>824200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>741600</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>688000</v>
+      </c>
+      <c r="E43" s="3">
         <v>645000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>660000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>630000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>648000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>604000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>540000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>517000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>487000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>464000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>385000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>472000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>573000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>541000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>470000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>457000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>514000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>433000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>395000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>400000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>411000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>383000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>372000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>368000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>381300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>568000</v>
+      </c>
+      <c r="E44" s="3">
         <v>559000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>518000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>465000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>431000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>401000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>380000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>364000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>372000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>415000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>435000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>384000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>359000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>417000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>420000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>412000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>386000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>374000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>362000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>350000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>333000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>327000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>309000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>299000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>300200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E45" s="3">
         <v>242000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>386000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>244000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>295000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>181000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>104000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>131000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>152000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>126000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>106000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>136000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>105000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>98000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>93000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>61000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>78000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>66000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>68000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>71000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>91000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>54000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>69000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>72000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>77900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3561000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2487000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2891000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2755000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2713000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2451000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5310000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5642000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4483000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4329000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4194000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4324000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4451000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4222000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4156000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4545000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4490000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4262000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3337000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3194000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2980000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2805000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2643000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2517000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2318100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2277800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E47" s="3">
         <v>226000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>229000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>224000</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>10</v>
@@ -3510,8 +3614,8 @@
       <c r="K47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3561,168 +3665,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1748000</v>
+        <v>1744000</v>
       </c>
       <c r="E48" s="3">
         <v>1748000</v>
       </c>
       <c r="F48" s="3">
+        <v>1748000</v>
+      </c>
+      <c r="G48" s="3">
         <v>1740000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1696000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1685000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1481000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1444000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1454000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1455000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1439000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1449000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1444000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1430000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1412000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1426000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1075000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1060000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1036000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>983000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>931000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>862000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>837000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>734000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>713300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>633900</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6524000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6573000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10360000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10322000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10363000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10449000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1128000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1031000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1039000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1046000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1050000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>962000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>969000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>976000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>986000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1006000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1016000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1026000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1036000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>943000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>946000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>956000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>967000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>978000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1018600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1031600</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3801,8 +3914,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3881,88 +3997,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E52" s="3">
         <v>222000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>220000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>233000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>445000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>478000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>756000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>638000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>609000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>574000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>565000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>526000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>452000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>461000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>419000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>413000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>378000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>411000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>442000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>422000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>400000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>423000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>411000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>369000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>230500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4041,88 +4163,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12252000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11256000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15448000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15274000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15217000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15063000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8675000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8755000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7585000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7404000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7248000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7261000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7316000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7089000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6973000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7390000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6959000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6759000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5851000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5542000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5257000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5046000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4858000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4598000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4280600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4227800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4151,8 +4279,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4181,103 +4310,107 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>293000</v>
+      </c>
+      <c r="E57" s="3">
         <v>281000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>282000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>291000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>332000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>248000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>178000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>192000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>156000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>135000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>130000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>149000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>143000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>139000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>137000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>184000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>156000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>149000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>151000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>160000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>158000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>175000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>142000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>137900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>134100</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1248000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1246000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1245000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>499000</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -4285,23 +4418,23 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>488000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>511000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>507000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>503000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>499000</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
@@ -4309,360 +4442,375 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>631000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1107000</v>
       </c>
       <c r="T58" s="3">
         <v>1107000</v>
       </c>
       <c r="U58" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="V58" s="3">
         <v>625000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>620000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>10000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>1300</v>
       </c>
       <c r="AB58" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1232000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1142000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1354000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>761000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>666000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>674000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>602000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>541000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>452000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>477000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>425000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>516000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>476000</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>473000</v>
       </c>
       <c r="R59" s="3">
         <v>473000</v>
       </c>
       <c r="S59" s="3">
+        <v>473000</v>
+      </c>
+      <c r="T59" s="3">
         <v>513000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>472000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>443000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>409000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>576000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>505000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>502000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>578000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>565500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2773000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2669000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2881000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1490000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1093000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>914000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>874000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1268000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1244000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1115000</v>
       </c>
       <c r="M60" s="3">
         <v>1115000</v>
       </c>
       <c r="N60" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="O60" s="3">
         <v>1054000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>665000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>619000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>612000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1241000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1804000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1735000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1217000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1180000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>746000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>665000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>682000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>721000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>704700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>628900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>495000</v>
+        <v>1487000</v>
       </c>
       <c r="E61" s="3">
         <v>495000</v>
       </c>
       <c r="F61" s="3">
+        <v>495000</v>
+      </c>
+      <c r="G61" s="3">
         <v>1241000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1695000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1687000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1679000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1672000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>673000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>666000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>659000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>652000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1141000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1131000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1120000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1112000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>890000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>860000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>723000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>710000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1182000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1180000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1169000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1055000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1047800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1040800</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1393000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1361000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1628000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1648000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1689000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1869000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>942000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>893000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>974000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>923000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>911000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>920000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>897000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>900000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>909000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>930000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>359000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>352000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>343000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>364000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>360000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>222000</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>212000</v>
       </c>
       <c r="Z62" s="3">
         <v>212000</v>
       </c>
       <c r="AA62" s="3">
+        <v>212000</v>
+      </c>
+      <c r="AB62" s="3">
         <v>214000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>204300</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4741,8 +4889,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4821,8 +4972,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4901,88 +5055,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5653000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4525000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5004000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4379000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4477000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4470000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3495000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3833000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2891000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2704000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2685000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2626000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2703000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2650000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2641000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3405000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3201000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3256000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2594000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2534000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2508000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2191000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2143000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2047000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2083400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1987700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5011,8 +5171,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5091,8 +5252,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5171,8 +5335,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5251,8 +5418,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5331,88 +5501,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1142000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1281000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5097000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5632000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5485000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5372000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5055000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4870000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4723000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4466000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4287000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4240000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4067000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3828000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3594000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3298000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3083000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2872000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2673000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2464000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2256000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2188000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2025000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1897000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1485400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1361700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5491,8 +5667,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5571,8 +5750,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5651,88 +5833,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6599000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6731000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10444000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10895000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10740000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10593000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5180000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4922000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4694000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4700000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4563000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4635000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4613000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4439000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4332000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3985000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3758000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3503000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3257000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3008000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2749000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2855000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2715000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2551000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2197200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2240100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5811,173 +5999,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E80" s="2">
         <v>44836</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44745</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44654</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44563</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44472</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44381</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44290</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44199</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44101</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44010</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43919</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43828</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43737</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43464</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43282</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43191</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43009</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42918</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42827</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42736</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3816000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-535000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>86000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>112000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>317000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>185000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>147000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>257000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>179000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>47000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>173000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>239000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>234000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>296000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>233000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>210000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>199000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>209000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>208000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>68000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>163000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>128000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>367000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>123800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6006,88 +6203,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E83" s="3">
         <v>103000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>94000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>91000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>89000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>65000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>49000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>48000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>50000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>47000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>46000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>44000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>45000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>47000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>49000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>47000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>50000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>45000</v>
       </c>
       <c r="U83" s="3">
         <v>45000</v>
       </c>
       <c r="V83" s="3">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="W83" s="3">
         <v>39000</v>
       </c>
       <c r="X83" s="3">
+        <v>39000</v>
+      </c>
+      <c r="Y83" s="3">
         <v>41000</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>38000</v>
       </c>
       <c r="Z83" s="3">
         <v>38000</v>
       </c>
       <c r="AA83" s="3">
+        <v>38000</v>
+      </c>
+      <c r="AB83" s="3">
         <v>37500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6166,8 +6367,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6246,8 +6450,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6326,8 +6533,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6406,8 +6616,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6486,88 +6699,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-52000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>125000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>172000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>282000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-272000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>253000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>282000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>406000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>153000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>240000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>281000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>443000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>267000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>143000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>198000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>300000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>292000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>295000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>255000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>294000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>235000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>178000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>168000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>262000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6596,88 +6815,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-66000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-71000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-61000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-70000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-52000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-44000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-42000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-62000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-48000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-39000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-40000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-57000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-49000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-47000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-56000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-65000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-64000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-77000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-90000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-76000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-82000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-69000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-83000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-163500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-136600</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6756,8 +6979,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6836,88 +7062,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-250000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-165000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-74000</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-2448000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1376000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-65000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-320000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-135000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-104000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-218000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>79000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>988000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-348000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-940000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-537000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>12000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-315000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-97000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>35000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>163000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-173500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-341000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6946,8 +7178,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7026,8 +7259,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7106,8 +7342,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7186,8 +7425,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7266,133 +7508,139 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>956000</v>
+      </c>
+      <c r="E100" s="3">
         <v>28000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>21000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-129000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-394000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-496000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>968000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-331000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-101000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-143000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-191000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-115000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-173000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-549000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-60000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-154000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>651000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>30000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>67000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-109000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>24000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-86000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-163500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-15000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-17000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -7400,110 +7648,116 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="V101" s="3">
-        <v>1000</v>
       </c>
       <c r="W101" s="3">
         <v>1000</v>
       </c>
       <c r="X101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y101" s="3">
         <v>2000</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>1000</v>
       </c>
       <c r="Z101" s="3">
         <v>1000</v>
       </c>
       <c r="AA101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1011000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-289000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-62000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>119000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>152000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3116000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-237000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2623000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>49000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-221000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-51000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>227000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-128000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-327000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1126000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-202000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-216000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>335000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-129000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>135000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>238000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>246000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-60000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-157000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,364 +665,376 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E7" s="2">
         <v>44927</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44836</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44745</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44654</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44563</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44472</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44381</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44290</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44199</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44101</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44010</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43919</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43828</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43737</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43464</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43282</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43191</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43009</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42918</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42827</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42736</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1087000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1083000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1115000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1162000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1223000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1199000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1108000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1126000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1093000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>953000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>794000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>633000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>859000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>952000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>907000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>838000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>846000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>867000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>853000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>830000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>782000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>777000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>714000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>662000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>598000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>619300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>607100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>432000</v>
+      </c>
+      <c r="E9" s="3">
         <v>411000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>398000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>395000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>408000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>382000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>338000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>324000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>329000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>323000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>268000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>205000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>240000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>290000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>259000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>265000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>262000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>277000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>256000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>255000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>244000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>235000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>232000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>228000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>212000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>199900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>181000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>655000</v>
+      </c>
+      <c r="E10" s="3">
         <v>672000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>717000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>767000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>815000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>817000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>770000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>802000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>764000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>630000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>526000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>428000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>619000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>662000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>648000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>573000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>584000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>590000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>597000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>575000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>538000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>542000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>482000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>434000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>386000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>419400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1052,91 +1064,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>341000</v>
+      </c>
+      <c r="E12" s="3">
         <v>346000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>325000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>327000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>323000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>350000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>436000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>202000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>197000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>199000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>172000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>155000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>156000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>161000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>151000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>166000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>169000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>176000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>159000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>151000</v>
-      </c>
-      <c r="W12" s="3">
-        <v>137000</v>
       </c>
       <c r="X12" s="3">
         <v>137000</v>
       </c>
       <c r="Y12" s="3">
+        <v>137000</v>
+      </c>
+      <c r="Z12" s="3">
         <v>134000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>130000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>140000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>129900</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>125900</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1218,22 +1234,25 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>21000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3903000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>609000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1259,23 +1278,23 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>-39000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-15000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1283,26 +1302,29 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>31000</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>400</v>
       </c>
       <c r="AC14" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1384,8 +1406,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1412,174 +1437,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1151000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1210000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4772000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1741000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1039000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1158000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1653000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>939000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>820000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>632000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>537000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>670000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>684000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>599000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>594000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>627000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>670000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>612000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>603000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>564000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>547000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>533000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>519000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>546000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>476300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>446400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-127000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3657000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-579000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>184000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>41000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-545000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>187000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>193000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>133000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>162000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>96000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>189000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>268000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>308000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>244000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>219000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>197000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>241000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>227000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>218000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>230000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>181000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>143000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>52000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>143000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1609,182 +1641,189 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-32000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-9000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-52000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-38000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>58000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>979000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>36000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>182000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>64000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>80000</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>12000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-27000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>117000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>29000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>32000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>16000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>14000</v>
-      </c>
-      <c r="X20" s="3">
-        <v>4000</v>
       </c>
       <c r="Y20" s="3">
         <v>4000</v>
       </c>
       <c r="Z20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AA20" s="3">
         <v>6000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>459000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-53000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3563000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-537000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>237000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>188000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>499000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>272000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>236000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>365000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>273000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>222000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>233000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>325000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>328000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>410000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>295000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>279000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>292000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>288000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>271000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>273000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>226000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>187000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>549000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>180500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>198600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="3">
         <v>9000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>6000</v>
       </c>
       <c r="F22" s="3">
         <v>6000</v>
@@ -1793,22 +1832,22 @@
         <v>6000</v>
       </c>
       <c r="H22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I22" s="3">
         <v>13000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>14000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>11000</v>
       </c>
       <c r="N22" s="3">
         <v>11000</v>
@@ -1823,19 +1862,19 @@
         <v>11000</v>
       </c>
       <c r="R22" s="3">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="S22" s="3">
         <v>15000</v>
       </c>
       <c r="T22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="U22" s="3">
         <v>20000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>15000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>11000</v>
       </c>
       <c r="W22" s="3">
         <v>11000</v>
@@ -1844,188 +1883,197 @@
         <v>11000</v>
       </c>
       <c r="Y22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>10000</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>8000</v>
       </c>
       <c r="AA22" s="3">
         <v>8000</v>
       </c>
       <c r="AB22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="AC22" s="3">
         <v>8300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-168000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3672000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-637000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>140000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>86000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>420000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>207000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>169000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>299000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>215000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>165000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>178000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>269000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>270000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>346000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>233000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>209000</v>
-      </c>
-      <c r="U23" s="3">
-        <v>232000</v>
       </c>
       <c r="V23" s="3">
         <v>232000</v>
       </c>
       <c r="W23" s="3">
+        <v>232000</v>
+      </c>
+      <c r="X23" s="3">
         <v>221000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>223000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>175000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>141000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>503000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>134200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-29000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>144000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-102000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>54000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-26000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>103000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>22000</v>
       </c>
       <c r="K24" s="3">
         <v>22000</v>
       </c>
       <c r="L24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="M24" s="3">
         <v>42000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>36000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>118000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>30000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>36000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>53000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>33000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>32000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>24000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>16000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>23000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>21000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>155000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>26700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2107,174 +2155,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-139000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3816000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-535000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>86000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>112000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>317000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>185000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>147000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>257000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>179000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>47000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>173000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>239000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>234000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>293000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>224000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>197000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>199000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>200000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>197000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>207000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>152000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>120000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>348000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>107500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>116900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-139000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3816000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-535000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>86000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>112000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>317000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>185000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>147000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>257000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>179000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>47000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>173000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>239000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>234000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>296000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>233000</v>
-      </c>
-      <c r="T27" s="3">
-        <v>210000</v>
       </c>
       <c r="U27" s="3">
         <v>210000</v>
       </c>
       <c r="V27" s="3">
+        <v>210000</v>
+      </c>
+      <c r="W27" s="3">
         <v>209000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>208000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>218000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>163000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>128000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>367000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>123800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2356,8 +2413,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2394,8 +2454,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -2409,23 +2469,23 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-11000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-150000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>10</v>
@@ -2439,8 +2499,11 @@
       <c r="AC29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2522,8 +2585,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2605,174 +2671,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>32000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>9000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>52000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>38000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-58000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-979000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-36000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-182000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-64000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-80000</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>27000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-117000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-29000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-32000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-6000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-16000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-4000</v>
       </c>
       <c r="Y32" s="3">
         <v>-4000</v>
       </c>
       <c r="Z32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-459000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-139000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3816000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-535000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>86000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>112000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>317000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>185000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>147000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>257000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>179000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>47000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>173000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>239000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>234000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>296000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>233000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>210000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>199000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>209000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>208000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>68000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>163000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>128000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>367000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>123800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2854,179 +2929,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-139000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3816000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-535000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>86000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>112000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>317000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>185000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>147000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>257000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>179000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>47000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>173000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>239000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>234000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>296000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>233000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>210000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>199000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>209000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>208000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>68000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>163000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>128000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>367000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>123800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E38" s="2">
         <v>44927</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44836</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44745</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44654</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44563</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44472</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44381</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44290</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44199</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44101</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44010</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43919</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43828</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43737</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43464</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43282</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43191</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43009</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42918</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42827</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42736</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3056,8 +3140,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3087,523 +3172,542 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1494000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2011000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1289000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1351000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1232000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1080000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4196000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4433000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1810000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1761000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1770000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1991000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2042000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1815000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1943000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2270000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1144000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1346000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1344000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1560000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1225000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1354000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1219000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>981000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>734500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>794700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E42" s="3">
         <v>26000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>41000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>38000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>65000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>107000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>185000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>90000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>197000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1662000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1563000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1498000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1341000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1372000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1351000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1230000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1345000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2368000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2043000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1168000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>813000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>920000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>687000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>674000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>797000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>824200</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>741600</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>682000</v>
+      </c>
+      <c r="E43" s="3">
         <v>688000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>645000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>660000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>630000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>648000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>604000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>540000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>517000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>487000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>464000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>385000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>472000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>573000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>541000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>470000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>457000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>514000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>433000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>395000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>400000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>411000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>383000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>372000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>368000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>381300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>586000</v>
+      </c>
+      <c r="E44" s="3">
         <v>568000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>559000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>518000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>465000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>431000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>401000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>380000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>364000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>372000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>415000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>435000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>384000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>359000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>417000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>420000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>412000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>386000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>374000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>362000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>350000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>333000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>327000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>309000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>299000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>300200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>386000</v>
+      </c>
+      <c r="E45" s="3">
         <v>268000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>242000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>386000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>244000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>295000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>181000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>104000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>131000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>152000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>126000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>106000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>136000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>105000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>98000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>93000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>61000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>78000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>66000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>68000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>71000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>91000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>54000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>69000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>72000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>77900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3172000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3561000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2487000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2891000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2755000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2713000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2451000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5310000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5642000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4483000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4329000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4194000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4324000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4451000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4222000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4156000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4545000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4490000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4262000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3337000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3194000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2980000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2805000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2643000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2517000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2318100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2277800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E47" s="3">
         <v>211000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>226000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>229000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>224000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>10</v>
@@ -3617,8 +3721,8 @@
       <c r="L47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3668,174 +3772,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1740000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1744000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1748000</v>
       </c>
       <c r="F48" s="3">
         <v>1748000</v>
       </c>
       <c r="G48" s="3">
+        <v>1748000</v>
+      </c>
+      <c r="H48" s="3">
         <v>1740000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1696000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1685000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1481000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1444000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1454000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1455000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1439000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1449000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1444000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1430000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1412000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1426000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1075000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1060000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1036000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>983000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>931000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>862000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>837000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>734000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>713300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>633900</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6476000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6524000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6573000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10360000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10322000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10363000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10449000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1128000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1031000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1039000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1046000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1050000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>962000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>969000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>976000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>986000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1006000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1016000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1026000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1036000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>943000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>946000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>956000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>967000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>978000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1018600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1031600</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3917,8 +4030,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4000,91 +4116,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E52" s="3">
         <v>212000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>222000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>220000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>233000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>445000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>478000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>756000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>638000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>609000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>574000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>565000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>526000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>452000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>461000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>419000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>413000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>378000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>411000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>442000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>422000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>400000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>423000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>411000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>369000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>230500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4166,91 +4288,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11811000</v>
+      </c>
+      <c r="E54" s="3">
         <v>12252000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11256000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15448000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15274000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15217000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15063000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8675000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8755000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7585000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7404000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7248000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7261000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7316000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7089000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6973000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7390000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6959000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6759000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5851000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5542000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5257000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5046000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4858000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4598000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4280600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4227800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4280,8 +4408,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4311,109 +4440,113 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E57" s="3">
         <v>293000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>281000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>282000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>291000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>332000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>248000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>178000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>192000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>156000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>135000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>130000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>149000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>143000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>139000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>137000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>184000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>156000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>149000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>151000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>160000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>158000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>175000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>142000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>137900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>134100</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1248000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1246000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1245000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>499000</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -4421,23 +4554,23 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>488000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>511000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>507000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>503000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>499000</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
@@ -4445,206 +4578,215 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>631000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1107000</v>
       </c>
       <c r="U58" s="3">
         <v>1107000</v>
       </c>
       <c r="V58" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="W58" s="3">
         <v>625000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>620000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>10000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1000</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>1300</v>
       </c>
       <c r="AC58" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1239000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1232000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1142000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1354000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>761000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>666000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>674000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>602000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>541000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>452000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>477000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>425000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>516000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>476000</v>
-      </c>
-      <c r="R59" s="3">
-        <v>473000</v>
       </c>
       <c r="S59" s="3">
         <v>473000</v>
       </c>
       <c r="T59" s="3">
+        <v>473000</v>
+      </c>
+      <c r="U59" s="3">
         <v>513000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>472000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>443000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>409000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>576000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>505000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>502000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>578000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>565500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2230000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2773000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2669000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2881000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1490000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1093000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>914000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>874000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1268000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1244000</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1115000</v>
       </c>
       <c r="N60" s="3">
         <v>1115000</v>
       </c>
       <c r="O60" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="P60" s="3">
         <v>1054000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>665000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>619000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>612000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1241000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1804000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1735000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1217000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1180000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>746000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>665000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>682000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>721000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>704700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>628900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4652,165 +4794,171 @@
         <v>1487000</v>
       </c>
       <c r="E61" s="3">
-        <v>495000</v>
+        <v>1487000</v>
       </c>
       <c r="F61" s="3">
         <v>495000</v>
       </c>
       <c r="G61" s="3">
+        <v>495000</v>
+      </c>
+      <c r="H61" s="3">
         <v>1241000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1695000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1687000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1679000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1672000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>673000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>666000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>659000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>652000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1141000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1131000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1120000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1112000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>890000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>860000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>723000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>710000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1182000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1180000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1169000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1055000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1047800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1040800</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1401000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1393000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1361000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1628000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1648000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1689000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1869000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>942000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>893000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>974000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>923000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>911000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>920000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>897000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>900000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>909000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>930000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>359000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>352000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>343000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>364000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>360000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>222000</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>212000</v>
       </c>
       <c r="AA62" s="3">
         <v>212000</v>
       </c>
       <c r="AB62" s="3">
+        <v>212000</v>
+      </c>
+      <c r="AC62" s="3">
         <v>214000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>204300</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4892,8 +5040,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4975,8 +5126,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5058,91 +5212,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5118000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5653000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4525000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5004000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4379000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4477000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4470000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3495000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3833000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2891000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2704000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2685000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2626000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2703000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2650000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2641000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3405000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3201000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3256000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2594000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2534000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2508000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2191000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2143000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2047000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2083400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1987700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5172,8 +5332,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5255,8 +5416,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5338,8 +5502,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5421,8 +5588,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5504,91 +5674,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1145000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1142000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1281000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5097000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5632000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5485000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5372000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5055000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4870000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4723000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4466000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4287000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4240000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4067000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3828000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3594000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3298000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3083000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2872000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2673000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2464000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2256000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2188000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2025000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1897000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1485400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1361700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5670,8 +5846,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5753,8 +5932,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5836,91 +6018,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6693000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6599000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6731000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10444000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10895000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10740000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10593000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5180000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4922000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4694000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4700000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4563000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4635000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4613000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4439000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4332000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3985000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3758000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3503000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3257000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3008000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2749000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2855000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2715000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2551000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2197200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2240100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6002,179 +6190,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E80" s="2">
         <v>44927</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44836</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44745</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44654</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44563</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44472</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44381</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44290</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44199</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44101</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44010</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43919</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43828</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43737</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43464</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43282</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43191</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43009</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42918</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42827</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42736</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-139000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3816000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-535000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>86000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>112000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>317000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>185000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>147000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>257000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>179000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>47000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>173000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>239000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>234000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>296000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>233000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>210000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>199000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>209000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>208000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>68000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>163000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>128000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>367000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>123800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6204,91 +6401,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E83" s="3">
         <v>106000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>103000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>94000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>91000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>89000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>65000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>49000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>48000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>50000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>47000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>46000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>44000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>45000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>47000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>49000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>47000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>50000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>45000</v>
       </c>
       <c r="V83" s="3">
         <v>45000</v>
       </c>
       <c r="W83" s="3">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="X83" s="3">
         <v>39000</v>
       </c>
       <c r="Y83" s="3">
+        <v>39000</v>
+      </c>
+      <c r="Z83" s="3">
         <v>41000</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>38000</v>
       </c>
       <c r="AA83" s="3">
         <v>38000</v>
       </c>
       <c r="AB83" s="3">
+        <v>38000</v>
+      </c>
+      <c r="AC83" s="3">
         <v>37500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6370,8 +6571,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6453,8 +6657,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6536,8 +6743,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6619,8 +6829,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6702,91 +6915,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E89" s="3">
         <v>147000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-52000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>125000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>172000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>282000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-272000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>253000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>282000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>406000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>153000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>240000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>281000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>443000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>267000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>143000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>198000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>300000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>292000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>295000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>255000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>294000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>235000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>178000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>168000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>262000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6816,91 +7035,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-88000</v>
       </c>
-      <c r="E91" s="3">
-        <v>-66000</v>
-      </c>
       <c r="F91" s="3">
+        <v>-246000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-71000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-61000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-70000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-52000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-44000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-62000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-48000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-39000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-40000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-57000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-49000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-47000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-56000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-65000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-64000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-77000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-90000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-76000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-82000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-69000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-83000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-163500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-136600</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6982,8 +7205,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7065,91 +7291,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-102000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-250000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-165000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-74000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2448000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1376000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-34000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-65000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-320000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-135000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-104000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-218000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>79000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>988000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-348000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-940000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-537000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>12000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-315000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-97000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>35000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>163000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-173500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-341000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7179,8 +7411,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7262,8 +7495,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7345,8 +7581,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7428,8 +7667,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7511,139 +7753,145 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-473000</v>
+      </c>
+      <c r="E100" s="3">
         <v>956000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>28000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>21000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-129000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-394000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-496000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>968000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-331000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-101000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-143000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-191000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-115000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-173000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-549000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-60000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-154000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>651000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>30000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>67000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-109000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>24000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-86000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-163500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>10000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-15000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-17000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4000</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -7651,113 +7899,119 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="W101" s="3">
-        <v>1000</v>
       </c>
       <c r="X101" s="3">
         <v>1000</v>
       </c>
       <c r="Y101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z101" s="3">
         <v>2000</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>1000</v>
       </c>
       <c r="AA101" s="3">
         <v>1000</v>
       </c>
       <c r="AB101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-517000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1011000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-289000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-62000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>119000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>152000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3116000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-237000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2623000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>49000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-221000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-51000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>227000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-128000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-327000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1126000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-202000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-216000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>335000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-129000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>135000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>238000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>246000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-60000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-157000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,376 +665,388 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E7" s="2">
         <v>45018</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44927</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44836</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44745</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44654</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44563</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44472</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44381</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44290</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44199</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44101</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44010</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43919</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43828</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43737</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43464</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43282</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43191</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43009</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42918</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42827</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42736</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1176000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1087000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1083000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1115000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1162000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1223000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1199000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1108000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1126000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1093000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>953000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>794000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>633000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>859000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>952000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>907000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>838000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>846000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>867000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>853000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>830000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>782000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>777000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>714000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>662000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>598000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>619300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>607100</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>444000</v>
+      </c>
+      <c r="E9" s="3">
         <v>432000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>411000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>398000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>395000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>408000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>382000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>338000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>324000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>329000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>323000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>268000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>205000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>240000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>290000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>259000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>265000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>262000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>277000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>256000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>255000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>244000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>235000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>232000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>228000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>212000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>199900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>181000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>732000</v>
+      </c>
+      <c r="E10" s="3">
         <v>655000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>672000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>717000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>767000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>815000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>817000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>770000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>802000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>764000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>630000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>526000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>428000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>619000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>662000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>648000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>573000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>584000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>590000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>597000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>575000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>538000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>542000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>482000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>434000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>386000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>419400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1065,94 +1077,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E12" s="3">
         <v>341000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>346000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>325000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>327000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>323000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>350000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>436000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>202000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>197000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>199000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>172000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>155000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>156000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>161000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>151000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>166000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>169000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>176000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>159000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>151000</v>
-      </c>
-      <c r="X12" s="3">
-        <v>137000</v>
       </c>
       <c r="Y12" s="3">
         <v>137000</v>
       </c>
       <c r="Z12" s="3">
+        <v>137000</v>
+      </c>
+      <c r="AA12" s="3">
         <v>134000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>130000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>140000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>129900</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>125900</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1237,25 +1253,28 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>21000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3903000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>609000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1281,23 +1300,23 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
         <v>-39000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-15000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1305,26 +1324,29 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-8000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>31000</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>400</v>
       </c>
       <c r="AD14" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1409,8 +1431,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1438,180 +1463,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1264000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1151000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1210000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4772000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1741000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1039000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1158000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1653000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>939000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>820000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>632000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>537000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>670000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>684000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>599000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>594000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>627000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>670000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>612000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>603000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>564000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>547000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>533000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>519000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>546000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>476300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>446400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-64000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-127000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3657000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-579000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>184000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>41000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-545000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>187000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>193000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>133000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>162000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>96000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>189000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>268000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>308000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>244000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>219000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>197000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>241000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>227000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>218000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>230000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>181000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>143000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>52000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>143000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1642,191 +1674,198 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-32000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-52000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-38000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>58000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>979000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>36000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>182000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>64000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>80000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>12000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-27000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>117000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>29000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>32000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>6000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>16000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>14000</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>4000</v>
       </c>
       <c r="Z20" s="3">
         <v>4000</v>
       </c>
       <c r="AA20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AB20" s="3">
         <v>6000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>459000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E21" s="3">
         <v>49000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-53000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3563000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-537000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>237000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>188000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>499000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>272000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>236000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>365000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>273000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>222000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>233000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>325000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>328000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>410000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>295000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>279000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>292000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>288000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>271000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>273000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>226000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>187000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>549000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>180500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>198600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E22" s="3">
         <v>20000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6000</v>
       </c>
       <c r="G22" s="3">
         <v>6000</v>
@@ -1835,22 +1874,22 @@
         <v>6000</v>
       </c>
       <c r="I22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J22" s="3">
         <v>13000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>14000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>11000</v>
       </c>
       <c r="O22" s="3">
         <v>11000</v>
@@ -1865,19 +1904,19 @@
         <v>11000</v>
       </c>
       <c r="S22" s="3">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="T22" s="3">
         <v>15000</v>
       </c>
       <c r="U22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="V22" s="3">
         <v>20000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>15000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>11000</v>
       </c>
       <c r="X22" s="3">
         <v>11000</v>
@@ -1886,194 +1925,203 @@
         <v>11000</v>
       </c>
       <c r="Z22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>10000</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>8000</v>
       </c>
       <c r="AB22" s="3">
         <v>8000</v>
       </c>
       <c r="AC22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="AD22" s="3">
         <v>8300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-78000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-168000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3672000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-637000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>140000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>86000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>420000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>207000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>169000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>299000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>215000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>165000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>178000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>269000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>270000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>346000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>233000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>209000</v>
-      </c>
-      <c r="V23" s="3">
-        <v>232000</v>
       </c>
       <c r="W23" s="3">
         <v>232000</v>
       </c>
       <c r="X23" s="3">
+        <v>232000</v>
+      </c>
+      <c r="Y23" s="3">
         <v>221000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>223000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>175000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>141000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>503000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>134200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-81000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-29000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>144000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-102000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>54000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-26000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>103000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>22000</v>
       </c>
       <c r="L24" s="3">
         <v>22000</v>
       </c>
       <c r="M24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="N24" s="3">
         <v>42000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>118000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>30000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>36000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>53000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>33000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>32000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>24000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>16000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>23000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>21000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>155000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>26700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2158,180 +2206,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-234000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-139000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3816000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-535000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>86000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>112000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>317000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>185000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>147000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>257000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>179000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>47000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>173000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>239000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>234000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>293000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>224000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>197000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>199000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>200000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>197000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>207000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>152000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>120000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>348000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>107500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>116900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-234000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-139000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3816000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-535000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>86000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>112000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>317000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>185000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>147000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>257000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>179000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>47000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>173000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>239000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>234000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>296000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>233000</v>
-      </c>
-      <c r="U27" s="3">
-        <v>210000</v>
       </c>
       <c r="V27" s="3">
         <v>210000</v>
       </c>
       <c r="W27" s="3">
+        <v>210000</v>
+      </c>
+      <c r="X27" s="3">
         <v>209000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>208000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>218000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>163000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>128000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>367000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>123800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2416,8 +2473,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2457,8 +2517,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -2472,23 +2532,23 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-11000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-150000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>10</v>
@@ -2502,8 +2562,11 @@
       <c r="AD29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2588,8 +2651,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2674,180 +2740,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>32000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>52000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>38000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-58000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-979000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-36000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-182000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-64000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-80000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-12000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>27000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-117000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-29000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-32000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-6000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-16000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-4000</v>
       </c>
       <c r="Z32" s="3">
         <v>-4000</v>
       </c>
       <c r="AA32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-6000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-459000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-234000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-139000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3816000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-535000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>86000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>112000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>317000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>185000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>147000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>257000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>179000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>47000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>173000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>239000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>234000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>296000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>233000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>210000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>199000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>209000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>208000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>68000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>163000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>128000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>367000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>123800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2932,185 +3007,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-234000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-139000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3816000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-535000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>86000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>112000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>317000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>185000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>147000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>257000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>179000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>47000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>173000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>239000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>234000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>296000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>233000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>210000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>199000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>209000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>208000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>68000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>163000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>128000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>367000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>123800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E38" s="2">
         <v>45018</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44927</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44836</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44745</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44654</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44563</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44472</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44381</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44290</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44199</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44101</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44010</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43919</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43828</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43737</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43464</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43282</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43191</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43009</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42918</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42827</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42736</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3141,8 +3225,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3173,544 +3258,563 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1553000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1494000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2011000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1289000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1351000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1232000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1080000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4196000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4433000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1810000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1761000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1770000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1991000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2042000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1815000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1943000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2270000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1144000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1346000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1344000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1560000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1225000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1354000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1219000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>981000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>734500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>794700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E42" s="3">
         <v>24000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>26000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>41000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>38000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>65000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>107000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>185000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>90000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>197000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1662000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1563000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1498000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1341000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1372000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1351000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1230000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1345000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2368000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2043000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1168000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>813000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>920000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>687000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>674000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>797000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>824200</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>741600</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>758000</v>
+      </c>
+      <c r="E43" s="3">
         <v>682000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>688000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>645000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>660000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>630000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>648000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>604000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>540000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>517000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>487000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>464000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>385000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>472000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>573000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>541000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>470000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>457000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>514000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>433000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>395000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>400000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>411000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>383000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>372000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>368000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>381300</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>617000</v>
+      </c>
+      <c r="E44" s="3">
         <v>586000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>568000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>559000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>518000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>465000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>431000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>401000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>380000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>364000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>372000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>415000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>435000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>384000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>359000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>417000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>420000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>412000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>386000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>374000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>362000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>350000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>333000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>327000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>309000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>299000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>300200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E45" s="3">
         <v>386000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>268000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>242000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>386000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>244000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>295000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>181000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>104000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>131000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>152000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>126000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>106000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>136000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>105000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>98000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>93000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>61000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>78000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>66000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>68000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>71000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>91000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>54000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>69000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>72000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>77900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3223000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3172000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3561000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2487000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2891000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2755000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2713000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2451000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5310000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5642000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4483000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4329000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4194000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4324000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4451000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4222000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4156000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4545000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4490000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4262000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3337000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3194000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2980000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2805000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2643000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2517000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2318100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2277800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E47" s="3">
         <v>200000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>211000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>226000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>229000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>224000</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>10</v>
@@ -3724,8 +3828,8 @@
       <c r="M47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3775,180 +3879,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1707000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1740000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1744000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1748000</v>
       </c>
       <c r="G48" s="3">
         <v>1748000</v>
       </c>
       <c r="H48" s="3">
+        <v>1748000</v>
+      </c>
+      <c r="I48" s="3">
         <v>1740000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1696000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1685000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1481000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1444000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1454000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1455000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1439000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1449000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1444000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1430000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1412000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1426000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1075000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1060000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1036000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>983000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>931000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>862000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>837000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>734000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>713300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>633900</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6427000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6476000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6524000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6573000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10360000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10322000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10363000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10449000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1128000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1031000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1039000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1046000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1050000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>962000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>969000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>976000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>986000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1006000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1016000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1026000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1036000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>943000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>946000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>956000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>967000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>978000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1018600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1031600</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4033,8 +4146,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4119,94 +4235,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E52" s="3">
         <v>223000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>212000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>222000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>220000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>233000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>445000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>478000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>756000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>638000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>609000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>574000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>565000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>526000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>452000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>461000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>419000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>413000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>378000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>411000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>442000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>422000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>400000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>423000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>411000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>369000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>230500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4291,94 +4413,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11774000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11811000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12252000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11256000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15448000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15274000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15217000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15063000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8675000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8755000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7585000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7404000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7248000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7261000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7316000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7089000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6973000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7390000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6959000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6759000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5851000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5542000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5257000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5046000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4858000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4598000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4280600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>4227800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4409,8 +4537,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4441,115 +4570,119 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E57" s="3">
         <v>242000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>293000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>281000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>282000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>291000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>332000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>248000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>178000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>192000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>156000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>135000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>130000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>149000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>143000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>139000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>137000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>184000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>156000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>149000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>151000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>160000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>158000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>175000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>142000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>137900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>134100</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>750000</v>
+      </c>
+      <c r="E58" s="3">
         <v>749000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1248000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1246000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1245000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>499000</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -4557,23 +4690,23 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>488000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>511000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>507000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>503000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>499000</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
@@ -4581,384 +4714,399 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>631000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>1107000</v>
       </c>
       <c r="V58" s="3">
         <v>1107000</v>
       </c>
       <c r="W58" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="X58" s="3">
         <v>625000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>620000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>10000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>5000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1000</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>1300</v>
       </c>
       <c r="AD58" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1309000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1239000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1232000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1142000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1354000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>761000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>666000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>674000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>602000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>541000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>452000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>477000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>425000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>516000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>476000</v>
-      </c>
-      <c r="S59" s="3">
-        <v>473000</v>
       </c>
       <c r="T59" s="3">
         <v>473000</v>
       </c>
       <c r="U59" s="3">
+        <v>473000</v>
+      </c>
+      <c r="V59" s="3">
         <v>513000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>472000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>443000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>409000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>576000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>505000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>502000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>578000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>565500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2303000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2230000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2773000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2669000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2881000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1490000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1093000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>914000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>874000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1268000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1244000</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1115000</v>
       </c>
       <c r="O60" s="3">
         <v>1115000</v>
       </c>
       <c r="P60" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1054000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>665000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>619000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>612000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1241000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1804000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1735000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1217000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1180000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>746000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>665000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>682000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>721000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>704700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>628900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1487000</v>
+        <v>1488000</v>
       </c>
       <c r="E61" s="3">
         <v>1487000</v>
       </c>
       <c r="F61" s="3">
-        <v>495000</v>
+        <v>1487000</v>
       </c>
       <c r="G61" s="3">
         <v>495000</v>
       </c>
       <c r="H61" s="3">
+        <v>495000</v>
+      </c>
+      <c r="I61" s="3">
         <v>1241000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1695000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1687000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1679000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1672000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>673000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>666000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>659000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>652000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1141000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1131000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1120000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1112000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>890000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>860000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>723000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>710000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1182000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1180000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1169000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1055000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1047800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1040800</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1428000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1401000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1393000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1361000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1628000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1648000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1689000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1869000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>942000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>893000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>974000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>923000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>911000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>920000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>897000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>900000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>909000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>930000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>359000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>352000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>343000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>364000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>360000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>222000</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>212000</v>
       </c>
       <c r="AB62" s="3">
         <v>212000</v>
       </c>
       <c r="AC62" s="3">
+        <v>212000</v>
+      </c>
+      <c r="AD62" s="3">
         <v>214000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>204300</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5043,8 +5191,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5129,8 +5280,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5215,94 +5369,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5219000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5118000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5653000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4525000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5004000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4379000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4477000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4470000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3495000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3833000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2891000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2704000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2685000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2626000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2703000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2650000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2641000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3405000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3201000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3256000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2594000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2534000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2508000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2191000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2143000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2047000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2083400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1987700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5333,8 +5493,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5419,8 +5580,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5505,8 +5669,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5591,8 +5758,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5677,94 +5847,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>911000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1145000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1142000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1281000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5097000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5632000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5485000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5372000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5055000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4870000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4723000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4466000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4287000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4240000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4067000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3828000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3594000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3298000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3083000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2872000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2673000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2464000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2256000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2188000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2025000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1897000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1485400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1361700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5849,8 +6025,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5935,8 +6114,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6021,94 +6203,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6555000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6693000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6599000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6731000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10444000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10895000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10740000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10593000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5180000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4922000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4694000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4700000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4563000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4635000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4613000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4439000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4332000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3985000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3758000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3503000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3257000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3008000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2749000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2855000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2715000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2551000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2197200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2240100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6193,185 +6381,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E80" s="2">
         <v>45018</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44927</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44836</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44745</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44654</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44563</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44472</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44381</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44290</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44199</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44101</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44010</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43919</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43828</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43737</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43464</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43282</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43191</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43009</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42918</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42827</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42736</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-234000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-139000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3816000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-535000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>86000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>112000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>317000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>185000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>147000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>257000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>179000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>47000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>173000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>239000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>234000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>296000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>233000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>210000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>199000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>209000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>208000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>68000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>163000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>128000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>367000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>123800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6402,94 +6599,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E83" s="3">
         <v>107000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>106000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>103000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>94000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>91000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>89000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>65000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>49000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>48000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>50000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>47000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>46000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>44000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>45000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>47000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>49000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>47000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>50000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>45000</v>
       </c>
       <c r="W83" s="3">
         <v>45000</v>
       </c>
       <c r="X83" s="3">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="Y83" s="3">
         <v>39000</v>
       </c>
       <c r="Z83" s="3">
+        <v>39000</v>
+      </c>
+      <c r="AA83" s="3">
         <v>41000</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>38000</v>
       </c>
       <c r="AB83" s="3">
         <v>38000</v>
       </c>
       <c r="AC83" s="3">
+        <v>38000</v>
+      </c>
+      <c r="AD83" s="3">
         <v>37500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6574,8 +6775,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6660,8 +6864,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6746,8 +6953,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6832,8 +7042,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6918,94 +7131,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E89" s="3">
         <v>10000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>147000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-52000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>125000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>172000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>282000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-272000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>253000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>282000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>406000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>153000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>240000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>281000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>443000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>267000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>143000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>198000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>300000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>292000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>295000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>255000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>294000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>235000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>178000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>168000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>262000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7036,94 +7255,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-53000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-88000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-246000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-71000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-61000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-70000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-52000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-44000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-62000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-48000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-39000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-57000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-49000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-47000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-56000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-65000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-64000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-77000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-90000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-76000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-82000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-69000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-83000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-163500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-136600</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7208,8 +7431,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7294,94 +7520,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-56000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-102000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-250000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-165000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-74000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2448000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1376000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-65000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-320000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-135000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-104000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-218000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>79000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>988000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-348000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-940000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-537000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>12000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-315000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-97000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>35000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>163000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-173500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-341000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7412,8 +7644,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7498,8 +7731,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7584,8 +7820,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7670,8 +7909,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7756,145 +7998,151 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-473000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>956000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>28000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>21000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-129000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-394000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-496000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>968000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-331000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-101000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-143000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-191000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-115000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-173000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-549000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-60000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-154000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>651000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>30000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>67000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-109000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>24000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-86000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-163500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>10000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-15000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-17000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4000</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -7902,116 +8150,122 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="X101" s="3">
-        <v>1000</v>
       </c>
       <c r="Y101" s="3">
         <v>1000</v>
       </c>
       <c r="Z101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA101" s="3">
         <v>2000</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>1000</v>
       </c>
       <c r="AB101" s="3">
         <v>1000</v>
       </c>
       <c r="AC101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD101" s="3">
         <v>-3300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-517000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1011000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-289000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-62000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>119000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>152000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3116000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-237000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2623000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>49000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-221000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-51000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>227000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-128000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-327000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1126000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-202000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-216000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>335000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-129000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>135000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>238000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>246000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-60000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-157000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ILMN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,388 +665,400 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E7" s="2">
         <v>45109</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45018</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44927</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44836</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44745</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44654</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44563</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44472</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44381</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44290</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44199</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44101</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44010</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43919</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43828</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43737</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43464</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43282</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43191</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43009</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42918</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42827</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42736</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1119000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1176000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1087000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1083000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1115000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1162000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1223000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1199000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1108000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1126000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1093000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>953000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>794000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>633000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>859000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>952000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>907000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>838000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>846000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>867000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>853000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>830000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>782000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>777000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>714000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>662000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>598000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>619300</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>607100</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>435000</v>
+      </c>
+      <c r="E9" s="3">
         <v>444000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>432000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>411000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>398000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>395000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>408000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>382000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>338000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>324000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>329000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>323000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>268000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>205000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>240000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>290000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>259000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>265000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>262000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>277000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>256000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>255000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>244000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>235000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>232000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>228000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>212000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>199900</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>181000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>684000</v>
+      </c>
+      <c r="E10" s="3">
         <v>732000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>655000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>672000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>717000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>767000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>815000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>817000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>770000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>802000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>764000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>630000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>526000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>428000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>619000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>662000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>648000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>573000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>584000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>590000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>597000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>575000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>538000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>542000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>482000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>434000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>386000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>419400</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>426100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1078,97 +1090,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>313000</v>
+      </c>
+      <c r="E12" s="3">
         <v>346000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>341000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>346000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>325000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>327000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>323000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>350000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>436000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>202000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>197000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>199000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>172000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>155000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>156000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>161000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>151000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>166000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>169000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>176000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>159000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>151000</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>137000</v>
       </c>
       <c r="Z12" s="3">
         <v>137000</v>
       </c>
       <c r="AA12" s="3">
+        <v>137000</v>
+      </c>
+      <c r="AB12" s="3">
         <v>134000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>130000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>140000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>129900</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>125900</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1256,28 +1272,31 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>910000</v>
+      </c>
+      <c r="E14" s="3">
         <v>30000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>21000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3903000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>609000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1303,23 +1322,23 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3">
         <v>-39000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-15000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1327,26 +1346,29 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-8000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>31000</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>400</v>
       </c>
       <c r="AE14" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1434,8 +1456,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1464,186 +1489,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1873000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1264000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1151000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1210000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4772000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1741000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1039000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1158000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1653000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>939000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>820000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>632000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>537000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>670000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>684000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>599000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>594000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>627000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>670000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>612000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>603000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>564000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>547000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>533000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>519000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>546000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>476300</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>446400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-754000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-88000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-64000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-127000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3657000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-579000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>184000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>41000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-545000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>187000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>193000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>133000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>162000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>96000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>189000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>268000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>308000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>244000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>219000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>197000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>241000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>227000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>218000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>230000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>181000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>143000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>52000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>143000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>160700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1675,186 +1707,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E20" s="3">
         <v>18000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-32000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-9000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-52000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-38000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>58000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>979000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>36000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>182000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>64000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>80000</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>12000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-27000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>117000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>29000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>32000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>6000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>16000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>14000</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>4000</v>
       </c>
       <c r="AA20" s="3">
         <v>4000</v>
       </c>
       <c r="AB20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AC20" s="3">
         <v>6000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>459000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-400</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-655000</v>
+      </c>
+      <c r="E21" s="3">
         <v>38000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>49000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-53000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3563000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-537000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>237000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>188000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>499000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>272000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>236000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>365000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>273000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>222000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>233000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>325000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>328000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>410000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>295000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>279000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>292000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>288000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>271000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>273000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>226000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>187000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>549000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>180500</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>198600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1862,13 +1901,13 @@
         <v>19000</v>
       </c>
       <c r="E22" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F22" s="3">
         <v>20000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>6000</v>
       </c>
       <c r="H22" s="3">
         <v>6000</v>
@@ -1877,22 +1916,22 @@
         <v>6000</v>
       </c>
       <c r="J22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K22" s="3">
         <v>13000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>11000</v>
       </c>
       <c r="P22" s="3">
         <v>11000</v>
@@ -1907,19 +1946,19 @@
         <v>11000</v>
       </c>
       <c r="T22" s="3">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="U22" s="3">
         <v>15000</v>
       </c>
       <c r="V22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="W22" s="3">
         <v>20000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>15000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>11000</v>
       </c>
       <c r="Y22" s="3">
         <v>11000</v>
@@ -1928,200 +1967,209 @@
         <v>11000</v>
       </c>
       <c r="AA22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="AB22" s="3">
         <v>10000</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>8000</v>
       </c>
       <c r="AC22" s="3">
         <v>8000</v>
       </c>
       <c r="AD22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="AE22" s="3">
         <v>8300</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-782000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-89000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-78000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-168000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3672000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-637000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>140000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>86000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>420000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>207000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>169000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>299000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>215000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>165000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>178000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>269000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>270000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>346000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>233000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>209000</v>
-      </c>
-      <c r="W23" s="3">
-        <v>232000</v>
       </c>
       <c r="X23" s="3">
         <v>232000</v>
       </c>
       <c r="Y23" s="3">
+        <v>232000</v>
+      </c>
+      <c r="Z23" s="3">
         <v>221000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>223000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>175000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>141000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>503000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>134200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>154400</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E24" s="3">
         <v>145000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-81000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-29000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>144000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-102000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>54000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-26000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>103000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>22000</v>
       </c>
       <c r="M24" s="3">
         <v>22000</v>
       </c>
       <c r="N24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="O24" s="3">
         <v>42000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>118000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>30000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>36000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>53000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>33000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>32000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>24000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>16000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>23000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>21000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>155000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>26700</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2209,186 +2257,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-754000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-234000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-139000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3816000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-535000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>86000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>112000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>317000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>185000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>147000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>257000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>179000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>47000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>173000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>239000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>234000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>293000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>224000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>197000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>199000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>200000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>197000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>207000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>152000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>120000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>348000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>107500</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>116900</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-754000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-234000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-139000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3816000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-535000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>86000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>112000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>317000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>185000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>147000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>257000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>179000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>47000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>173000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>239000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>234000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>296000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>233000</v>
-      </c>
-      <c r="V27" s="3">
-        <v>210000</v>
       </c>
       <c r="W27" s="3">
         <v>210000</v>
       </c>
       <c r="X27" s="3">
+        <v>210000</v>
+      </c>
+      <c r="Y27" s="3">
         <v>209000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>208000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>218000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>163000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>128000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>367000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>123800</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2476,8 +2533,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2520,8 +2580,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -2535,23 +2595,23 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-11000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-150000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>10</v>
@@ -2565,8 +2625,11 @@
       <c r="AE29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2654,8 +2717,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2743,186 +2809,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-18000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>32000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>9000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>52000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>38000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-58000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-979000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-36000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-182000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-64000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-80000</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-12000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>27000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-117000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-29000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-32000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-6000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>-4000</v>
       </c>
       <c r="AA32" s="3">
         <v>-4000</v>
       </c>
       <c r="AB32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-6000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-459000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>400</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-754000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-234000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-139000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3816000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-535000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>86000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>112000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>317000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>185000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>147000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>257000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>179000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>47000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>173000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>239000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>234000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>296000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>233000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>210000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>199000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>209000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>208000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>68000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>163000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>128000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>367000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>123800</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3010,191 +3085,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-754000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-234000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-139000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3816000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-535000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>86000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>112000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>317000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>185000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>147000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>257000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>179000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>47000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>173000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>239000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>234000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>296000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>233000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>210000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>199000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>209000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>208000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>68000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>163000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>128000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>367000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>123800</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E38" s="2">
         <v>45109</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45018</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44927</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44836</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44745</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44654</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44563</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44472</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44381</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44290</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44199</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44101</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44010</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43919</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43828</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43737</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43464</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43282</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43191</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43009</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42918</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42827</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42736</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3226,8 +3310,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3259,97 +3344,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>927000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1553000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1494000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2011000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1289000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1351000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1232000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1080000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4196000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4433000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1810000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1761000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1770000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1991000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2042000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1815000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1943000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2270000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1144000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1346000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1344000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1560000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1225000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1354000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1219000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>981000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>734500</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>794700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3357,467 +3446,482 @@
         <v>6000</v>
       </c>
       <c r="E42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F42" s="3">
         <v>24000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>26000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>41000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>38000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>65000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>107000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>185000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>90000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>197000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1662000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1563000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1498000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1341000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1372000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1351000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1230000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1345000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2368000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2043000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1168000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>813000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>920000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>687000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>674000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>797000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>824200</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>741600</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>709000</v>
+      </c>
+      <c r="E43" s="3">
         <v>758000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>682000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>688000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>645000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>660000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>630000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>648000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>604000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>540000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>517000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>487000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>464000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>385000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>472000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>573000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>541000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>470000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>457000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>514000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>433000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>395000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>400000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>411000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>383000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>372000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>368000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>381300</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>381600</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>615000</v>
+      </c>
+      <c r="E44" s="3">
         <v>617000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>586000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>568000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>559000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>518000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>465000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>431000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>401000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>380000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>364000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>372000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>415000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>435000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>384000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>359000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>417000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>420000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>412000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>386000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>374000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>362000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>350000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>333000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>327000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>309000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>299000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>300200</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>312200</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E45" s="3">
         <v>289000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>386000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>268000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>242000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>386000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>244000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>295000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>181000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>104000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>131000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>152000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>126000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>106000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>136000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>105000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>98000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>93000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>61000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>78000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>66000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>68000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>71000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>91000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>54000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>69000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>72000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>77900</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2506000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3223000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3172000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3561000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2487000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2891000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2755000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2713000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2451000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5310000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5642000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4483000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4329000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4194000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4324000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4451000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4222000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4156000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4545000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4490000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4262000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3337000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3194000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2980000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2805000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2643000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2517000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2318100</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>2277800</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E47" s="3">
         <v>205000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>200000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>211000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>226000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>229000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>224000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>10</v>
@@ -3831,8 +3935,8 @@
       <c r="N47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3882,186 +3986,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1621000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1707000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1740000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1744000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1748000</v>
       </c>
       <c r="H48" s="3">
         <v>1748000</v>
       </c>
       <c r="I48" s="3">
+        <v>1748000</v>
+      </c>
+      <c r="J48" s="3">
         <v>1740000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1696000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1685000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1481000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1444000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1454000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1455000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1439000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1449000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1444000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1430000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1412000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1426000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1075000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1060000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1036000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>983000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>931000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>862000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>837000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>734000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>713300</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>633900</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5556000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6427000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6476000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6524000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6573000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10360000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10322000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10363000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10449000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1128000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1031000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1039000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1046000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1050000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>962000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>969000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>976000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>986000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1006000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1016000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1026000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1036000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>943000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>946000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>956000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>967000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>978000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1018600</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>1031600</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4149,8 +4262,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4238,97 +4354,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E52" s="3">
         <v>212000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>223000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>212000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>222000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>220000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>233000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>445000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>478000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>756000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>638000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>609000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>574000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>565000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>526000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>452000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>461000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>419000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>413000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>378000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>411000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>442000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>422000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>400000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>423000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>411000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>369000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>230500</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>284600</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4416,97 +4538,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10122000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11774000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11811000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12252000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11256000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15448000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15274000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15217000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15063000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8675000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8755000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7585000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7404000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7248000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7261000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7316000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7089000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6973000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7390000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6959000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6759000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5851000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5542000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5257000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5046000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4858000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4598000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>4280600</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>4227800</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4538,8 +4666,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4571,121 +4700,125 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E57" s="3">
         <v>244000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>242000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>293000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>281000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>282000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>291000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>332000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>248000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>178000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>192000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>156000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>135000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>130000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>149000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>143000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>139000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>137000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>184000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>156000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>149000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>151000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>160000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>158000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>175000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>142000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>137900</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>134100</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>750000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>749000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1248000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1246000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1245000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>499000</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -4693,23 +4826,23 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>488000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>511000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>507000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>503000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>499000</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
@@ -4717,396 +4850,411 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>631000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>1107000</v>
       </c>
       <c r="W58" s="3">
         <v>1107000</v>
       </c>
       <c r="X58" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="Y58" s="3">
         <v>625000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>620000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>10000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>5000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1000</v>
-      </c>
-      <c r="AD58" s="3">
-        <v>1300</v>
       </c>
       <c r="AE58" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1242000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1309000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1239000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1232000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1142000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1354000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>761000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>666000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>674000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>602000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>541000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>452000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>477000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>425000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>516000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>476000</v>
-      </c>
-      <c r="T59" s="3">
-        <v>473000</v>
       </c>
       <c r="U59" s="3">
         <v>473000</v>
       </c>
       <c r="V59" s="3">
+        <v>473000</v>
+      </c>
+      <c r="W59" s="3">
         <v>513000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>472000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>443000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>409000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>576000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>505000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>502000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>578000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>565500</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>493500</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1482000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2303000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2230000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2773000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2669000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2881000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1490000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1093000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>914000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>874000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1268000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1244000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1115000</v>
       </c>
       <c r="P60" s="3">
         <v>1115000</v>
       </c>
       <c r="Q60" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="R60" s="3">
         <v>1054000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>665000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>619000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>612000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1241000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1804000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1735000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1217000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1180000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>746000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>665000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>682000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>721000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>704700</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>628900</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1489000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1488000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1487000</v>
       </c>
       <c r="F61" s="3">
         <v>1487000</v>
       </c>
       <c r="G61" s="3">
-        <v>495000</v>
+        <v>1487000</v>
       </c>
       <c r="H61" s="3">
         <v>495000</v>
       </c>
       <c r="I61" s="3">
+        <v>495000</v>
+      </c>
+      <c r="J61" s="3">
         <v>1241000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1695000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1687000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1679000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1672000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>673000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>666000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>659000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>652000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1141000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1131000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1120000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1112000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>890000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>860000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>723000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>710000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1182000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1180000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1169000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1055000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1047800</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>1040800</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1253000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1428000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1401000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1393000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1361000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1628000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1648000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1689000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1869000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>942000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>893000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>974000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>923000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>911000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>920000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>897000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>900000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>909000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>930000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>359000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>352000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>343000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>364000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>360000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>222000</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>212000</v>
       </c>
       <c r="AC62" s="3">
         <v>212000</v>
       </c>
       <c r="AD62" s="3">
+        <v>212000</v>
+      </c>
+      <c r="AE62" s="3">
         <v>214000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>204300</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5194,8 +5342,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5283,8 +5434,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5372,97 +5526,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4224000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5219000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5118000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5653000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4525000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5004000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4379000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4477000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4470000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3495000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3833000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2891000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2704000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2685000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2626000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2703000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2650000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2641000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3405000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3201000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3256000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2594000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2534000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2508000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2191000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2143000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2047000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2083400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1987700</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5494,8 +5654,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5583,8 +5744,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5672,8 +5836,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5761,8 +5928,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5850,97 +6020,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E72" s="3">
         <v>911000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1145000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1142000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1281000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5097000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5632000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5485000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5372000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5055000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4870000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4723000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4466000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4287000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4240000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4067000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3828000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3594000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3298000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3083000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2872000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2673000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2464000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2256000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2188000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2025000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1897000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1485400</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1361700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6028,8 +6204,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6117,8 +6296,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6206,97 +6388,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5898000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6555000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6693000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6599000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6731000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10444000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10895000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10740000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10593000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5180000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4922000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4694000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4700000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4563000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4635000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4613000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4439000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4332000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3985000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3758000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3503000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3257000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3008000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2749000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2855000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2715000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2551000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2197200</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>2240100</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6384,191 +6572,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E80" s="2">
         <v>45109</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45018</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44927</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44836</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44745</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44654</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44563</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44472</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44381</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44290</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44199</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44101</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44010</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43919</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43828</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43737</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43464</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43282</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43191</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43009</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42918</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42827</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42736</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-754000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-234000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-139000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3816000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-535000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>86000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>112000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>317000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>185000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>147000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>257000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>179000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>47000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>173000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>239000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>234000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>296000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>233000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>210000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>199000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>209000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>208000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>68000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>163000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>128000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>367000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>123800</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>128900</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6600,8 +6797,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6609,88 +6807,91 @@
         <v>108000</v>
       </c>
       <c r="E83" s="3">
+        <v>108000</v>
+      </c>
+      <c r="F83" s="3">
         <v>107000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>106000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>103000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>94000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>91000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>89000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>65000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>49000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>48000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>50000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>47000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>46000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>44000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>45000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>47000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>49000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>47000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>50000</v>
-      </c>
-      <c r="W83" s="3">
-        <v>45000</v>
       </c>
       <c r="X83" s="3">
         <v>45000</v>
       </c>
       <c r="Y83" s="3">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="Z83" s="3">
         <v>39000</v>
       </c>
       <c r="AA83" s="3">
+        <v>39000</v>
+      </c>
+      <c r="AB83" s="3">
         <v>41000</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>38000</v>
       </c>
       <c r="AC83" s="3">
         <v>38000</v>
       </c>
       <c r="AD83" s="3">
+        <v>38000</v>
+      </c>
+      <c r="AE83" s="3">
         <v>37500</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6778,8 +6979,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6867,8 +7071,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6956,8 +7163,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7045,8 +7255,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7134,97 +7347,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E89" s="3">
         <v>105000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>147000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-52000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>125000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>172000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>282000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-272000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>253000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>282000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>406000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>153000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>240000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>281000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>443000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>267000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>143000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>198000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>300000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>292000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>295000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>255000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>294000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>235000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>178000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>168000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>262000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>176000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7256,97 +7475,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-47000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-53000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-88000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-246000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-71000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-61000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-70000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-52000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-44000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-62000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-48000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-40000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-57000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-49000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-47000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-56000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-65000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-64000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-77000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-90000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-76000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-82000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-69000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-83000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-163500</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-136600</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7434,8 +7657,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7523,97 +7749,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-37000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-56000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-102000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-250000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-165000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-74000</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-2448000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1376000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-34000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-65000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-320000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-135000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-104000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-218000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>79000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>988000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-348000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-940000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-537000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>12000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-315000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-97000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>35000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>163000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-173500</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-341000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7645,8 +7877,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7734,8 +7967,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7823,8 +8059,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7912,8 +8151,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8001,151 +8243,157 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-707000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-473000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>956000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>28000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>21000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-129000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-394000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-496000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>968000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-331000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-101000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-143000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-191000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-115000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-173000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-549000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-60000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-154000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>651000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>30000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>67000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-109000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>24000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-86000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-163500</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>34500</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>10000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-15000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-17000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4000</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
@@ -8153,119 +8401,125 @@
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>1000</v>
       </c>
       <c r="Z101" s="3">
         <v>1000</v>
       </c>
       <c r="AA101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB101" s="3">
         <v>2000</v>
-      </c>
-      <c r="AB101" s="3">
-        <v>1000</v>
       </c>
       <c r="AC101" s="3">
         <v>1000</v>
       </c>
       <c r="AD101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE101" s="3">
         <v>-3300</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-626000</v>
+      </c>
+      <c r="E102" s="3">
         <v>59000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-517000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1011000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-289000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-62000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>119000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>152000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3116000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-237000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2623000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>49000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-221000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-51000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>227000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-128000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-327000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1126000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-202000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-216000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>335000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-129000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>135000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>238000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>246000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-60000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-157000</v>
       </c>
     </row>
